--- a/07.compute-cosine-similarities/output/connections.xlsx
+++ b/07.compute-cosine-similarities/output/connections.xlsx
@@ -2098,10 +2098,10 @@
         <v>0.015</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.183</v>
+        <v>-0.185</v>
       </c>
       <c r="J39" t="n">
-        <v>0.255</v>
+        <v>0.257</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -2469,6 +2469,15 @@
       <c r="G48" t="n">
         <v>-0.05202555656433105</v>
       </c>
+      <c r="H48" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.159</v>
+      </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
@@ -2794,10 +2803,10 @@
         <v>0.149</v>
       </c>
       <c r="I56" t="n">
-        <v>0.185</v>
+        <v>0.187</v>
       </c>
       <c r="J56" t="n">
-        <v>0.268</v>
+        <v>0.27</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3307,10 +3316,10 @@
         <v>-0.441</v>
       </c>
       <c r="I69" t="n">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
       <c r="J69" t="n">
-        <v>0.272</v>
+        <v>0.275</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -3501,15 +3510,6 @@
       <c r="F74" t="b">
         <v>0</v>
       </c>
-      <c r="H74" t="n">
-        <v>0.707</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.358</v>
-      </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3838,7 +3838,7 @@
         <v>-0.001</v>
       </c>
       <c r="J83" t="n">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -7963,10 +7963,10 @@
         <v>0.305</v>
       </c>
       <c r="I182" t="n">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="J182" t="n">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="K182" t="b">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>-0.005</v>
       </c>
       <c r="I183" t="n">
-        <v>0.211</v>
+        <v>0.214</v>
       </c>
       <c r="J183" t="n">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="K183" t="b">
         <v>0</v>
@@ -8092,10 +8092,10 @@
         <v>0.374</v>
       </c>
       <c r="I185" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="J185" t="n">
-        <v>0.623</v>
+        <v>0.627</v>
       </c>
       <c r="K185" t="b">
         <v>0</v>
@@ -8179,10 +8179,10 @@
         <v>0.08</v>
       </c>
       <c r="I187" t="n">
-        <v>0.271</v>
+        <v>0.274</v>
       </c>
       <c r="J187" t="n">
-        <v>0.288</v>
+        <v>0.291</v>
       </c>
       <c r="K187" t="b">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>0.317</v>
       </c>
       <c r="I188" t="n">
-        <v>0.899</v>
+        <v>0.902</v>
       </c>
       <c r="J188" t="n">
-        <v>0.901</v>
+        <v>0.904</v>
       </c>
       <c r="K188" t="b">
         <v>0</v>
@@ -8263,10 +8263,10 @@
         <v>0.12</v>
       </c>
       <c r="I189" t="n">
-        <v>0.126</v>
+        <v>0.128</v>
       </c>
       <c r="J189" t="n">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
       <c r="K189" t="b">
         <v>0</v>
@@ -8305,7 +8305,7 @@
         <v>0.355</v>
       </c>
       <c r="I190" t="n">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
       <c r="J190" t="n">
         <v>0.999</v>
@@ -8392,10 +8392,10 @@
         <v>0.151</v>
       </c>
       <c r="I192" t="n">
-        <v>0.523</v>
+        <v>0.528</v>
       </c>
       <c r="J192" t="n">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
       <c r="K192" t="b">
         <v>0</v>
@@ -8434,10 +8434,10 @@
         <v>0.143</v>
       </c>
       <c r="I193" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="J193" t="n">
         <v>0.305</v>
-      </c>
-      <c r="J193" t="n">
-        <v>0.303</v>
       </c>
       <c r="K193" t="b">
         <v>0</v>
@@ -8476,10 +8476,10 @@
         <v>0.008</v>
       </c>
       <c r="I194" t="n">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="J194" t="n">
-        <v>0.292</v>
+        <v>0.294</v>
       </c>
       <c r="K194" t="b">
         <v>0</v>
@@ -8518,10 +8518,10 @@
         <v>0.485</v>
       </c>
       <c r="I195" t="n">
-        <v>0.388</v>
+        <v>0.392</v>
       </c>
       <c r="J195" t="n">
-        <v>0.437</v>
+        <v>0.44</v>
       </c>
       <c r="K195" t="b">
         <v>0</v>
@@ -8560,10 +8560,10 @@
         <v>0.001</v>
       </c>
       <c r="I196" t="n">
-        <v>0.202</v>
+        <v>0.204</v>
       </c>
       <c r="J196" t="n">
-        <v>0.283</v>
+        <v>0.285</v>
       </c>
       <c r="K196" t="b">
         <v>0</v>
@@ -8602,10 +8602,10 @@
         <v>0.028</v>
       </c>
       <c r="I197" t="n">
-        <v>-0.13</v>
+        <v>-0.131</v>
       </c>
       <c r="J197" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K197" t="b">
         <v>0</v>
@@ -8644,10 +8644,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I198" t="n">
-        <v>0.209</v>
+        <v>0.212</v>
       </c>
       <c r="J198" t="n">
-        <v>0.307</v>
+        <v>0.31</v>
       </c>
       <c r="K198" t="b">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>-0.028</v>
       </c>
       <c r="J199" t="n">
-        <v>0.332</v>
+        <v>0.335</v>
       </c>
       <c r="K199" t="b">
         <v>0</v>
@@ -8728,10 +8728,10 @@
         <v>0.342</v>
       </c>
       <c r="I200" t="n">
-        <v>0.603</v>
+        <v>0.608</v>
       </c>
       <c r="J200" t="n">
-        <v>0.708</v>
+        <v>0.711</v>
       </c>
       <c r="K200" t="b">
         <v>0</v>
@@ -8770,10 +8770,10 @@
         <v>0.213</v>
       </c>
       <c r="I201" t="n">
-        <v>0.42</v>
+        <v>0.424</v>
       </c>
       <c r="J201" t="n">
-        <v>0.378</v>
+        <v>0.381</v>
       </c>
       <c r="K201" t="b">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0.329</v>
       </c>
       <c r="I202" t="n">
-        <v>0.982</v>
+        <v>0.983</v>
       </c>
       <c r="J202" t="n">
         <v>0.999</v>
@@ -8854,10 +8854,10 @@
         <v>0.055</v>
       </c>
       <c r="I203" t="n">
-        <v>0.216</v>
+        <v>0.219</v>
       </c>
       <c r="J203" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="K203" t="b">
         <v>0</v>
@@ -8896,10 +8896,10 @@
         <v>0.019</v>
       </c>
       <c r="I204" t="n">
-        <v>0.189</v>
+        <v>0.191</v>
       </c>
       <c r="J204" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="K204" t="b">
         <v>0</v>
@@ -8938,10 +8938,10 @@
         <v>0.106</v>
       </c>
       <c r="I205" t="n">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="J205" t="n">
-        <v>0.268</v>
+        <v>0.271</v>
       </c>
       <c r="K205" t="b">
         <v>0</v>
@@ -8980,7 +8980,7 @@
         <v>0.336</v>
       </c>
       <c r="I206" t="n">
-        <v>0.98</v>
+        <v>0.981</v>
       </c>
       <c r="J206" t="n">
         <v>0.999</v>
@@ -9022,10 +9022,10 @@
         <v>0.299</v>
       </c>
       <c r="I207" t="n">
-        <v>0.67</v>
+        <v>0.675</v>
       </c>
       <c r="J207" t="n">
-        <v>0.506</v>
+        <v>0.51</v>
       </c>
       <c r="K207" t="b">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0.327</v>
       </c>
       <c r="I208" t="n">
-        <v>0.986</v>
+        <v>0.987</v>
       </c>
       <c r="J208" t="n">
         <v>0.999</v>
@@ -9109,7 +9109,7 @@
         <v>0.035</v>
       </c>
       <c r="J209" t="n">
-        <v>0.259</v>
+        <v>0.261</v>
       </c>
       <c r="K209" t="b">
         <v>0</v>
@@ -9148,10 +9148,10 @@
         <v>0.025</v>
       </c>
       <c r="I210" t="n">
-        <v>0.123</v>
+        <v>0.124</v>
       </c>
       <c r="J210" t="n">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="K210" t="b">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0.027</v>
       </c>
       <c r="I211" t="n">
-        <v>0.157</v>
+        <v>0.159</v>
       </c>
       <c r="J211" t="n">
         <v>0.08599999999999999</v>
@@ -9229,13 +9229,13 @@
         <v>0.8992842435836792</v>
       </c>
       <c r="H212" t="n">
-        <v>0.162</v>
+        <v>0.163</v>
       </c>
       <c r="I212" t="n">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="J212" t="n">
-        <v>0.177</v>
+        <v>0.178</v>
       </c>
       <c r="K212" t="b">
         <v>0</v>
@@ -9274,10 +9274,10 @@
         <v>0.55</v>
       </c>
       <c r="I213" t="n">
-        <v>0.311</v>
+        <v>0.314</v>
       </c>
       <c r="J213" t="n">
-        <v>0.575</v>
+        <v>0.579</v>
       </c>
       <c r="K213" t="b">
         <v>0</v>
@@ -9316,10 +9316,10 @@
         <v>0.008</v>
       </c>
       <c r="I214" t="n">
-        <v>-0.234</v>
+        <v>-0.236</v>
       </c>
       <c r="J214" t="n">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="K214" t="b">
         <v>0</v>
@@ -9358,10 +9358,10 @@
         <v>0.284</v>
       </c>
       <c r="I215" t="n">
-        <v>-0.078</v>
+        <v>-0.079</v>
       </c>
       <c r="J215" t="n">
-        <v>0.333</v>
+        <v>0.336</v>
       </c>
       <c r="K215" t="b">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0.192</v>
       </c>
       <c r="I216" t="n">
-        <v>0.754</v>
+        <v>0.759</v>
       </c>
       <c r="J216" t="n">
-        <v>0.24</v>
+        <v>0.242</v>
       </c>
       <c r="K216" t="b">
         <v>0</v>
@@ -9442,10 +9442,10 @@
         <v>0.133</v>
       </c>
       <c r="I217" t="n">
-        <v>0.227</v>
+        <v>0.229</v>
       </c>
       <c r="J217" t="n">
-        <v>0.254</v>
+        <v>0.256</v>
       </c>
       <c r="K217" t="b">
         <v>0</v>
@@ -9481,10 +9481,10 @@
         <v>0.8981479406356812</v>
       </c>
       <c r="H218" t="n">
-        <v>0.314</v>
+        <v>0.315</v>
       </c>
       <c r="I218" t="n">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
       <c r="J218" t="n">
         <v>0.999</v>
@@ -9529,7 +9529,7 @@
         <v>0.06</v>
       </c>
       <c r="J219" t="n">
-        <v>0.273</v>
+        <v>0.275</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0.8960318565368652</v>
       </c>
       <c r="H222" t="n">
-        <v>0.294</v>
+        <v>0.295</v>
       </c>
       <c r="I222" t="n">
-        <v>0.972</v>
+        <v>0.973</v>
       </c>
       <c r="J222" t="n">
         <v>0.998</v>
@@ -9696,6 +9696,15 @@
       <c r="G223" t="n">
         <v>0.895378589630127</v>
       </c>
+      <c r="H223" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="I223" t="n">
+        <v>-0.136</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.204</v>
+      </c>
       <c r="K223" t="b">
         <v>0</v>
       </c>
@@ -9729,6 +9738,15 @@
       <c r="G224" t="n">
         <v>0.8946360945701599</v>
       </c>
+      <c r="H224" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.156</v>
+      </c>
       <c r="K224" t="b">
         <v>0</v>
       </c>
@@ -9766,10 +9784,10 @@
         <v>0.182</v>
       </c>
       <c r="I225" t="n">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
       <c r="J225" t="n">
-        <v>0.396</v>
+        <v>0.399</v>
       </c>
       <c r="K225" t="b">
         <v>0</v>
@@ -9808,10 +9826,10 @@
         <v>-0.001</v>
       </c>
       <c r="I226" t="n">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="J226" t="n">
-        <v>0.243</v>
+        <v>0.245</v>
       </c>
       <c r="K226" t="b">
         <v>0</v>
@@ -9847,10 +9865,10 @@
         <v>0.8940413594245911</v>
       </c>
       <c r="H227" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="I227" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
       <c r="J227" t="n">
         <v>0.999</v>
@@ -9888,6 +9906,15 @@
       <c r="G228" t="n">
         <v>0.8940181136131287</v>
       </c>
+      <c r="H228" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I228" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.052</v>
+      </c>
       <c r="K228" t="b">
         <v>0</v>
       </c>
@@ -9925,10 +9952,10 @@
         <v>0.334</v>
       </c>
       <c r="I229" t="n">
-        <v>0.24</v>
+        <v>0.243</v>
       </c>
       <c r="J229" t="n">
-        <v>0.647</v>
+        <v>0.651</v>
       </c>
       <c r="K229" t="b">
         <v>0</v>
@@ -9967,10 +9994,10 @@
         <v>0.406</v>
       </c>
       <c r="I230" t="n">
-        <v>0.76</v>
+        <v>0.765</v>
       </c>
       <c r="J230" t="n">
-        <v>0.529</v>
+        <v>0.533</v>
       </c>
       <c r="K230" t="b">
         <v>0</v>
@@ -10005,6 +10032,15 @@
       <c r="G231" t="n">
         <v>0.8925319910049438</v>
       </c>
+      <c r="H231" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.164</v>
+      </c>
       <c r="K231" t="b">
         <v>0</v>
       </c>
@@ -10042,10 +10078,10 @@
         <v>0.217</v>
       </c>
       <c r="I232" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="J232" t="n">
-        <v>0.379</v>
+        <v>0.382</v>
       </c>
       <c r="K232" t="b">
         <v>0</v>
@@ -10084,10 +10120,10 @@
         <v>0.283</v>
       </c>
       <c r="I233" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="J233" t="n">
-        <v>0.448</v>
+        <v>0.451</v>
       </c>
       <c r="K233" t="b">
         <v>0</v>
@@ -10129,7 +10165,7 @@
         <v>-0.025</v>
       </c>
       <c r="J234" t="n">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
       <c r="K234" t="b">
         <v>0</v>
@@ -10168,7 +10204,7 @@
         <v>0.238</v>
       </c>
       <c r="I235" t="n">
-        <v>0.512</v>
+        <v>0.517</v>
       </c>
       <c r="J235" t="n">
         <v>0.077</v>
@@ -10210,10 +10246,10 @@
         <v>0.002</v>
       </c>
       <c r="I236" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="J236" t="n">
-        <v>0.489</v>
+        <v>0.492</v>
       </c>
       <c r="K236" t="b">
         <v>0</v>
@@ -10252,10 +10288,10 @@
         <v>0.101</v>
       </c>
       <c r="I237" t="n">
-        <v>0.197</v>
+        <v>0.199</v>
       </c>
       <c r="J237" t="n">
-        <v>0.118</v>
+        <v>0.119</v>
       </c>
       <c r="K237" t="b">
         <v>0</v>
@@ -10294,10 +10330,10 @@
         <v>0.052</v>
       </c>
       <c r="I238" t="n">
-        <v>0.129</v>
+        <v>0.131</v>
       </c>
       <c r="J238" t="n">
-        <v>0.177</v>
+        <v>0.178</v>
       </c>
       <c r="K238" t="b">
         <v>0</v>
@@ -10336,10 +10372,10 @@
         <v>-0.06</v>
       </c>
       <c r="I239" t="n">
-        <v>0.188</v>
+        <v>0.191</v>
       </c>
       <c r="J239" t="n">
-        <v>0.184</v>
+        <v>0.185</v>
       </c>
       <c r="K239" t="b">
         <v>0</v>
@@ -10378,10 +10414,10 @@
         <v>-0.07099999999999999</v>
       </c>
       <c r="I240" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="J240" t="n">
-        <v>0.68</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="K240" t="b">
         <v>0</v>
@@ -10420,7 +10456,7 @@
         <v>-0.063</v>
       </c>
       <c r="I241" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="J241" t="n">
         <v>0.057</v>
@@ -10462,10 +10498,10 @@
         <v>0.103</v>
       </c>
       <c r="I242" t="n">
-        <v>0.136</v>
+        <v>0.138</v>
       </c>
       <c r="J242" t="n">
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
       <c r="K242" t="b">
         <v>0</v>
@@ -10504,10 +10540,10 @@
         <v>0.208</v>
       </c>
       <c r="I243" t="n">
-        <v>0.413</v>
+        <v>0.417</v>
       </c>
       <c r="J243" t="n">
-        <v>0.296</v>
+        <v>0.299</v>
       </c>
       <c r="K243" t="b">
         <v>0</v>
@@ -10546,10 +10582,10 @@
         <v>0.342</v>
       </c>
       <c r="I244" t="n">
-        <v>0.224</v>
+        <v>0.226</v>
       </c>
       <c r="J244" t="n">
-        <v>0.287</v>
+        <v>0.29</v>
       </c>
       <c r="K244" t="b">
         <v>0</v>
@@ -10588,10 +10624,10 @@
         <v>0.046</v>
       </c>
       <c r="I245" t="n">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
       <c r="J245" t="n">
-        <v>0.117</v>
+        <v>0.118</v>
       </c>
       <c r="K245" t="b">
         <v>0</v>
@@ -10633,7 +10669,7 @@
         <v>0.007</v>
       </c>
       <c r="J246" t="n">
-        <v>0.076</v>
+        <v>0.077</v>
       </c>
       <c r="K246" t="b">
         <v>0</v>
@@ -10672,10 +10708,10 @@
         <v>0.192</v>
       </c>
       <c r="I247" t="n">
-        <v>0.794</v>
+        <v>0.798</v>
       </c>
       <c r="J247" t="n">
-        <v>0.623</v>
+        <v>0.627</v>
       </c>
       <c r="K247" t="b">
         <v>0</v>
@@ -10714,10 +10750,10 @@
         <v>0.055</v>
       </c>
       <c r="I248" t="n">
-        <v>0.212</v>
+        <v>0.215</v>
       </c>
       <c r="J248" t="n">
-        <v>0.224</v>
+        <v>0.226</v>
       </c>
       <c r="K248" t="b">
         <v>0</v>
@@ -10753,13 +10789,13 @@
         <v>-0.6888520121574402</v>
       </c>
       <c r="H249" t="n">
-        <v>0.802</v>
+        <v>0.803</v>
       </c>
       <c r="I249" t="n">
-        <v>0.246</v>
+        <v>0.249</v>
       </c>
       <c r="J249" t="n">
-        <v>0.615</v>
+        <v>0.619</v>
       </c>
       <c r="K249" t="b">
         <v>0</v>
@@ -10801,7 +10837,7 @@
         <v>0.006</v>
       </c>
       <c r="J250" t="n">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
       <c r="K250" t="b">
         <v>0</v>
@@ -10837,13 +10873,13 @@
         <v>-0.6791568398475647</v>
       </c>
       <c r="H251" t="n">
-        <v>0.696</v>
+        <v>0.697</v>
       </c>
       <c r="I251" t="n">
-        <v>0.291</v>
+        <v>0.294</v>
       </c>
       <c r="J251" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="K251" t="b">
         <v>0</v>
@@ -10878,6 +10914,15 @@
       <c r="G252" t="n">
         <v>-0.6770351529121399</v>
       </c>
+      <c r="H252" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="I252" t="n">
+        <v>-0.116</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.409</v>
+      </c>
       <c r="K252" t="b">
         <v>0</v>
       </c>
@@ -10885,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="M252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -10912,13 +10957,13 @@
         <v>-0.6748114824295044</v>
       </c>
       <c r="H253" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="I253" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="J253" t="n">
-        <v>0.874</v>
+        <v>0.877</v>
       </c>
       <c r="K253" t="b">
         <v>0</v>
@@ -10957,7 +11002,7 @@
         <v>0.094</v>
       </c>
       <c r="I254" t="n">
-        <v>0.137</v>
+        <v>0.138</v>
       </c>
       <c r="J254" t="n">
         <v>-0.013</v>
@@ -10999,10 +11044,10 @@
         <v>0.21</v>
       </c>
       <c r="I255" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="J255" t="n">
-        <v>0.255</v>
+        <v>0.257</v>
       </c>
       <c r="K255" t="b">
         <v>0</v>
@@ -11086,10 +11131,10 @@
         <v>-0.158</v>
       </c>
       <c r="I257" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="J257" t="n">
-        <v>-0.39</v>
+        <v>-0.393</v>
       </c>
       <c r="K257" t="b">
         <v>0</v>
@@ -11128,10 +11173,10 @@
         <v>0.215</v>
       </c>
       <c r="I258" t="n">
-        <v>0.398</v>
+        <v>0.402</v>
       </c>
       <c r="J258" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="K258" t="b">
         <v>0</v>
@@ -11140,7 +11185,7 @@
         <v>1</v>
       </c>
       <c r="M258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -11260,10 +11305,10 @@
         <v>0.001</v>
       </c>
       <c r="I261" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="J261" t="n">
-        <v>0.159</v>
+        <v>0.16</v>
       </c>
       <c r="K261" t="b">
         <v>0</v>
@@ -11302,10 +11347,10 @@
         <v>0.221</v>
       </c>
       <c r="I262" t="n">
-        <v>0.282</v>
+        <v>0.285</v>
       </c>
       <c r="J262" t="n">
-        <v>-0.424</v>
+        <v>-0.427</v>
       </c>
       <c r="K262" t="b">
         <v>0</v>
@@ -11344,10 +11389,10 @@
         <v>0.026</v>
       </c>
       <c r="I263" t="n">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="J263" t="n">
-        <v>0.138</v>
+        <v>0.14</v>
       </c>
       <c r="K263" t="b">
         <v>0</v>
@@ -11386,10 +11431,10 @@
         <v>0.228</v>
       </c>
       <c r="I264" t="n">
-        <v>0.573</v>
+        <v>0.578</v>
       </c>
       <c r="J264" t="n">
-        <v>0.387</v>
+        <v>0.39</v>
       </c>
       <c r="K264" t="b">
         <v>0</v>
@@ -11473,10 +11518,10 @@
         <v>0.016</v>
       </c>
       <c r="I266" t="n">
-        <v>0.417</v>
+        <v>0.421</v>
       </c>
       <c r="J266" t="n">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="K266" t="b">
         <v>0</v>
@@ -11512,13 +11557,13 @@
         <v>-0.6633037328720093</v>
       </c>
       <c r="H267" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="I267" t="n">
-        <v>0.116</v>
+        <v>0.117</v>
       </c>
       <c r="J267" t="n">
-        <v>0.607</v>
+        <v>0.611</v>
       </c>
       <c r="K267" t="b">
         <v>0</v>
@@ -11557,10 +11602,10 @@
         <v>0.046</v>
       </c>
       <c r="I268" t="n">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="J268" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K268" t="b">
         <v>0</v>
@@ -11599,10 +11644,10 @@
         <v>-0.14</v>
       </c>
       <c r="I269" t="n">
-        <v>-0.099</v>
+        <v>-0.1</v>
       </c>
       <c r="J269" t="n">
-        <v>-0.292</v>
+        <v>-0.294</v>
       </c>
       <c r="K269" t="b">
         <v>0</v>
@@ -11641,10 +11686,10 @@
         <v>-0.006</v>
       </c>
       <c r="I270" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="J270" t="n">
-        <v>0.199</v>
+        <v>0.201</v>
       </c>
       <c r="K270" t="b">
         <v>0</v>
@@ -11686,7 +11731,7 @@
         <v>-0.046</v>
       </c>
       <c r="J271" t="n">
-        <v>-0.551</v>
+        <v>-0.555</v>
       </c>
       <c r="K271" t="b">
         <v>0</v>
@@ -11725,10 +11770,10 @@
         <v>-0.23</v>
       </c>
       <c r="I272" t="n">
-        <v>0.302</v>
+        <v>0.305</v>
       </c>
       <c r="J272" t="n">
-        <v>0.245</v>
+        <v>0.247</v>
       </c>
       <c r="K272" t="b">
         <v>0</v>
@@ -11767,10 +11812,10 @@
         <v>0.169</v>
       </c>
       <c r="I273" t="n">
-        <v>0.361</v>
+        <v>0.365</v>
       </c>
       <c r="J273" t="n">
-        <v>0.247</v>
+        <v>0.249</v>
       </c>
       <c r="K273" t="b">
         <v>0</v>
@@ -11809,10 +11854,10 @@
         <v>0.12</v>
       </c>
       <c r="I274" t="n">
-        <v>0.154</v>
+        <v>0.156</v>
       </c>
       <c r="J274" t="n">
-        <v>0.167</v>
+        <v>0.169</v>
       </c>
       <c r="K274" t="b">
         <v>0</v>
@@ -11941,10 +11986,10 @@
         <v>0.667</v>
       </c>
       <c r="I277" t="n">
-        <v>-0.129</v>
+        <v>-0.13</v>
       </c>
       <c r="J277" t="n">
-        <v>0.545</v>
+        <v>0.549</v>
       </c>
       <c r="K277" t="b">
         <v>0</v>
@@ -11986,7 +12031,7 @@
         <v>0.033</v>
       </c>
       <c r="J278" t="n">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="K278" t="b">
         <v>0</v>
@@ -12022,13 +12067,13 @@
         <v>-0.6507511734962463</v>
       </c>
       <c r="H279" t="n">
-        <v>0.702</v>
+        <v>0.703</v>
       </c>
       <c r="I279" t="n">
-        <v>0.453</v>
+        <v>0.458</v>
       </c>
       <c r="J279" t="n">
-        <v>0.587</v>
+        <v>0.591</v>
       </c>
       <c r="K279" t="b">
         <v>0</v>
@@ -12067,10 +12112,10 @@
         <v>0.033</v>
       </c>
       <c r="I280" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J280" t="n">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
       <c r="K280" t="b">
         <v>0</v>
@@ -12109,10 +12154,10 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I281" t="n">
-        <v>0.288</v>
+        <v>0.291</v>
       </c>
       <c r="J281" t="n">
-        <v>-0.048</v>
+        <v>-0.049</v>
       </c>
       <c r="K281" t="b">
         <v>0</v>
@@ -14270,10 +14315,10 @@
         <v>0.015</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.183</v>
+        <v>-0.185</v>
       </c>
       <c r="J20" t="n">
-        <v>0.255</v>
+        <v>0.257</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -14554,6 +14599,15 @@
       <c r="G27" t="n">
         <v>-0.05202555656433105</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.159</v>
+      </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
@@ -14750,10 +14804,10 @@
         <v>0.149</v>
       </c>
       <c r="I32" t="n">
-        <v>0.185</v>
+        <v>0.187</v>
       </c>
       <c r="J32" t="n">
-        <v>0.268</v>
+        <v>0.27</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -15179,10 +15233,10 @@
         <v>-0.441</v>
       </c>
       <c r="I43" t="n">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
       <c r="J43" t="n">
-        <v>0.272</v>
+        <v>0.275</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -15373,15 +15427,6 @@
       <c r="F48" t="b">
         <v>0</v>
       </c>
-      <c r="H48" t="n">
-        <v>0.707</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.358</v>
-      </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
@@ -15389,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -15668,7 +15713,7 @@
         <v>-0.001</v>
       </c>
       <c r="J56" t="n">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -21043,10 +21088,10 @@
         <v>0.305</v>
       </c>
       <c r="I123" t="n">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="J123" t="n">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
@@ -21085,10 +21130,10 @@
         <v>-0.005</v>
       </c>
       <c r="I124" t="n">
-        <v>0.211</v>
+        <v>0.214</v>
       </c>
       <c r="J124" t="n">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
@@ -21172,10 +21217,10 @@
         <v>0.374</v>
       </c>
       <c r="I126" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="J126" t="n">
-        <v>0.623</v>
+        <v>0.627</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
@@ -21259,10 +21304,10 @@
         <v>0.08</v>
       </c>
       <c r="I128" t="n">
-        <v>0.271</v>
+        <v>0.274</v>
       </c>
       <c r="J128" t="n">
-        <v>0.288</v>
+        <v>0.291</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
@@ -21301,10 +21346,10 @@
         <v>0.317</v>
       </c>
       <c r="I129" t="n">
-        <v>0.899</v>
+        <v>0.902</v>
       </c>
       <c r="J129" t="n">
-        <v>0.901</v>
+        <v>0.904</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
@@ -21343,10 +21388,10 @@
         <v>0.12</v>
       </c>
       <c r="I130" t="n">
-        <v>0.126</v>
+        <v>0.128</v>
       </c>
       <c r="J130" t="n">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
       <c r="K130" t="b">
         <v>0</v>
@@ -21385,7 +21430,7 @@
         <v>0.355</v>
       </c>
       <c r="I131" t="n">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
       <c r="J131" t="n">
         <v>0.999</v>
@@ -21472,10 +21517,10 @@
         <v>0.151</v>
       </c>
       <c r="I133" t="n">
-        <v>0.523</v>
+        <v>0.528</v>
       </c>
       <c r="J133" t="n">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
@@ -21514,10 +21559,10 @@
         <v>0.143</v>
       </c>
       <c r="I134" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="J134" t="n">
         <v>0.305</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.303</v>
       </c>
       <c r="K134" t="b">
         <v>0</v>
@@ -21556,10 +21601,10 @@
         <v>0.008</v>
       </c>
       <c r="I135" t="n">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="J135" t="n">
-        <v>0.292</v>
+        <v>0.294</v>
       </c>
       <c r="K135" t="b">
         <v>0</v>
@@ -21598,10 +21643,10 @@
         <v>0.485</v>
       </c>
       <c r="I136" t="n">
-        <v>0.388</v>
+        <v>0.392</v>
       </c>
       <c r="J136" t="n">
-        <v>0.437</v>
+        <v>0.44</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
@@ -21640,10 +21685,10 @@
         <v>0.001</v>
       </c>
       <c r="I137" t="n">
-        <v>0.202</v>
+        <v>0.204</v>
       </c>
       <c r="J137" t="n">
-        <v>0.283</v>
+        <v>0.285</v>
       </c>
       <c r="K137" t="b">
         <v>0</v>
@@ -21682,10 +21727,10 @@
         <v>0.028</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.13</v>
+        <v>-0.131</v>
       </c>
       <c r="J138" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
@@ -21724,10 +21769,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I139" t="n">
-        <v>0.209</v>
+        <v>0.212</v>
       </c>
       <c r="J139" t="n">
-        <v>0.307</v>
+        <v>0.31</v>
       </c>
       <c r="K139" t="b">
         <v>0</v>
@@ -21769,7 +21814,7 @@
         <v>-0.028</v>
       </c>
       <c r="J140" t="n">
-        <v>0.332</v>
+        <v>0.335</v>
       </c>
       <c r="K140" t="b">
         <v>0</v>
@@ -21808,10 +21853,10 @@
         <v>0.342</v>
       </c>
       <c r="I141" t="n">
-        <v>0.603</v>
+        <v>0.608</v>
       </c>
       <c r="J141" t="n">
-        <v>0.708</v>
+        <v>0.711</v>
       </c>
       <c r="K141" t="b">
         <v>0</v>
@@ -21850,10 +21895,10 @@
         <v>0.213</v>
       </c>
       <c r="I142" t="n">
-        <v>0.42</v>
+        <v>0.424</v>
       </c>
       <c r="J142" t="n">
-        <v>0.378</v>
+        <v>0.381</v>
       </c>
       <c r="K142" t="b">
         <v>0</v>
@@ -21892,7 +21937,7 @@
         <v>0.329</v>
       </c>
       <c r="I143" t="n">
-        <v>0.982</v>
+        <v>0.983</v>
       </c>
       <c r="J143" t="n">
         <v>0.999</v>
@@ -21934,10 +21979,10 @@
         <v>0.055</v>
       </c>
       <c r="I144" t="n">
-        <v>0.216</v>
+        <v>0.219</v>
       </c>
       <c r="J144" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
@@ -21976,10 +22021,10 @@
         <v>0.019</v>
       </c>
       <c r="I145" t="n">
-        <v>0.189</v>
+        <v>0.191</v>
       </c>
       <c r="J145" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="K145" t="b">
         <v>0</v>
@@ -22018,10 +22063,10 @@
         <v>0.106</v>
       </c>
       <c r="I146" t="n">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="J146" t="n">
-        <v>0.268</v>
+        <v>0.271</v>
       </c>
       <c r="K146" t="b">
         <v>0</v>
@@ -22060,7 +22105,7 @@
         <v>0.336</v>
       </c>
       <c r="I147" t="n">
-        <v>0.98</v>
+        <v>0.981</v>
       </c>
       <c r="J147" t="n">
         <v>0.999</v>
@@ -22102,10 +22147,10 @@
         <v>0.299</v>
       </c>
       <c r="I148" t="n">
-        <v>0.67</v>
+        <v>0.675</v>
       </c>
       <c r="J148" t="n">
-        <v>0.506</v>
+        <v>0.51</v>
       </c>
       <c r="K148" t="b">
         <v>0</v>
@@ -22144,7 +22189,7 @@
         <v>0.327</v>
       </c>
       <c r="I149" t="n">
-        <v>0.986</v>
+        <v>0.987</v>
       </c>
       <c r="J149" t="n">
         <v>0.999</v>
@@ -22189,7 +22234,7 @@
         <v>0.035</v>
       </c>
       <c r="J150" t="n">
-        <v>0.259</v>
+        <v>0.261</v>
       </c>
       <c r="K150" t="b">
         <v>0</v>
@@ -22228,10 +22273,10 @@
         <v>0.025</v>
       </c>
       <c r="I151" t="n">
-        <v>0.123</v>
+        <v>0.124</v>
       </c>
       <c r="J151" t="n">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="K151" t="b">
         <v>0</v>
@@ -22270,7 +22315,7 @@
         <v>0.027</v>
       </c>
       <c r="I152" t="n">
-        <v>0.157</v>
+        <v>0.159</v>
       </c>
       <c r="J152" t="n">
         <v>0.08599999999999999</v>
@@ -22309,13 +22354,13 @@
         <v>0.8992842435836792</v>
       </c>
       <c r="H153" t="n">
-        <v>0.162</v>
+        <v>0.163</v>
       </c>
       <c r="I153" t="n">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="J153" t="n">
-        <v>0.177</v>
+        <v>0.178</v>
       </c>
       <c r="K153" t="b">
         <v>0</v>
@@ -22354,10 +22399,10 @@
         <v>0.55</v>
       </c>
       <c r="I154" t="n">
-        <v>0.311</v>
+        <v>0.314</v>
       </c>
       <c r="J154" t="n">
-        <v>0.575</v>
+        <v>0.579</v>
       </c>
       <c r="K154" t="b">
         <v>0</v>
@@ -22396,10 +22441,10 @@
         <v>0.008</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.234</v>
+        <v>-0.236</v>
       </c>
       <c r="J155" t="n">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="K155" t="b">
         <v>0</v>
@@ -22438,10 +22483,10 @@
         <v>0.284</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.078</v>
+        <v>-0.079</v>
       </c>
       <c r="J156" t="n">
-        <v>0.333</v>
+        <v>0.336</v>
       </c>
       <c r="K156" t="b">
         <v>0</v>
@@ -22480,10 +22525,10 @@
         <v>0.192</v>
       </c>
       <c r="I157" t="n">
-        <v>0.754</v>
+        <v>0.759</v>
       </c>
       <c r="J157" t="n">
-        <v>0.24</v>
+        <v>0.242</v>
       </c>
       <c r="K157" t="b">
         <v>0</v>
@@ -22522,10 +22567,10 @@
         <v>0.133</v>
       </c>
       <c r="I158" t="n">
-        <v>0.227</v>
+        <v>0.229</v>
       </c>
       <c r="J158" t="n">
-        <v>0.254</v>
+        <v>0.256</v>
       </c>
       <c r="K158" t="b">
         <v>0</v>
@@ -22561,10 +22606,10 @@
         <v>0.8981479406356812</v>
       </c>
       <c r="H159" t="n">
-        <v>0.314</v>
+        <v>0.315</v>
       </c>
       <c r="I159" t="n">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
       <c r="J159" t="n">
         <v>0.999</v>
@@ -22609,7 +22654,7 @@
         <v>0.06</v>
       </c>
       <c r="J160" t="n">
-        <v>0.273</v>
+        <v>0.275</v>
       </c>
       <c r="K160" t="b">
         <v>0</v>
@@ -22735,10 +22780,10 @@
         <v>0.8960318565368652</v>
       </c>
       <c r="H163" t="n">
-        <v>0.294</v>
+        <v>0.295</v>
       </c>
       <c r="I163" t="n">
-        <v>0.972</v>
+        <v>0.973</v>
       </c>
       <c r="J163" t="n">
         <v>0.998</v>
@@ -22776,6 +22821,15 @@
       <c r="G164" t="n">
         <v>0.895378589630127</v>
       </c>
+      <c r="H164" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-0.136</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.204</v>
+      </c>
       <c r="K164" t="b">
         <v>0</v>
       </c>
@@ -22809,6 +22863,15 @@
       <c r="G165" t="n">
         <v>0.8946360945701599</v>
       </c>
+      <c r="H165" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.156</v>
+      </c>
       <c r="K165" t="b">
         <v>0</v>
       </c>
@@ -22846,10 +22909,10 @@
         <v>0.182</v>
       </c>
       <c r="I166" t="n">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
       <c r="J166" t="n">
-        <v>0.396</v>
+        <v>0.399</v>
       </c>
       <c r="K166" t="b">
         <v>0</v>
@@ -22888,10 +22951,10 @@
         <v>-0.001</v>
       </c>
       <c r="I167" t="n">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="J167" t="n">
-        <v>0.243</v>
+        <v>0.245</v>
       </c>
       <c r="K167" t="b">
         <v>0</v>
@@ -22927,10 +22990,10 @@
         <v>0.8940413594245911</v>
       </c>
       <c r="H168" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="I168" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
       <c r="J168" t="n">
         <v>0.999</v>
@@ -22968,6 +23031,15 @@
       <c r="G169" t="n">
         <v>0.8940181136131287</v>
       </c>
+      <c r="H169" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.052</v>
+      </c>
       <c r="K169" t="b">
         <v>0</v>
       </c>
@@ -23005,10 +23077,10 @@
         <v>0.334</v>
       </c>
       <c r="I170" t="n">
-        <v>0.24</v>
+        <v>0.243</v>
       </c>
       <c r="J170" t="n">
-        <v>0.647</v>
+        <v>0.651</v>
       </c>
       <c r="K170" t="b">
         <v>0</v>
@@ -23047,10 +23119,10 @@
         <v>0.406</v>
       </c>
       <c r="I171" t="n">
-        <v>0.76</v>
+        <v>0.765</v>
       </c>
       <c r="J171" t="n">
-        <v>0.529</v>
+        <v>0.533</v>
       </c>
       <c r="K171" t="b">
         <v>0</v>
@@ -23085,6 +23157,15 @@
       <c r="G172" t="n">
         <v>0.8925319910049438</v>
       </c>
+      <c r="H172" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.164</v>
+      </c>
       <c r="K172" t="b">
         <v>0</v>
       </c>
@@ -23122,10 +23203,10 @@
         <v>0.217</v>
       </c>
       <c r="I173" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="J173" t="n">
-        <v>0.379</v>
+        <v>0.382</v>
       </c>
       <c r="K173" t="b">
         <v>0</v>
@@ -23164,10 +23245,10 @@
         <v>0.283</v>
       </c>
       <c r="I174" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="J174" t="n">
-        <v>0.448</v>
+        <v>0.451</v>
       </c>
       <c r="K174" t="b">
         <v>0</v>
@@ -23209,7 +23290,7 @@
         <v>-0.025</v>
       </c>
       <c r="J175" t="n">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
       <c r="K175" t="b">
         <v>0</v>
@@ -23248,7 +23329,7 @@
         <v>0.238</v>
       </c>
       <c r="I176" t="n">
-        <v>0.512</v>
+        <v>0.517</v>
       </c>
       <c r="J176" t="n">
         <v>0.077</v>
@@ -23290,10 +23371,10 @@
         <v>0.002</v>
       </c>
       <c r="I177" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="J177" t="n">
-        <v>0.489</v>
+        <v>0.492</v>
       </c>
       <c r="K177" t="b">
         <v>0</v>
@@ -23332,10 +23413,10 @@
         <v>0.101</v>
       </c>
       <c r="I178" t="n">
-        <v>0.197</v>
+        <v>0.199</v>
       </c>
       <c r="J178" t="n">
-        <v>0.118</v>
+        <v>0.119</v>
       </c>
       <c r="K178" t="b">
         <v>0</v>
@@ -23374,10 +23455,10 @@
         <v>0.052</v>
       </c>
       <c r="I179" t="n">
-        <v>0.129</v>
+        <v>0.131</v>
       </c>
       <c r="J179" t="n">
-        <v>0.177</v>
+        <v>0.178</v>
       </c>
       <c r="K179" t="b">
         <v>0</v>
@@ -23416,10 +23497,10 @@
         <v>-0.06</v>
       </c>
       <c r="I180" t="n">
-        <v>0.188</v>
+        <v>0.191</v>
       </c>
       <c r="J180" t="n">
-        <v>0.184</v>
+        <v>0.185</v>
       </c>
       <c r="K180" t="b">
         <v>0</v>
@@ -23458,10 +23539,10 @@
         <v>-0.07099999999999999</v>
       </c>
       <c r="I181" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="J181" t="n">
-        <v>0.68</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="K181" t="b">
         <v>0</v>
@@ -23500,7 +23581,7 @@
         <v>-0.063</v>
       </c>
       <c r="I182" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="J182" t="n">
         <v>0.057</v>
@@ -23542,10 +23623,10 @@
         <v>0.103</v>
       </c>
       <c r="I183" t="n">
-        <v>0.136</v>
+        <v>0.138</v>
       </c>
       <c r="J183" t="n">
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
       <c r="K183" t="b">
         <v>0</v>
@@ -23584,10 +23665,10 @@
         <v>0.208</v>
       </c>
       <c r="I184" t="n">
-        <v>0.413</v>
+        <v>0.417</v>
       </c>
       <c r="J184" t="n">
-        <v>0.296</v>
+        <v>0.299</v>
       </c>
       <c r="K184" t="b">
         <v>0</v>
@@ -23626,10 +23707,10 @@
         <v>0.342</v>
       </c>
       <c r="I185" t="n">
-        <v>0.224</v>
+        <v>0.226</v>
       </c>
       <c r="J185" t="n">
-        <v>0.287</v>
+        <v>0.29</v>
       </c>
       <c r="K185" t="b">
         <v>0</v>
@@ -23668,10 +23749,10 @@
         <v>0.046</v>
       </c>
       <c r="I186" t="n">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
       <c r="J186" t="n">
-        <v>0.117</v>
+        <v>0.118</v>
       </c>
       <c r="K186" t="b">
         <v>0</v>
@@ -23713,7 +23794,7 @@
         <v>0.007</v>
       </c>
       <c r="J187" t="n">
-        <v>0.076</v>
+        <v>0.077</v>
       </c>
       <c r="K187" t="b">
         <v>0</v>
@@ -23752,10 +23833,10 @@
         <v>0.192</v>
       </c>
       <c r="I188" t="n">
-        <v>0.794</v>
+        <v>0.798</v>
       </c>
       <c r="J188" t="n">
-        <v>0.623</v>
+        <v>0.627</v>
       </c>
       <c r="K188" t="b">
         <v>0</v>
@@ -23794,10 +23875,10 @@
         <v>0.055</v>
       </c>
       <c r="I189" t="n">
-        <v>0.212</v>
+        <v>0.215</v>
       </c>
       <c r="J189" t="n">
-        <v>0.224</v>
+        <v>0.226</v>
       </c>
       <c r="K189" t="b">
         <v>0</v>
@@ -23833,13 +23914,13 @@
         <v>-0.6888520121574402</v>
       </c>
       <c r="H190" t="n">
-        <v>0.802</v>
+        <v>0.803</v>
       </c>
       <c r="I190" t="n">
-        <v>0.246</v>
+        <v>0.249</v>
       </c>
       <c r="J190" t="n">
-        <v>0.615</v>
+        <v>0.619</v>
       </c>
       <c r="K190" t="b">
         <v>0</v>
@@ -23881,7 +23962,7 @@
         <v>0.006</v>
       </c>
       <c r="J191" t="n">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
       <c r="K191" t="b">
         <v>0</v>
@@ -23917,13 +23998,13 @@
         <v>-0.6791568398475647</v>
       </c>
       <c r="H192" t="n">
-        <v>0.696</v>
+        <v>0.697</v>
       </c>
       <c r="I192" t="n">
-        <v>0.291</v>
+        <v>0.294</v>
       </c>
       <c r="J192" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="K192" t="b">
         <v>0</v>
@@ -23958,6 +24039,15 @@
       <c r="G193" t="n">
         <v>-0.6770351529121399</v>
       </c>
+      <c r="H193" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-0.116</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.409</v>
+      </c>
       <c r="K193" t="b">
         <v>0</v>
       </c>
@@ -23965,7 +24055,7 @@
         <v>1</v>
       </c>
       <c r="M193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -23992,13 +24082,13 @@
         <v>-0.6748114824295044</v>
       </c>
       <c r="H194" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="I194" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="J194" t="n">
-        <v>0.874</v>
+        <v>0.877</v>
       </c>
       <c r="K194" t="b">
         <v>0</v>
@@ -24037,7 +24127,7 @@
         <v>0.094</v>
       </c>
       <c r="I195" t="n">
-        <v>0.137</v>
+        <v>0.138</v>
       </c>
       <c r="J195" t="n">
         <v>-0.013</v>
@@ -24079,10 +24169,10 @@
         <v>0.21</v>
       </c>
       <c r="I196" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="J196" t="n">
-        <v>0.255</v>
+        <v>0.257</v>
       </c>
       <c r="K196" t="b">
         <v>0</v>
@@ -24166,10 +24256,10 @@
         <v>-0.158</v>
       </c>
       <c r="I198" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="J198" t="n">
-        <v>-0.39</v>
+        <v>-0.393</v>
       </c>
       <c r="K198" t="b">
         <v>0</v>
@@ -24208,10 +24298,10 @@
         <v>0.215</v>
       </c>
       <c r="I199" t="n">
-        <v>0.398</v>
+        <v>0.402</v>
       </c>
       <c r="J199" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="K199" t="b">
         <v>0</v>
@@ -24220,7 +24310,7 @@
         <v>1</v>
       </c>
       <c r="M199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -24340,10 +24430,10 @@
         <v>0.001</v>
       </c>
       <c r="I202" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="J202" t="n">
-        <v>0.159</v>
+        <v>0.16</v>
       </c>
       <c r="K202" t="b">
         <v>0</v>
@@ -24382,10 +24472,10 @@
         <v>0.221</v>
       </c>
       <c r="I203" t="n">
-        <v>0.282</v>
+        <v>0.285</v>
       </c>
       <c r="J203" t="n">
-        <v>-0.424</v>
+        <v>-0.427</v>
       </c>
       <c r="K203" t="b">
         <v>0</v>
@@ -24424,10 +24514,10 @@
         <v>0.026</v>
       </c>
       <c r="I204" t="n">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="J204" t="n">
-        <v>0.138</v>
+        <v>0.14</v>
       </c>
       <c r="K204" t="b">
         <v>0</v>
@@ -24466,10 +24556,10 @@
         <v>0.228</v>
       </c>
       <c r="I205" t="n">
-        <v>0.573</v>
+        <v>0.578</v>
       </c>
       <c r="J205" t="n">
-        <v>0.387</v>
+        <v>0.39</v>
       </c>
       <c r="K205" t="b">
         <v>0</v>
@@ -24553,10 +24643,10 @@
         <v>0.016</v>
       </c>
       <c r="I207" t="n">
-        <v>0.417</v>
+        <v>0.421</v>
       </c>
       <c r="J207" t="n">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="K207" t="b">
         <v>0</v>
@@ -24592,13 +24682,13 @@
         <v>-0.6633037328720093</v>
       </c>
       <c r="H208" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="I208" t="n">
-        <v>0.116</v>
+        <v>0.117</v>
       </c>
       <c r="J208" t="n">
-        <v>0.607</v>
+        <v>0.611</v>
       </c>
       <c r="K208" t="b">
         <v>0</v>
@@ -24637,10 +24727,10 @@
         <v>0.046</v>
       </c>
       <c r="I209" t="n">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="J209" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K209" t="b">
         <v>0</v>
@@ -24679,10 +24769,10 @@
         <v>-0.14</v>
       </c>
       <c r="I210" t="n">
-        <v>-0.099</v>
+        <v>-0.1</v>
       </c>
       <c r="J210" t="n">
-        <v>-0.292</v>
+        <v>-0.294</v>
       </c>
       <c r="K210" t="b">
         <v>0</v>
@@ -24721,10 +24811,10 @@
         <v>-0.006</v>
       </c>
       <c r="I211" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="J211" t="n">
-        <v>0.199</v>
+        <v>0.201</v>
       </c>
       <c r="K211" t="b">
         <v>0</v>
@@ -24766,7 +24856,7 @@
         <v>-0.046</v>
       </c>
       <c r="J212" t="n">
-        <v>-0.551</v>
+        <v>-0.555</v>
       </c>
       <c r="K212" t="b">
         <v>0</v>
@@ -24805,10 +24895,10 @@
         <v>-0.23</v>
       </c>
       <c r="I213" t="n">
-        <v>0.302</v>
+        <v>0.305</v>
       </c>
       <c r="J213" t="n">
-        <v>0.245</v>
+        <v>0.247</v>
       </c>
       <c r="K213" t="b">
         <v>0</v>
@@ -24847,10 +24937,10 @@
         <v>0.169</v>
       </c>
       <c r="I214" t="n">
-        <v>0.361</v>
+        <v>0.365</v>
       </c>
       <c r="J214" t="n">
-        <v>0.247</v>
+        <v>0.249</v>
       </c>
       <c r="K214" t="b">
         <v>0</v>
@@ -24889,10 +24979,10 @@
         <v>0.12</v>
       </c>
       <c r="I215" t="n">
-        <v>0.154</v>
+        <v>0.156</v>
       </c>
       <c r="J215" t="n">
-        <v>0.167</v>
+        <v>0.169</v>
       </c>
       <c r="K215" t="b">
         <v>0</v>
@@ -25021,10 +25111,10 @@
         <v>0.667</v>
       </c>
       <c r="I218" t="n">
-        <v>-0.129</v>
+        <v>-0.13</v>
       </c>
       <c r="J218" t="n">
-        <v>0.545</v>
+        <v>0.549</v>
       </c>
       <c r="K218" t="b">
         <v>0</v>
@@ -25066,7 +25156,7 @@
         <v>0.033</v>
       </c>
       <c r="J219" t="n">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
@@ -25102,13 +25192,13 @@
         <v>-0.6507511734962463</v>
       </c>
       <c r="H220" t="n">
-        <v>0.702</v>
+        <v>0.703</v>
       </c>
       <c r="I220" t="n">
-        <v>0.453</v>
+        <v>0.458</v>
       </c>
       <c r="J220" t="n">
-        <v>0.587</v>
+        <v>0.591</v>
       </c>
       <c r="K220" t="b">
         <v>0</v>
@@ -25147,10 +25237,10 @@
         <v>0.033</v>
       </c>
       <c r="I221" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J221" t="n">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
       <c r="K221" t="b">
         <v>0</v>
@@ -25189,10 +25279,10 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="I222" t="n">
-        <v>0.288</v>
+        <v>0.291</v>
       </c>
       <c r="J222" t="n">
-        <v>-0.048</v>
+        <v>-0.049</v>
       </c>
       <c r="K222" t="b">
         <v>0</v>
@@ -25215,7 +25305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28254,10 +28344,10 @@
         <v>0.305</v>
       </c>
       <c r="I71" t="n">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="J71" t="n">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -28341,10 +28431,10 @@
         <v>0.374</v>
       </c>
       <c r="I73" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="J73" t="n">
-        <v>0.623</v>
+        <v>0.627</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -28428,10 +28518,10 @@
         <v>0.317</v>
       </c>
       <c r="I75" t="n">
-        <v>0.899</v>
+        <v>0.902</v>
       </c>
       <c r="J75" t="n">
-        <v>0.901</v>
+        <v>0.904</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -28470,7 +28560,7 @@
         <v>0.355</v>
       </c>
       <c r="I76" t="n">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
       <c r="J76" t="n">
         <v>0.999</v>
@@ -28557,10 +28647,10 @@
         <v>0.151</v>
       </c>
       <c r="I78" t="n">
-        <v>0.523</v>
+        <v>0.528</v>
       </c>
       <c r="J78" t="n">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -28599,10 +28689,10 @@
         <v>0.485</v>
       </c>
       <c r="I79" t="n">
-        <v>0.388</v>
+        <v>0.392</v>
       </c>
       <c r="J79" t="n">
-        <v>0.437</v>
+        <v>0.44</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -28641,10 +28731,10 @@
         <v>0.342</v>
       </c>
       <c r="I80" t="n">
-        <v>0.603</v>
+        <v>0.608</v>
       </c>
       <c r="J80" t="n">
-        <v>0.708</v>
+        <v>0.711</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -28683,10 +28773,10 @@
         <v>0.213</v>
       </c>
       <c r="I81" t="n">
-        <v>0.42</v>
+        <v>0.424</v>
       </c>
       <c r="J81" t="n">
-        <v>0.378</v>
+        <v>0.381</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -28725,7 +28815,7 @@
         <v>0.329</v>
       </c>
       <c r="I82" t="n">
-        <v>0.982</v>
+        <v>0.983</v>
       </c>
       <c r="J82" t="n">
         <v>0.999</v>
@@ -28767,10 +28857,10 @@
         <v>0.055</v>
       </c>
       <c r="I83" t="n">
-        <v>0.216</v>
+        <v>0.219</v>
       </c>
       <c r="J83" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -28809,7 +28899,7 @@
         <v>0.336</v>
       </c>
       <c r="I84" t="n">
-        <v>0.98</v>
+        <v>0.981</v>
       </c>
       <c r="J84" t="n">
         <v>0.999</v>
@@ -28851,10 +28941,10 @@
         <v>0.299</v>
       </c>
       <c r="I85" t="n">
-        <v>0.67</v>
+        <v>0.675</v>
       </c>
       <c r="J85" t="n">
-        <v>0.506</v>
+        <v>0.51</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -28893,7 +28983,7 @@
         <v>0.327</v>
       </c>
       <c r="I86" t="n">
-        <v>0.986</v>
+        <v>0.987</v>
       </c>
       <c r="J86" t="n">
         <v>0.999</v>
@@ -28935,10 +29025,10 @@
         <v>0.55</v>
       </c>
       <c r="I87" t="n">
-        <v>0.311</v>
+        <v>0.314</v>
       </c>
       <c r="J87" t="n">
-        <v>0.575</v>
+        <v>0.579</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -28977,10 +29067,10 @@
         <v>0.192</v>
       </c>
       <c r="I88" t="n">
-        <v>0.754</v>
+        <v>0.759</v>
       </c>
       <c r="J88" t="n">
-        <v>0.24</v>
+        <v>0.242</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -29016,10 +29106,10 @@
         <v>0.8981479406356812</v>
       </c>
       <c r="H89" t="n">
-        <v>0.314</v>
+        <v>0.315</v>
       </c>
       <c r="I89" t="n">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
       <c r="J89" t="n">
         <v>0.999</v>
@@ -29148,10 +29238,10 @@
         <v>0.8960318565368652</v>
       </c>
       <c r="H92" t="n">
-        <v>0.294</v>
+        <v>0.295</v>
       </c>
       <c r="I92" t="n">
-        <v>0.972</v>
+        <v>0.973</v>
       </c>
       <c r="J92" t="n">
         <v>0.998</v>
@@ -29190,10 +29280,10 @@
         <v>0.8940413594245911</v>
       </c>
       <c r="H93" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="I93" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
       <c r="J93" t="n">
         <v>0.999</v>
@@ -29235,10 +29325,10 @@
         <v>0.334</v>
       </c>
       <c r="I94" t="n">
-        <v>0.24</v>
+        <v>0.243</v>
       </c>
       <c r="J94" t="n">
-        <v>0.647</v>
+        <v>0.651</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -29277,10 +29367,10 @@
         <v>0.406</v>
       </c>
       <c r="I95" t="n">
-        <v>0.76</v>
+        <v>0.765</v>
       </c>
       <c r="J95" t="n">
-        <v>0.529</v>
+        <v>0.533</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -29319,10 +29409,10 @@
         <v>0.217</v>
       </c>
       <c r="I96" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="J96" t="n">
-        <v>0.379</v>
+        <v>0.382</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
@@ -29361,10 +29451,10 @@
         <v>0.283</v>
       </c>
       <c r="I97" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="J97" t="n">
-        <v>0.448</v>
+        <v>0.451</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -29403,7 +29493,7 @@
         <v>0.238</v>
       </c>
       <c r="I98" t="n">
-        <v>0.512</v>
+        <v>0.517</v>
       </c>
       <c r="J98" t="n">
         <v>0.077</v>
@@ -29445,10 +29535,10 @@
         <v>0.002</v>
       </c>
       <c r="I99" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="J99" t="n">
-        <v>0.489</v>
+        <v>0.492</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -29487,10 +29577,10 @@
         <v>-0.07099999999999999</v>
       </c>
       <c r="I100" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="J100" t="n">
-        <v>0.68</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
@@ -29529,10 +29619,10 @@
         <v>0.208</v>
       </c>
       <c r="I101" t="n">
-        <v>0.413</v>
+        <v>0.417</v>
       </c>
       <c r="J101" t="n">
-        <v>0.296</v>
+        <v>0.299</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
@@ -29571,10 +29661,10 @@
         <v>0.192</v>
       </c>
       <c r="I102" t="n">
-        <v>0.794</v>
+        <v>0.798</v>
       </c>
       <c r="J102" t="n">
-        <v>0.623</v>
+        <v>0.627</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
@@ -29610,13 +29700,13 @@
         <v>-0.6888520121574402</v>
       </c>
       <c r="H103" t="n">
-        <v>0.802</v>
+        <v>0.803</v>
       </c>
       <c r="I103" t="n">
-        <v>0.246</v>
+        <v>0.249</v>
       </c>
       <c r="J103" t="n">
-        <v>0.615</v>
+        <v>0.619</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
@@ -29652,13 +29742,13 @@
         <v>-0.6791568398475647</v>
       </c>
       <c r="H104" t="n">
-        <v>0.696</v>
+        <v>0.697</v>
       </c>
       <c r="I104" t="n">
-        <v>0.291</v>
+        <v>0.294</v>
       </c>
       <c r="J104" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
@@ -29673,12 +29763,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DUSP1</t>
+          <t>APLNR</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MAP2K7</t>
+          <t>CFD</t>
         </is>
       </c>
       <c r="C105" t="b">
@@ -29691,16 +29781,16 @@
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.6748114824295044</v>
+        <v>-0.6770351529121399</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.394</v>
       </c>
       <c r="I105" t="n">
-        <v>0.8</v>
+        <v>-0.116</v>
       </c>
       <c r="J105" t="n">
-        <v>0.874</v>
+        <v>0.409</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
@@ -29715,37 +29805,34 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CYP2A7</t>
+          <t>DUSP1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FPR3</t>
+          <t>MAP2K7</t>
         </is>
       </c>
       <c r="C106" t="b">
         <v>0</v>
       </c>
       <c r="D106" t="b">
-        <v>1</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-0.01360390987247229</v>
+        <v>0</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.6697541475296021</v>
+        <v>-0.6748114824295044</v>
       </c>
       <c r="H106" t="n">
-        <v>0.453</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="I106" t="n">
-        <v>0.487</v>
+        <v>0.805</v>
       </c>
       <c r="J106" t="n">
-        <v>0.513</v>
+        <v>0.877</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
@@ -29760,37 +29847,34 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>GRK2</t>
+          <t>FPR3</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MAP2K7</t>
+          <t>SCN8A</t>
         </is>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
       <c r="D107" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-0.03918185830116272</v>
+        <v>0</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.6697450280189514</v>
+        <v>-0.6701067686080933</v>
       </c>
       <c r="H107" t="n">
-        <v>0.876</v>
+        <v>0.215</v>
       </c>
       <c r="I107" t="n">
-        <v>0.592</v>
+        <v>0.402</v>
       </c>
       <c r="J107" t="n">
-        <v>0.791</v>
+        <v>0.323</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
@@ -29805,34 +29889,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CARD8</t>
+          <t>CYP2A7</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SCN8A</t>
+          <t>FPR3</t>
         </is>
       </c>
       <c r="C108" t="b">
         <v>0</v>
       </c>
       <c r="D108" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.01360390987247229</v>
       </c>
       <c r="F108" t="b">
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.6685326099395752</v>
+        <v>-0.6697541475296021</v>
       </c>
       <c r="H108" t="n">
-        <v>0.221</v>
+        <v>0.453</v>
       </c>
       <c r="I108" t="n">
-        <v>0.282</v>
+        <v>0.487</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.424</v>
+        <v>0.513</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
@@ -29847,34 +29934,37 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ARIH1</t>
+          <t>GRK2</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>UBA2</t>
+          <t>MAP2K7</t>
         </is>
       </c>
       <c r="C109" t="b">
         <v>0</v>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.03918185830116272</v>
       </c>
       <c r="F109" t="b">
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.6672822237014771</v>
+        <v>-0.6697450280189514</v>
       </c>
       <c r="H109" t="n">
-        <v>0.228</v>
+        <v>0.876</v>
       </c>
       <c r="I109" t="n">
-        <v>0.573</v>
+        <v>0.592</v>
       </c>
       <c r="J109" t="n">
-        <v>0.387</v>
+        <v>0.791</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
@@ -29889,37 +29979,34 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CYP11B1</t>
+          <t>CARD8</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MAP2K7</t>
+          <t>SCN8A</t>
         </is>
       </c>
       <c r="C110" t="b">
         <v>0</v>
       </c>
       <c r="D110" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.02395091950893402</v>
+        <v>0</v>
       </c>
       <c r="F110" t="b">
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.6663831472396851</v>
+        <v>-0.6685326099395752</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.248</v>
+        <v>0.221</v>
       </c>
       <c r="I110" t="n">
-        <v>0.156</v>
+        <v>0.285</v>
       </c>
       <c r="J110" t="n">
-        <v>0.63</v>
+        <v>-0.427</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
@@ -29934,12 +30021,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>REST</t>
+          <t>ARIH1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SAE1</t>
+          <t>UBA2</t>
         </is>
       </c>
       <c r="C111" t="b">
@@ -29952,16 +30039,16 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.6633286476135254</v>
+        <v>-0.6672822237014771</v>
       </c>
       <c r="H111" t="n">
-        <v>0.016</v>
+        <v>0.228</v>
       </c>
       <c r="I111" t="n">
-        <v>0.417</v>
+        <v>0.578</v>
       </c>
       <c r="J111" t="n">
-        <v>0.063</v>
+        <v>0.39</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
@@ -29976,34 +30063,37 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FFAR3</t>
+          <t>CYP11B1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SCN8A</t>
+          <t>MAP2K7</t>
         </is>
       </c>
       <c r="C112" t="b">
         <v>0</v>
       </c>
       <c r="D112" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.02395091950893402</v>
       </c>
       <c r="F112" t="b">
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.6633037328720093</v>
+        <v>-0.6663831472396851</v>
       </c>
       <c r="H112" t="n">
-        <v>0.724</v>
+        <v>-0.248</v>
       </c>
       <c r="I112" t="n">
-        <v>0.116</v>
+        <v>0.156</v>
       </c>
       <c r="J112" t="n">
-        <v>0.607</v>
+        <v>0.63</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
@@ -30018,12 +30108,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NXF1</t>
+          <t>REST</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SRD5A1</t>
+          <t>SAE1</t>
         </is>
       </c>
       <c r="C113" t="b">
@@ -30036,16 +30126,16 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.6587178707122803</v>
+        <v>-0.6633286476135254</v>
       </c>
       <c r="H113" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="J113" t="n">
         <v>0.064</v>
-      </c>
-      <c r="I113" t="n">
-        <v>-0.046</v>
-      </c>
-      <c r="J113" t="n">
-        <v>-0.551</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
@@ -30060,37 +30150,34 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HTR6</t>
+          <t>FFAR3</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MAP2K7</t>
+          <t>SCN8A</t>
         </is>
       </c>
       <c r="C114" t="b">
         <v>0</v>
       </c>
       <c r="D114" t="b">
-        <v>1</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-0.05783089995384216</v>
+        <v>0</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.652755081653595</v>
+        <v>-0.6633037328720093</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4</v>
+        <v>0.725</v>
       </c>
       <c r="I114" t="n">
-        <v>0.336</v>
+        <v>0.117</v>
       </c>
       <c r="J114" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="K114" t="b">
         <v>0</v>
@@ -30105,12 +30192,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>INPPL1</t>
+          <t>NXF1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MAP2K7</t>
+          <t>SRD5A1</t>
         </is>
       </c>
       <c r="C115" t="b">
@@ -30123,16 +30210,16 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.6521574854850769</v>
+        <v>-0.6587178707122803</v>
       </c>
       <c r="H115" t="n">
-        <v>0.667</v>
+        <v>0.064</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.129</v>
+        <v>-0.046</v>
       </c>
       <c r="J115" t="n">
-        <v>0.545</v>
+        <v>-0.555</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
@@ -30147,42 +30234,129 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>HTR6</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MAP2K7</t>
+        </is>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.05783089995384216</v>
+      </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.652755081653595</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="K116" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" t="b">
+        <v>1</v>
+      </c>
+      <c r="M116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>INPPL1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MAP2K7</t>
+        </is>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.6521574854850769</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" t="b">
+        <v>1</v>
+      </c>
+      <c r="M117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>CARD8</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>MAP2K1</t>
         </is>
       </c>
-      <c r="C116" t="b">
-        <v>0</v>
-      </c>
-      <c r="D116" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116" t="b">
-        <v>1</v>
-      </c>
-      <c r="G116" t="n">
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
         <v>-0.6507511734962463</v>
       </c>
-      <c r="H116" t="n">
-        <v>0.702</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="K116" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" t="b">
-        <v>1</v>
-      </c>
-      <c r="M116" t="b">
+      <c r="H118" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" t="b">
+        <v>1</v>
+      </c>
+      <c r="M118" t="b">
         <v>1</v>
       </c>
     </row>
@@ -30197,7 +30371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32492,10 +32666,10 @@
         <v>-0.005</v>
       </c>
       <c r="I54" t="n">
-        <v>0.211</v>
+        <v>0.214</v>
       </c>
       <c r="J54" t="n">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -32534,10 +32708,10 @@
         <v>0.08</v>
       </c>
       <c r="I55" t="n">
-        <v>0.271</v>
+        <v>0.274</v>
       </c>
       <c r="J55" t="n">
-        <v>0.288</v>
+        <v>0.291</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -32576,10 +32750,10 @@
         <v>0.12</v>
       </c>
       <c r="I56" t="n">
-        <v>0.126</v>
+        <v>0.128</v>
       </c>
       <c r="J56" t="n">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -32618,10 +32792,10 @@
         <v>0.143</v>
       </c>
       <c r="I57" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="J57" t="n">
         <v>0.305</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.303</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -32660,10 +32834,10 @@
         <v>0.008</v>
       </c>
       <c r="I58" t="n">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="J58" t="n">
-        <v>0.292</v>
+        <v>0.294</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -32702,10 +32876,10 @@
         <v>0.001</v>
       </c>
       <c r="I59" t="n">
-        <v>0.202</v>
+        <v>0.204</v>
       </c>
       <c r="J59" t="n">
-        <v>0.283</v>
+        <v>0.285</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -32744,10 +32918,10 @@
         <v>0.028</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.13</v>
+        <v>-0.131</v>
       </c>
       <c r="J60" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -32786,10 +32960,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>0.209</v>
+        <v>0.212</v>
       </c>
       <c r="J61" t="n">
-        <v>0.307</v>
+        <v>0.31</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -32831,7 +33005,7 @@
         <v>-0.028</v>
       </c>
       <c r="J62" t="n">
-        <v>0.332</v>
+        <v>0.335</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -32870,10 +33044,10 @@
         <v>0.019</v>
       </c>
       <c r="I63" t="n">
-        <v>0.189</v>
+        <v>0.191</v>
       </c>
       <c r="J63" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -32912,10 +33086,10 @@
         <v>0.106</v>
       </c>
       <c r="I64" t="n">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="J64" t="n">
-        <v>0.268</v>
+        <v>0.271</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -32957,7 +33131,7 @@
         <v>0.035</v>
       </c>
       <c r="J65" t="n">
-        <v>0.259</v>
+        <v>0.261</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -32996,10 +33170,10 @@
         <v>0.025</v>
       </c>
       <c r="I66" t="n">
-        <v>0.123</v>
+        <v>0.124</v>
       </c>
       <c r="J66" t="n">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -33038,7 +33212,7 @@
         <v>0.027</v>
       </c>
       <c r="I67" t="n">
-        <v>0.157</v>
+        <v>0.159</v>
       </c>
       <c r="J67" t="n">
         <v>0.08599999999999999</v>
@@ -33077,13 +33251,13 @@
         <v>0.8992842435836792</v>
       </c>
       <c r="H68" t="n">
-        <v>0.162</v>
+        <v>0.163</v>
       </c>
       <c r="I68" t="n">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="J68" t="n">
-        <v>0.177</v>
+        <v>0.178</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -33122,10 +33296,10 @@
         <v>0.008</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.234</v>
+        <v>-0.236</v>
       </c>
       <c r="J69" t="n">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -33164,10 +33338,10 @@
         <v>0.284</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.078</v>
+        <v>-0.079</v>
       </c>
       <c r="J70" t="n">
-        <v>0.333</v>
+        <v>0.336</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -33206,10 +33380,10 @@
         <v>0.133</v>
       </c>
       <c r="I71" t="n">
-        <v>0.227</v>
+        <v>0.229</v>
       </c>
       <c r="J71" t="n">
-        <v>0.254</v>
+        <v>0.256</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -33251,7 +33425,7 @@
         <v>0.06</v>
       </c>
       <c r="J72" t="n">
-        <v>0.273</v>
+        <v>0.275</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -33266,12 +33440,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ELMOD3</t>
+          <t>HAVCR1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TREM2</t>
+          <t>UFSP2</t>
         </is>
       </c>
       <c r="C73" t="b">
@@ -33284,16 +33458,16 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8945327997207642</v>
+        <v>0.895378589630127</v>
       </c>
       <c r="H73" t="n">
-        <v>0.182</v>
+        <v>-0.05</v>
       </c>
       <c r="I73" t="n">
-        <v>0.096</v>
+        <v>-0.136</v>
       </c>
       <c r="J73" t="n">
-        <v>0.396</v>
+        <v>0.204</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -33313,7 +33487,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>UFSP2</t>
+          <t>HAVCR1</t>
         </is>
       </c>
       <c r="C74" t="b">
@@ -33326,16 +33500,16 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8944737911224365</v>
+        <v>0.8946360945701599</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>0.073</v>
+        <v>0.167</v>
       </c>
       <c r="J74" t="n">
-        <v>0.243</v>
+        <v>0.156</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -33350,12 +33524,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GRK2</t>
+          <t>ELMOD3</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PRDM10</t>
+          <t>TREM2</t>
         </is>
       </c>
       <c r="C75" t="b">
@@ -33368,16 +33542,16 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7305379509925842</v>
+        <v>0.8945327997207642</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.099</v>
+        <v>0.182</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.025</v>
+        <v>0.097</v>
       </c>
       <c r="J75" t="n">
-        <v>0.067</v>
+        <v>0.399</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -33392,12 +33566,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GRK2</t>
+          <t>ELMOD3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HYOU1</t>
+          <t>UFSP2</t>
         </is>
       </c>
       <c r="C76" t="b">
@@ -33410,16 +33584,16 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7227494120597839</v>
+        <v>0.8944737911224365</v>
       </c>
       <c r="H76" t="n">
-        <v>0.101</v>
+        <v>-0.001</v>
       </c>
       <c r="I76" t="n">
-        <v>0.197</v>
+        <v>0.074</v>
       </c>
       <c r="J76" t="n">
-        <v>0.118</v>
+        <v>0.245</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -33434,12 +33608,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>HAVCR1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ZNF302</t>
+          <t>HOXD12</t>
         </is>
       </c>
       <c r="C77" t="b">
@@ -33452,16 +33626,16 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7166566848754883</v>
+        <v>0.8940181136131287</v>
       </c>
       <c r="H77" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="J77" t="n">
         <v>0.052</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.177</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -33476,12 +33650,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CFD</t>
+          <t>ABCB5</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MAP2K7</t>
+          <t>HAVCR1</t>
         </is>
       </c>
       <c r="C78" t="b">
@@ -33494,16 +33668,16 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7166520953178406</v>
+        <v>0.8925319910049438</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.06</v>
+        <v>0.112</v>
       </c>
       <c r="I78" t="n">
-        <v>0.188</v>
+        <v>0.345</v>
       </c>
       <c r="J78" t="n">
-        <v>0.184</v>
+        <v>0.164</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -33518,7 +33692,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PPFIA1</t>
+          <t>GRK2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -33536,16 +33710,16 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.7096573710441589</v>
+        <v>-0.7305379509925842</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.063</v>
+        <v>-0.099</v>
       </c>
       <c r="I79" t="n">
-        <v>0.023</v>
+        <v>-0.025</v>
       </c>
       <c r="J79" t="n">
-        <v>0.057</v>
+        <v>0.068</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -33560,12 +33734,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ACP4</t>
+          <t>GRK2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GPR4</t>
+          <t>HYOU1</t>
         </is>
       </c>
       <c r="C80" t="b">
@@ -33578,16 +33752,16 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7060016393661499</v>
+        <v>-0.7227494120597839</v>
       </c>
       <c r="H80" t="n">
-        <v>0.103</v>
+        <v>0.101</v>
       </c>
       <c r="I80" t="n">
-        <v>0.136</v>
+        <v>0.199</v>
       </c>
       <c r="J80" t="n">
-        <v>0.154</v>
+        <v>0.119</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -33602,12 +33776,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>FPR3</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MAP2K1</t>
+          <t>ZNF302</t>
         </is>
       </c>
       <c r="C81" t="b">
@@ -33620,16 +33794,16 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6957156658172607</v>
+        <v>-0.7166566848754883</v>
       </c>
       <c r="H81" t="n">
-        <v>0.342</v>
+        <v>0.052</v>
       </c>
       <c r="I81" t="n">
-        <v>0.224</v>
+        <v>0.131</v>
       </c>
       <c r="J81" t="n">
-        <v>0.287</v>
+        <v>0.178</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -33644,12 +33818,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PRDM10</t>
+          <t>CFD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PTBP1</t>
+          <t>MAP2K7</t>
         </is>
       </c>
       <c r="C82" t="b">
@@ -33662,16 +33836,16 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6946384906768799</v>
+        <v>-0.7166520953178406</v>
       </c>
       <c r="H82" t="n">
-        <v>0.046</v>
+        <v>-0.06</v>
       </c>
       <c r="I82" t="n">
-        <v>0.113</v>
+        <v>0.191</v>
       </c>
       <c r="J82" t="n">
-        <v>0.117</v>
+        <v>0.185</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
@@ -33686,7 +33860,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>INPPL1</t>
+          <t>PPFIA1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -33704,16 +33878,16 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.6944240927696228</v>
+        <v>-0.7096573710441589</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.15</v>
+        <v>-0.063</v>
       </c>
       <c r="I83" t="n">
-        <v>0.007</v>
+        <v>0.024</v>
       </c>
       <c r="J83" t="n">
-        <v>0.076</v>
+        <v>0.057</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -33728,12 +33902,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SCN8A</t>
+          <t>ACP4</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ZNF302</t>
+          <t>GPR4</t>
         </is>
       </c>
       <c r="C84" t="b">
@@ -33746,16 +33920,16 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.6889486312866211</v>
+        <v>-0.7060016393661499</v>
       </c>
       <c r="H84" t="n">
-        <v>0.055</v>
+        <v>0.103</v>
       </c>
       <c r="I84" t="n">
-        <v>0.212</v>
+        <v>0.138</v>
       </c>
       <c r="J84" t="n">
-        <v>0.224</v>
+        <v>0.155</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -33770,12 +33944,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ADAM15</t>
+          <t>FPR3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PRDM10</t>
+          <t>MAP2K1</t>
         </is>
       </c>
       <c r="C85" t="b">
@@ -33788,16 +33962,16 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.6825997829437256</v>
+        <v>-0.6957156658172607</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.07099999999999999</v>
+        <v>0.342</v>
       </c>
       <c r="I85" t="n">
-        <v>0.006</v>
+        <v>0.226</v>
       </c>
       <c r="J85" t="n">
-        <v>0.112</v>
+        <v>0.29</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -33812,12 +33986,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GRK5</t>
+          <t>PRDM10</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NXF1</t>
+          <t>PTBP1</t>
         </is>
       </c>
       <c r="C86" t="b">
@@ -33830,16 +34004,16 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6742125749588013</v>
+        <v>-0.6946384906768799</v>
       </c>
       <c r="H86" t="n">
-        <v>0.094</v>
+        <v>0.046</v>
       </c>
       <c r="I86" t="n">
-        <v>0.137</v>
+        <v>0.114</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.013</v>
+        <v>0.118</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -33854,12 +34028,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CYP2A7</t>
+          <t>INPPL1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ZNF302</t>
+          <t>PRDM10</t>
         </is>
       </c>
       <c r="C87" t="b">
@@ -33872,16 +34046,16 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.6719807982444763</v>
+        <v>-0.6944240927696228</v>
       </c>
       <c r="H87" t="n">
-        <v>0.21</v>
+        <v>-0.15</v>
       </c>
       <c r="I87" t="n">
-        <v>0.19</v>
+        <v>0.007</v>
       </c>
       <c r="J87" t="n">
-        <v>0.255</v>
+        <v>0.077</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -33896,37 +34070,34 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>SCN8A</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FPR3</t>
+          <t>ZNF302</t>
         </is>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.1647689342498779</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.6716264486312866</v>
+        <v>-0.6889486312866211</v>
       </c>
       <c r="H88" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.055</v>
       </c>
       <c r="I88" t="n">
-        <v>0.242</v>
+        <v>0.215</v>
       </c>
       <c r="J88" t="n">
-        <v>0.237</v>
+        <v>0.226</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -33941,12 +34112,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>KCNAB1</t>
+          <t>ADAM15</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NXF1</t>
+          <t>PRDM10</t>
         </is>
       </c>
       <c r="C89" t="b">
@@ -33959,16 +34130,16 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.6707073450088501</v>
+        <v>-0.6825997829437256</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.158</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="I89" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.39</v>
+        <v>0.113</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -33983,12 +34154,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FPR3</t>
+          <t>GRK5</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SCN8A</t>
+          <t>NXF1</t>
         </is>
       </c>
       <c r="C90" t="b">
@@ -34001,16 +34172,16 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.6701067686080933</v>
+        <v>-0.6742125749588013</v>
       </c>
       <c r="H90" t="n">
-        <v>0.215</v>
+        <v>0.094</v>
       </c>
       <c r="I90" t="n">
-        <v>0.398</v>
+        <v>0.138</v>
       </c>
       <c r="J90" t="n">
-        <v>0.32</v>
+        <v>-0.013</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -34025,12 +34196,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CHD8</t>
+          <t>CYP2A7</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GPR4</t>
+          <t>ZNF302</t>
         </is>
       </c>
       <c r="C91" t="b">
@@ -34043,16 +34214,16 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6692680716514587</v>
+        <v>-0.6719807982444763</v>
       </c>
       <c r="H91" t="n">
-        <v>0.001</v>
+        <v>0.21</v>
       </c>
       <c r="I91" t="n">
-        <v>0.09</v>
+        <v>0.192</v>
       </c>
       <c r="J91" t="n">
-        <v>0.159</v>
+        <v>0.257</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -34067,34 +34238,37 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ACP4</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ZNF302</t>
+          <t>FPR3</t>
         </is>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.1647689342498779</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.6681362390518188</v>
+        <v>-0.6716264486312866</v>
       </c>
       <c r="H92" t="n">
-        <v>0.026</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I92" t="n">
-        <v>0.12</v>
+        <v>0.242</v>
       </c>
       <c r="J92" t="n">
-        <v>0.138</v>
+        <v>0.237</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -34109,12 +34283,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DLEC1</t>
+          <t>KCNAB1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ZNF302</t>
+          <t>NXF1</t>
         </is>
       </c>
       <c r="C93" t="b">
@@ -34127,16 +34301,16 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.6608715653419495</v>
+        <v>-0.6707073450088501</v>
       </c>
       <c r="H93" t="n">
-        <v>0.046</v>
+        <v>-0.158</v>
       </c>
       <c r="I93" t="n">
-        <v>0.121</v>
+        <v>0.073</v>
       </c>
       <c r="J93" t="n">
-        <v>0.08500000000000001</v>
+        <v>-0.393</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -34151,12 +34325,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ADAMTS19</t>
+          <t>CHD8</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GSK3A</t>
+          <t>GPR4</t>
         </is>
       </c>
       <c r="C94" t="b">
@@ -34169,16 +34343,16 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6606082916259766</v>
+        <v>-0.6692680716514587</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.14</v>
+        <v>0.001</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.099</v>
+        <v>0.091</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.292</v>
+        <v>0.16</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -34193,12 +34367,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>ACP4</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PRDM10</t>
+          <t>ZNF302</t>
         </is>
       </c>
       <c r="C95" t="b">
@@ -34211,16 +34385,16 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.6595680713653564</v>
+        <v>-0.6681362390518188</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.006</v>
+        <v>0.026</v>
       </c>
       <c r="I95" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="J95" t="n">
-        <v>0.199</v>
+        <v>0.14</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -34235,12 +34409,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CFD</t>
+          <t>DLEC1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PDE6H</t>
+          <t>ZNF302</t>
         </is>
       </c>
       <c r="C96" t="b">
@@ -34253,16 +34427,16 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.6573264002799988</v>
+        <v>-0.6608715653419495</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.23</v>
+        <v>0.046</v>
       </c>
       <c r="I96" t="n">
-        <v>0.302</v>
+        <v>0.122</v>
       </c>
       <c r="J96" t="n">
-        <v>0.245</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
@@ -34277,12 +34451,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PKMYT1</t>
+          <t>ADAMTS19</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>REV3L</t>
+          <t>GSK3A</t>
         </is>
       </c>
       <c r="C97" t="b">
@@ -34295,16 +34469,16 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.6547975540161133</v>
+        <v>-0.6606082916259766</v>
       </c>
       <c r="H97" t="n">
-        <v>0.169</v>
+        <v>-0.14</v>
       </c>
       <c r="I97" t="n">
-        <v>0.361</v>
+        <v>-0.1</v>
       </c>
       <c r="J97" t="n">
-        <v>0.247</v>
+        <v>-0.294</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -34319,12 +34493,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HYOU1</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PPFIA1</t>
+          <t>PRDM10</t>
         </is>
       </c>
       <c r="C98" t="b">
@@ -34337,16 +34511,16 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.653120756149292</v>
+        <v>-0.6595680713653564</v>
       </c>
       <c r="H98" t="n">
-        <v>0.12</v>
+        <v>-0.006</v>
       </c>
       <c r="I98" t="n">
-        <v>0.154</v>
+        <v>0.089</v>
       </c>
       <c r="J98" t="n">
-        <v>0.167</v>
+        <v>0.201</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -34361,37 +34535,34 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DYNLL1</t>
+          <t>CFD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PPFIA1</t>
+          <t>PDE6H</t>
         </is>
       </c>
       <c r="C99" t="b">
         <v>0</v>
       </c>
       <c r="D99" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-0.05635790526866913</v>
+        <v>0</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.6523115634918213</v>
+        <v>-0.6573264002799988</v>
       </c>
       <c r="H99" t="n">
-        <v>0.352</v>
+        <v>-0.23</v>
       </c>
       <c r="I99" t="n">
-        <v>0.392</v>
+        <v>0.305</v>
       </c>
       <c r="J99" t="n">
-        <v>0.329</v>
+        <v>0.247</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -34406,12 +34577,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CFD</t>
+          <t>PKMYT1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PRDM10</t>
+          <t>REV3L</t>
         </is>
       </c>
       <c r="C100" t="b">
@@ -34424,16 +34595,16 @@
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.651746928691864</v>
+        <v>-0.6547975540161133</v>
       </c>
       <c r="H100" t="n">
-        <v>0.17</v>
+        <v>0.169</v>
       </c>
       <c r="I100" t="n">
-        <v>0.033</v>
+        <v>0.365</v>
       </c>
       <c r="J100" t="n">
-        <v>0.093</v>
+        <v>0.249</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
@@ -34448,12 +34619,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TRIM48</t>
+          <t>HYOU1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ZNF302</t>
+          <t>PPFIA1</t>
         </is>
       </c>
       <c r="C101" t="b">
@@ -34466,16 +34637,16 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.6504770517349243</v>
+        <v>-0.653120756149292</v>
       </c>
       <c r="H101" t="n">
-        <v>0.033</v>
+        <v>0.12</v>
       </c>
       <c r="I101" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.156</v>
       </c>
       <c r="J101" t="n">
-        <v>0.075</v>
+        <v>0.169</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
@@ -34490,42 +34661,171 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>DYNLL1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PPFIA1</t>
+        </is>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.05635790526866913</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.6523115634918213</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CFD</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>PRDM10</t>
+        </is>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.651746928691864</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TRIM48</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ZNF302</t>
+        </is>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.6504770517349243</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>MAP2K1</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>ZNF302</t>
         </is>
       </c>
-      <c r="C102" t="b">
-        <v>0</v>
-      </c>
-      <c r="D102" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" t="b">
-        <v>1</v>
-      </c>
-      <c r="G102" t="n">
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
         <v>-0.6486268639564514</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H105" t="n">
         <v>0.08699999999999999</v>
       </c>
-      <c r="I102" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="J102" t="n">
-        <v>-0.048</v>
-      </c>
-      <c r="K102" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" t="b">
-        <v>1</v>
-      </c>
-      <c r="M102" t="b">
+      <c r="I105" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-0.049</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105" t="b">
         <v>0</v>
       </c>
     </row>

--- a/07.compute-cosine-similarities/output/connections.xlsx
+++ b/07.compute-cosine-similarities/output/connections.xlsx
@@ -5163,7 +5163,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TGFB</t>
+          <t>TGFB1</t>
         </is>
       </c>
       <c r="C117" t="b">
@@ -5173,7 +5173,19 @@
         <v>0</v>
       </c>
       <c r="F117" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.2064711004495621</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.64</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
@@ -5182,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -18085,7 +18097,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TGFB</t>
+          <t>TGFB1</t>
         </is>
       </c>
       <c r="C80" t="b">
@@ -18095,7 +18107,19 @@
         <v>0</v>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.2064711004495621</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.64</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -18104,7 +18128,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/07.compute-cosine-similarities/output/connections.xlsx
+++ b/07.compute-cosine-similarities/output/connections.xlsx
@@ -772,7 +772,7 @@
         <v>0.182</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0.109</v>
       </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139" t="b">
         <v>1</v>
@@ -5718,7 +5718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6036,26 +6036,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RAB40A</t>
+          <t>RAB40B</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1112533360719681</v>
+        <v>-0.4249216318130493</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="H8" t="n">
-        <v>0.218</v>
+        <v>0.161</v>
       </c>
       <c r="I8" t="n">
-        <v>0.182</v>
+        <v>0.132</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -6075,26 +6075,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RAB40B</t>
+          <t>RAB40C</t>
         </is>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4249216318130493</v>
+        <v>-0.2326711863279343</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
       <c r="H9" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.161</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.132</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -6114,26 +6114,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RAB40C</t>
+          <t>XLOC_l2_008134</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2326711863279343</v>
+        <v>-0.360901951789856</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.161</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -6148,22 +6139,34 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INSYN1</t>
+          <t>PIK3R3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>XLOC_l2_008134</t>
+          <t>RAB40B</t>
         </is>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.360901951789856</v>
+        <v>-0.3375780582427979</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1079897433519363</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.295</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -6183,29 +6186,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RAB40B</t>
+          <t>RAB40C</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3375780582427979</v>
+        <v>-0.2103072702884674</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.1079897433519363</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.199</v>
+        <v>0.246</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006</v>
+        <v>0.032</v>
       </c>
       <c r="I12" t="n">
-        <v>0.295</v>
+        <v>0.342</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -6225,26 +6225,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RAB40C</t>
+          <t>XLOC_l2_008134</t>
         </is>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2103072702884674</v>
+        <v>-0.4055376052856445</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.342</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -6259,23 +6250,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PIK3R3</t>
+          <t>RAB40A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XLOC_l2_008134</t>
+          <t>RAB40B</t>
         </is>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4055376052856445</v>
+        <v>0.1854254305362701</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.402</v>
+      </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -6294,26 +6294,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RAB40B</t>
+          <t>RAB40C</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1854254305362701</v>
+        <v>0.1600978374481201</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.591</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.372</v>
+        <v>0.361</v>
       </c>
       <c r="I15" t="n">
-        <v>0.402</v>
+        <v>0.417</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -6328,7 +6328,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RAB40A</t>
+          <t>RAB40B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -6340,19 +6340,19 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1600978374481201</v>
+        <v>0.5183291435241699</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.539</v>
       </c>
       <c r="H16" t="n">
-        <v>0.361</v>
+        <v>0.304</v>
       </c>
       <c r="I16" t="n">
-        <v>0.417</v>
+        <v>0.353</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -6372,27 +6372,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RAB40C</t>
+          <t>XLOC_l2_008134</t>
         </is>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5183291435241699</v>
+        <v>0.6184197664260864</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.353</v>
-      </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
@@ -6400,13 +6391,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RAB40B</t>
+          <t>RAB40C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -6418,7 +6409,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6184197664260864</v>
+        <v>0.3649930953979492</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -6436,23 +6427,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RAB40C</t>
+          <t>HOOK1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>XLOC_l2_008134</t>
+          <t>HOOK2</t>
         </is>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3649930953979492</v>
+        <v>0.5615435838699341</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J19" t="b">
         <v>1</v>
       </c>
@@ -6460,37 +6460,37 @@
         <v>0</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BICD2</t>
+          <t>HOOK1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HOOK2</t>
+          <t>NDE1</t>
         </is>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1443221867084503</v>
+        <v>-0.589537501335144</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.13</v>
+        <v>0.428</v>
       </c>
       <c r="H20" t="n">
-        <v>0.173</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.109</v>
+        <v>0.144</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -6510,26 +6510,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HOOK2</t>
+          <t>NDEL1</t>
         </is>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5615435838699341</v>
+        <v>-0.5329282283782959</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.299</v>
+        <v>0.647</v>
       </c>
       <c r="H21" t="n">
-        <v>0.732</v>
+        <v>0.739</v>
       </c>
       <c r="I21" t="n">
-        <v>0.411</v>
+        <v>0.215</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -6549,26 +6549,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NDE1</t>
+          <t>PAFAH1B1</t>
         </is>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.589537501335144</v>
+        <v>-0.4732605814933777</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.428</v>
+        <v>0.393</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.624</v>
       </c>
       <c r="I22" t="n">
-        <v>0.144</v>
+        <v>0.295</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -6588,26 +6588,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NDEL1</t>
+          <t>SPDL1</t>
         </is>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5329282283782959</v>
+        <v>0.4100427031517029</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.647</v>
+        <v>0.212</v>
       </c>
       <c r="H23" t="n">
-        <v>0.739</v>
+        <v>0.611</v>
       </c>
       <c r="I23" t="n">
-        <v>0.215</v>
+        <v>0.154</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -6622,31 +6622,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HOOK1</t>
+          <t>HOOK2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PAFAH1B1</t>
+          <t>NDE1</t>
         </is>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4732605814933777</v>
+        <v>-0.6562999486923218</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.393</v>
+        <v>0.15</v>
       </c>
       <c r="H24" t="n">
-        <v>0.624</v>
+        <v>0.345</v>
       </c>
       <c r="I24" t="n">
-        <v>0.295</v>
+        <v>-0.027</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -6655,37 +6655,37 @@
         <v>0</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HOOK1</t>
+          <t>HOOK2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SPDL1</t>
+          <t>NDEL1</t>
         </is>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4100427031517029</v>
+        <v>-0.6145409941673279</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.212</v>
+        <v>0.268</v>
       </c>
       <c r="H25" t="n">
-        <v>0.611</v>
+        <v>0.409</v>
       </c>
       <c r="I25" t="n">
-        <v>0.154</v>
+        <v>0.005</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -6705,26 +6705,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NDE1</t>
+          <t>PAFAH1B1</t>
         </is>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6562999486923218</v>
+        <v>-0.6105356812477112</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.15</v>
+        <v>0.178</v>
       </c>
       <c r="H26" t="n">
-        <v>0.345</v>
+        <v>0.325</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.027</v>
+        <v>0.049</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -6744,26 +6744,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NDEL1</t>
+          <t>SPDL1</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.6145409941673279</v>
+        <v>0.3116209506988525</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.268</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0.409</v>
+        <v>0.364</v>
       </c>
       <c r="I27" t="n">
-        <v>0.005</v>
+        <v>0.021</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -6772,37 +6772,37 @@
         <v>0</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HOOK2</t>
+          <t>NDE1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PAFAH1B1</t>
+          <t>NDEL1</t>
         </is>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.6105356812477112</v>
+        <v>0.9057472944259644</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.178</v>
+        <v>0.778</v>
       </c>
       <c r="H28" t="n">
-        <v>0.325</v>
+        <v>0.945</v>
       </c>
       <c r="I28" t="n">
-        <v>0.049</v>
+        <v>0.802</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -6811,37 +6811,37 @@
         <v>0</v>
       </c>
       <c r="L28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HOOK2</t>
+          <t>NDE1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SPDL1</t>
+          <t>PAFAH1B1</t>
         </is>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3116209506988525</v>
+        <v>0.8609339594841003</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.726</v>
       </c>
       <c r="H29" t="n">
-        <v>0.364</v>
+        <v>0.839</v>
       </c>
       <c r="I29" t="n">
-        <v>0.021</v>
+        <v>0.881</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -6861,26 +6861,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NDEL1</t>
+          <t>SPDL1</t>
         </is>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9057472944259644</v>
+        <v>-0.2969989776611328</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.778</v>
+        <v>0.336</v>
       </c>
       <c r="H30" t="n">
-        <v>0.945</v>
+        <v>0.867</v>
       </c>
       <c r="I30" t="n">
-        <v>0.802</v>
+        <v>0.606</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -6895,7 +6895,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NDE1</t>
+          <t>NDEL1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6907,19 +6907,19 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8609339594841003</v>
+        <v>0.9114706516265869</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.726</v>
+        <v>0.874</v>
       </c>
       <c r="H31" t="n">
-        <v>0.839</v>
+        <v>0.953</v>
       </c>
       <c r="I31" t="n">
-        <v>0.881</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
@@ -6934,7 +6934,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NDE1</t>
+          <t>NDEL1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6946,19 +6946,19 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2969989776611328</v>
+        <v>-0.2651526927947998</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.336</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
-        <v>0.867</v>
+        <v>0.826</v>
       </c>
       <c r="I32" t="n">
-        <v>0.606</v>
+        <v>0.678</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
@@ -6973,31 +6973,31 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NDEL1</t>
+          <t>PAFAH1B1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PAFAH1B1</t>
+          <t>SPDL1</t>
         </is>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9114706516265869</v>
+        <v>-0.2347201406955719</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.874</v>
+        <v>0.45</v>
       </c>
       <c r="H33" t="n">
-        <v>0.953</v>
+        <v>0.535</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.729</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
@@ -7012,31 +7012,31 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NDEL1</t>
+          <t>STK11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SPDL1</t>
+          <t>STK3</t>
         </is>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2651526927947998</v>
+        <v>-0.1594276428222656</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>0.977</v>
       </c>
       <c r="H34" t="n">
-        <v>0.826</v>
+        <v>0.847</v>
       </c>
       <c r="I34" t="n">
-        <v>0.678</v>
+        <v>0.522</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
@@ -7051,31 +7051,31 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAFAH1B1</t>
+          <t>STK11</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SPDL1</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2347201406955719</v>
+        <v>0.1783458292484283</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.45</v>
+        <v>0.882</v>
       </c>
       <c r="H35" t="n">
-        <v>0.535</v>
+        <v>0.748</v>
       </c>
       <c r="I35" t="n">
-        <v>0.729</v>
+        <v>0.614</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -7090,31 +7090,31 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>STK11</t>
+          <t>STK3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>STK3</t>
+          <t>WWTR1</t>
         </is>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1594276428222656</v>
+        <v>-0.2286166846752167</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.977</v>
+        <v>0.78</v>
       </c>
       <c r="H36" t="n">
-        <v>0.847</v>
+        <v>0.894</v>
       </c>
       <c r="I36" t="n">
-        <v>0.522</v>
+        <v>0.395</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -7129,7 +7129,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>STK11</t>
+          <t>STK3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7141,19 +7141,19 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1783458292484283</v>
+        <v>-0.2970739006996155</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.882</v>
+        <v>0.651</v>
       </c>
       <c r="H37" t="n">
-        <v>0.748</v>
+        <v>0.919</v>
       </c>
       <c r="I37" t="n">
-        <v>0.614</v>
+        <v>0.523</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>STK3</t>
+          <t>TRAF2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7180,25 +7180,28 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2286166846752167</v>
+        <v>-0.1588208675384521</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.2905512452125549</v>
       </c>
       <c r="G38" t="n">
-        <v>0.78</v>
+        <v>0.675</v>
       </c>
       <c r="H38" t="n">
-        <v>0.894</v>
+        <v>0.062</v>
       </c>
       <c r="I38" t="n">
-        <v>0.395</v>
+        <v>0.209</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -7207,7 +7210,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>STK3</t>
+          <t>TRAF2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7219,19 +7222,19 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2970739006996155</v>
+        <v>-0.1951624155044556</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.651</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0.919</v>
+        <v>0.341</v>
       </c>
       <c r="I39" t="n">
-        <v>0.523</v>
+        <v>0.299</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
@@ -7246,40 +7249,37 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TRAF2</t>
+          <t>WWTR1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WWTR1</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1588208675384521</v>
+        <v>0.5288341641426086</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-0.2905512452125549</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.675</v>
+        <v>0.828</v>
       </c>
       <c r="H40" t="n">
-        <v>0.062</v>
+        <v>0.901</v>
       </c>
       <c r="I40" t="n">
-        <v>0.209</v>
+        <v>0.764</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
@@ -7288,31 +7288,34 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TRAF2</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1951624155044556</v>
+        <v>0.2753007411956787</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.04063683748245239</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="H41" t="n">
-        <v>0.341</v>
+        <v>0.059</v>
       </c>
       <c r="I41" t="n">
-        <v>0.299</v>
+        <v>0.223</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
@@ -7321,37 +7324,40 @@
         <v>0</v>
       </c>
       <c r="L41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WWTR1</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5288341641426086</v>
+        <v>-0.1221503838896751</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.1398089081048965</v>
       </c>
       <c r="G42" t="n">
-        <v>0.828</v>
+        <v>0.408</v>
       </c>
       <c r="H42" t="n">
-        <v>0.901</v>
+        <v>-0.163</v>
       </c>
       <c r="I42" t="n">
-        <v>0.764</v>
+        <v>0.659</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -7366,49 +7372,49 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2753007411956787</v>
+        <v>0.3199597299098969</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04063683748245239</v>
+        <v>0.4198078215122223</v>
       </c>
       <c r="G43" t="n">
-        <v>0.13</v>
+        <v>0.178</v>
       </c>
       <c r="H43" t="n">
-        <v>0.059</v>
+        <v>0.329</v>
       </c>
       <c r="I43" t="n">
-        <v>0.223</v>
+        <v>0.433</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
       </c>
       <c r="K43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -7420,25 +7426,25 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06985656917095184</v>
+        <v>0.3294245600700378</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.2017924338579178</v>
+        <v>0.3228223919868469</v>
       </c>
       <c r="G44" t="n">
-        <v>0.249</v>
+        <v>0.081</v>
       </c>
       <c r="H44" t="n">
-        <v>0.158</v>
+        <v>0.157</v>
       </c>
       <c r="I44" t="n">
-        <v>0.223</v>
+        <v>0.202</v>
       </c>
       <c r="J44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -7450,34 +7456,34 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1221503838896751</v>
+        <v>0.2224076837301254</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1398089081048965</v>
+        <v>0.03387527167797089</v>
       </c>
       <c r="G45" t="n">
-        <v>0.408</v>
+        <v>0.067</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.163</v>
+        <v>0.148</v>
       </c>
       <c r="I45" t="n">
-        <v>0.659</v>
+        <v>0.239</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
@@ -7486,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7497,29 +7503,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3199597299098969</v>
+        <v>-0.1175710409879684</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4198078215122223</v>
+        <v>-0.2571718692779541</v>
       </c>
       <c r="G46" t="n">
-        <v>0.178</v>
+        <v>0.041</v>
       </c>
       <c r="H46" t="n">
-        <v>0.329</v>
+        <v>-0.038</v>
       </c>
       <c r="I46" t="n">
-        <v>0.433</v>
+        <v>0.154</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
@@ -7528,7 +7534,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -7539,29 +7545,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3294245600700378</v>
+        <v>0.2355031669139862</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3228223919868469</v>
+        <v>0.2686706185340881</v>
       </c>
       <c r="G47" t="n">
         <v>0.081</v>
       </c>
       <c r="H47" t="n">
-        <v>0.157</v>
+        <v>0.185</v>
       </c>
       <c r="I47" t="n">
-        <v>0.202</v>
+        <v>0.193</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
@@ -7576,49 +7582,49 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2224076837301254</v>
+        <v>0.6893683075904846</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03387527167797089</v>
+        <v>0.3144550323486328</v>
       </c>
       <c r="G48" t="n">
-        <v>0.067</v>
+        <v>0.651</v>
       </c>
       <c r="H48" t="n">
-        <v>0.148</v>
+        <v>0.364</v>
       </c>
       <c r="I48" t="n">
-        <v>0.239</v>
+        <v>0.738</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
       <c r="K48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7630,37 +7636,37 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1175710409879684</v>
+        <v>-0.1496582627296448</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.2571718692779541</v>
+        <v>0.002554069273173809</v>
       </c>
       <c r="G49" t="n">
-        <v>0.041</v>
+        <v>0.226</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.038</v>
+        <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>0.154</v>
+        <v>0.594</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7672,22 +7678,22 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2355031669139862</v>
+        <v>0.4785754680633545</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2686706185340881</v>
+        <v>0.3196924030780792</v>
       </c>
       <c r="G50" t="n">
-        <v>0.081</v>
+        <v>0.268</v>
       </c>
       <c r="H50" t="n">
-        <v>0.185</v>
+        <v>0.079</v>
       </c>
       <c r="I50" t="n">
-        <v>0.193</v>
+        <v>0.442</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
@@ -7696,97 +7702,97 @@
         <v>1</v>
       </c>
       <c r="L50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6893683075904846</v>
+        <v>-0.2462649643421173</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3144550323486328</v>
+        <v>-0.1276900470256805</v>
       </c>
       <c r="G51" t="n">
-        <v>0.651</v>
+        <v>0.159</v>
       </c>
       <c r="H51" t="n">
-        <v>0.364</v>
+        <v>0.295</v>
       </c>
       <c r="I51" t="n">
-        <v>0.738</v>
+        <v>0.213</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.1496582627296448</v>
+        <v>0.6812741756439209</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002554069273173809</v>
+        <v>0.2792439758777618</v>
       </c>
       <c r="G52" t="n">
-        <v>0.226</v>
+        <v>0.131</v>
       </c>
       <c r="H52" t="n">
-        <v>0.26</v>
+        <v>0.182</v>
       </c>
       <c r="I52" t="n">
-        <v>0.594</v>
+        <v>0.195</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7798,64 +7804,64 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4785754680633545</v>
+        <v>-0.1268642246723175</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3196924030780792</v>
+        <v>-0.06189344078302383</v>
       </c>
       <c r="G53" t="n">
-        <v>0.268</v>
+        <v>0.18</v>
       </c>
       <c r="H53" t="n">
-        <v>0.079</v>
+        <v>0.256</v>
       </c>
       <c r="I53" t="n">
-        <v>0.442</v>
+        <v>0.142</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2462649643421173</v>
+        <v>-0.1939173638820648</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.1276900470256805</v>
+        <v>-0.1034949570894241</v>
       </c>
       <c r="G54" t="n">
-        <v>0.159</v>
+        <v>0.095</v>
       </c>
       <c r="H54" t="n">
-        <v>0.295</v>
+        <v>0.233</v>
       </c>
       <c r="I54" t="n">
-        <v>0.213</v>
+        <v>0.279</v>
       </c>
       <c r="J54" t="b">
         <v>1</v>
@@ -7870,40 +7876,40 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>ECH1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>SARS2</t>
         </is>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6812741756439209</v>
+        <v>0.3769468069076538</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2792439758777618</v>
+        <v>0.1944777369499207</v>
       </c>
       <c r="G55" t="n">
-        <v>0.131</v>
+        <v>0.065</v>
       </c>
       <c r="H55" t="n">
-        <v>0.182</v>
+        <v>0.343</v>
       </c>
       <c r="I55" t="n">
-        <v>0.195</v>
+        <v>0.289</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -7912,34 +7918,34 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>ECH1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>UQCRFS1</t>
         </is>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.1268642246723175</v>
+        <v>0.6323718428611755</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.06189344078302383</v>
+        <v>0.1041402593255043</v>
       </c>
       <c r="G56" t="n">
-        <v>0.18</v>
+        <v>0.091</v>
       </c>
       <c r="H56" t="n">
-        <v>0.256</v>
+        <v>0.413</v>
       </c>
       <c r="I56" t="n">
-        <v>0.142</v>
+        <v>0.446</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
@@ -7948,40 +7954,40 @@
         <v>0</v>
       </c>
       <c r="L56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>SARS2</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>UQCRFS1</t>
         </is>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1939173638820648</v>
+        <v>0.4872098863124847</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1034949570894241</v>
+        <v>0.1824645698070526</v>
       </c>
       <c r="G57" t="n">
-        <v>0.095</v>
+        <v>-0.285</v>
       </c>
       <c r="H57" t="n">
-        <v>0.233</v>
+        <v>0.458</v>
       </c>
       <c r="I57" t="n">
-        <v>0.279</v>
+        <v>0.638</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
@@ -7990,40 +7996,40 @@
         <v>0</v>
       </c>
       <c r="L57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ECH1</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SARS2</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3769468069076538</v>
+        <v>0.4146685898303986</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1944777369499207</v>
+        <v>0.1684471964836121</v>
       </c>
       <c r="G58" t="n">
-        <v>0.065</v>
+        <v>0.198</v>
       </c>
       <c r="H58" t="n">
-        <v>0.343</v>
+        <v>0.386</v>
       </c>
       <c r="I58" t="n">
-        <v>0.289</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
@@ -8032,40 +8038,40 @@
         <v>0</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ECH1</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>UQCRFS1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6323718428611755</v>
+        <v>0.4279057383537292</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1041402593255043</v>
+        <v>0.1210622191429138</v>
       </c>
       <c r="G59" t="n">
-        <v>0.091</v>
+        <v>-0.118</v>
       </c>
       <c r="H59" t="n">
-        <v>0.413</v>
+        <v>-0.251</v>
       </c>
       <c r="I59" t="n">
-        <v>0.446</v>
+        <v>0.575</v>
       </c>
       <c r="J59" t="b">
         <v>1</v>
@@ -8080,34 +8086,31 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SARS2</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>UQCRFS1</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4872098863124847</v>
+        <v>0.4088920950889587</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.1824645698070526</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.285</v>
+        <v>0.417</v>
       </c>
       <c r="H60" t="n">
-        <v>0.458</v>
+        <v>0.096</v>
       </c>
       <c r="I60" t="n">
-        <v>0.638</v>
+        <v>0.354</v>
       </c>
       <c r="J60" t="b">
         <v>1</v>
@@ -8127,29 +8130,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4146685898303986</v>
+        <v>0.3320356905460358</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1684471964836121</v>
+        <v>-0.1260750442743301</v>
       </c>
       <c r="G61" t="n">
-        <v>0.198</v>
+        <v>-0.387</v>
       </c>
       <c r="H61" t="n">
-        <v>0.386</v>
+        <v>0.703</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6860000000000001</v>
+        <v>-0.092</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
@@ -8169,29 +8172,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4279057383537292</v>
+        <v>0.4080018103122711</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.1210622191429138</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.118</v>
+        <v>-0.131</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.251</v>
+        <v>-0.455</v>
       </c>
       <c r="I62" t="n">
-        <v>0.575</v>
+        <v>0.146</v>
       </c>
       <c r="J62" t="b">
         <v>1</v>
@@ -8211,26 +8211,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4088920950889587</v>
+        <v>0.5452359914779663</v>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01722865924239159</v>
       </c>
       <c r="G63" t="n">
-        <v>0.417</v>
+        <v>-0.049</v>
       </c>
       <c r="H63" t="n">
-        <v>0.096</v>
+        <v>0.233</v>
       </c>
       <c r="I63" t="n">
-        <v>0.354</v>
+        <v>0.759</v>
       </c>
       <c r="J63" t="b">
         <v>1</v>
@@ -8250,29 +8253,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3320356905460358</v>
+        <v>-0.5460453629493713</v>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>-0.1260750442743301</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.387</v>
+        <v>0.03</v>
       </c>
       <c r="H64" t="n">
-        <v>0.703</v>
+        <v>0.475</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.092</v>
+        <v>0.429</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
@@ -8287,31 +8287,34 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4080018103122711</v>
+        <v>0.2352298200130463</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.00465029152110219</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.131</v>
+        <v>0.571</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.455</v>
+        <v>0.672</v>
       </c>
       <c r="I65" t="n">
-        <v>0.146</v>
+        <v>0.029</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
@@ -8326,34 +8329,31 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5452359914779663</v>
+        <v>0.1907656490802765</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.01722865924239159</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.049</v>
+        <v>0.511</v>
       </c>
       <c r="H66" t="n">
-        <v>0.233</v>
+        <v>0.081</v>
       </c>
       <c r="I66" t="n">
-        <v>0.759</v>
+        <v>0.272</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
@@ -8368,31 +8368,34 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.5460453629493713</v>
+        <v>0.1569772958755493</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.1285382062196732</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03</v>
+        <v>0.739</v>
       </c>
       <c r="H67" t="n">
-        <v>0.475</v>
+        <v>0.199</v>
       </c>
       <c r="I67" t="n">
-        <v>0.429</v>
+        <v>0.905</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
@@ -8412,29 +8415,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2352298200130463</v>
+        <v>0.2658340930938721</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" t="n">
-        <v>-0.00465029152110219</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.571</v>
+        <v>0.554</v>
       </c>
       <c r="H68" t="n">
-        <v>0.672</v>
+        <v>0.385</v>
       </c>
       <c r="I68" t="n">
-        <v>0.029</v>
+        <v>0.577</v>
       </c>
       <c r="J68" t="b">
         <v>1</v>
@@ -8454,26 +8454,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1907656490802765</v>
+        <v>0.3600203394889832</v>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.05776886641979218</v>
       </c>
       <c r="G69" t="n">
-        <v>0.511</v>
+        <v>-0.127</v>
       </c>
       <c r="H69" t="n">
-        <v>0.081</v>
+        <v>-0.018</v>
       </c>
       <c r="I69" t="n">
-        <v>0.272</v>
+        <v>-0.017</v>
       </c>
       <c r="J69" t="b">
         <v>1</v>
@@ -8482,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -8493,29 +8496,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1569772958755493</v>
+        <v>-0.4248228967189789</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>-0.1285382062196732</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.739</v>
+        <v>0.371</v>
       </c>
       <c r="H70" t="n">
-        <v>0.199</v>
+        <v>0.366</v>
       </c>
       <c r="I70" t="n">
-        <v>0.905</v>
+        <v>0.521</v>
       </c>
       <c r="J70" t="b">
         <v>1</v>
@@ -8530,31 +8530,31 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2658340930938721</v>
+        <v>0.4857894778251648</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.554</v>
+        <v>0.114</v>
       </c>
       <c r="H71" t="n">
-        <v>0.385</v>
+        <v>-0.354</v>
       </c>
       <c r="I71" t="n">
-        <v>0.577</v>
+        <v>0.148</v>
       </c>
       <c r="J71" t="b">
         <v>1</v>
@@ -8563,40 +8563,40 @@
         <v>0</v>
       </c>
       <c r="L71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3600203394889832</v>
+        <v>0.4437235295772552</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.05776886641979218</v>
+        <v>-0.1121061071753502</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.127</v>
+        <v>0.501</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.018</v>
+        <v>0.416</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.017</v>
+        <v>-0.051</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
@@ -8605,37 +8605,37 @@
         <v>0</v>
       </c>
       <c r="L72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4248228967189789</v>
+        <v>0.3692989349365234</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.371</v>
+        <v>0.741</v>
       </c>
       <c r="H73" t="n">
-        <v>0.366</v>
+        <v>0.877</v>
       </c>
       <c r="I73" t="n">
-        <v>0.521</v>
+        <v>0.343</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
@@ -8655,35 +8655,38 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4857894778251648</v>
+        <v>0.3811587989330292</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.2773579359054565</v>
       </c>
       <c r="G74" t="n">
-        <v>0.114</v>
+        <v>-0.127</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.354</v>
+        <v>0.221</v>
       </c>
       <c r="I74" t="n">
-        <v>0.148</v>
+        <v>0.484</v>
       </c>
       <c r="J74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -8694,29 +8697,26 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4437235295772552</v>
+        <v>-0.4404551982879639</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-0.1121061071753502</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.501</v>
+        <v>0.308</v>
       </c>
       <c r="H75" t="n">
-        <v>0.416</v>
+        <v>0.132</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.051</v>
+        <v>0.152</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
@@ -8725,37 +8725,37 @@
         <v>0</v>
       </c>
       <c r="L75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3692989349365234</v>
+        <v>0.3761255145072937</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.741</v>
+        <v>0.118</v>
       </c>
       <c r="H76" t="n">
-        <v>0.877</v>
+        <v>0.266</v>
       </c>
       <c r="I76" t="n">
-        <v>0.343</v>
+        <v>0.404</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
@@ -8770,73 +8770,70 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3811587989330292</v>
+        <v>0.3331061601638794</v>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.2773579359054565</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.127</v>
+        <v>0.205</v>
       </c>
       <c r="H77" t="n">
-        <v>0.221</v>
+        <v>-0.263</v>
       </c>
       <c r="I77" t="n">
-        <v>0.484</v>
+        <v>0.269</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4404551982879639</v>
+        <v>0.3171176612377167</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.308</v>
+        <v>0.214</v>
       </c>
       <c r="H78" t="n">
-        <v>0.132</v>
+        <v>0.179</v>
       </c>
       <c r="I78" t="n">
-        <v>0.152</v>
+        <v>-0.034</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
@@ -8856,26 +8853,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3761255145072937</v>
+        <v>-0.4373143315315247</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.118</v>
+        <v>-0.003</v>
       </c>
       <c r="H79" t="n">
-        <v>0.266</v>
+        <v>0.386</v>
       </c>
       <c r="I79" t="n">
-        <v>0.404</v>
+        <v>0.34</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
@@ -8884,13 +8881,13 @@
         <v>0</v>
       </c>
       <c r="L79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8902,19 +8899,19 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3331061601638794</v>
+        <v>0.3715893030166626</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0.205</v>
+        <v>-0.514</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.263</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="I80" t="n">
-        <v>0.269</v>
+        <v>0.497</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
@@ -8923,13 +8920,13 @@
         <v>0</v>
       </c>
       <c r="L80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8941,34 +8938,37 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3171176612377167</v>
+        <v>0.3289414346218109</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.254977285861969</v>
       </c>
       <c r="G81" t="n">
-        <v>0.214</v>
+        <v>0.621</v>
       </c>
       <c r="H81" t="n">
-        <v>0.179</v>
+        <v>0.657</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.034</v>
+        <v>-0.401</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8980,19 +8980,19 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4373143315315247</v>
+        <v>-0.3514839112758636</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.003</v>
+        <v>0.436</v>
       </c>
       <c r="H82" t="n">
-        <v>0.386</v>
+        <v>0.679</v>
       </c>
       <c r="I82" t="n">
-        <v>0.34</v>
+        <v>0.644</v>
       </c>
       <c r="J82" t="b">
         <v>1</v>
@@ -9001,37 +9001,37 @@
         <v>0</v>
       </c>
       <c r="L82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3715893030166626</v>
+        <v>0.3442297875881195</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.514</v>
+        <v>-0.034</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6879999999999999</v>
+        <v>-0.371</v>
       </c>
       <c r="I83" t="n">
-        <v>0.497</v>
+        <v>0.144</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
@@ -9040,46 +9040,43 @@
         <v>0</v>
       </c>
       <c r="L83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3289414346218109</v>
+        <v>-0.4485647678375244</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-0.254977285861969</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.621</v>
+        <v>0.267</v>
       </c>
       <c r="H84" t="n">
-        <v>0.657</v>
+        <v>0.201</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.401</v>
+        <v>0.458</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="b">
         <v>1</v>
@@ -9088,7 +9085,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -9100,19 +9097,19 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.3514839112758636</v>
+        <v>-0.4549693763256073</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.436</v>
+        <v>0.033</v>
       </c>
       <c r="H85" t="n">
-        <v>0.679</v>
+        <v>0.191</v>
       </c>
       <c r="I85" t="n">
-        <v>0.644</v>
+        <v>0.535</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
@@ -9121,162 +9118,6 @@
         <v>0</v>
       </c>
       <c r="L85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>MGLL</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
-        </is>
-      </c>
-      <c r="C86" t="b">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.3442297875881195</v>
-      </c>
-      <c r="E86" t="b">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-0.034</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-0.371</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="J86" t="b">
-        <v>1</v>
-      </c>
-      <c r="K86" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>MGLL</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>SPATA25</t>
-        </is>
-      </c>
-      <c r="C87" t="b">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-0.4485647678375244</v>
-      </c>
-      <c r="E87" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.201</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="J87" t="b">
-        <v>1</v>
-      </c>
-      <c r="K87" t="b">
-        <v>0</v>
-      </c>
-      <c r="L87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>SPATA25</t>
-        </is>
-      </c>
-      <c r="C88" t="b">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-0.4549693763256073</v>
-      </c>
-      <c r="E88" t="b">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.191</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="J88" t="b">
-        <v>1</v>
-      </c>
-      <c r="K88" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>FOXO3</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>TGFB1</t>
-        </is>
-      </c>
-      <c r="C89" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-0.2064711004495621</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9291,7 +9132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9364,7 +9205,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PIK3R3</t>
+          <t>INSYN1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -9376,19 +9217,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002991218119859695</v>
+        <v>-0.1112533360719681</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.167</v>
+        <v>0.012</v>
       </c>
       <c r="H2" t="n">
-        <v>0.061</v>
+        <v>0.218</v>
       </c>
       <c r="I2" t="n">
-        <v>0.388</v>
+        <v>0.182</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -9403,22 +9244,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>PIK3R3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>RAB40A</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>XLOC_l2_008134</t>
-        </is>
-      </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02416909858584404</v>
+        <v>0.002991218119859695</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.388</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -9433,32 +9283,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BICD2</t>
+          <t>RAB40A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOOK1</t>
+          <t>XLOC_l2_008134</t>
         </is>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09119826555252075</v>
+        <v>0.02416909858584404</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.223</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
@@ -9466,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -9477,26 +9318,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NDE1</t>
+          <t>HOOK1</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05231126770377159</v>
+        <v>0.09119826555252075</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.369</v>
+        <v>0.406</v>
       </c>
       <c r="H5" t="n">
-        <v>0.634</v>
+        <v>0.263</v>
       </c>
       <c r="I5" t="n">
-        <v>0.34</v>
+        <v>0.223</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -9516,26 +9357,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NDEL1</t>
+          <t>HOOK2</t>
         </is>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03686714544892311</v>
+        <v>0.1443221867084503</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.621</v>
+        <v>0.13</v>
       </c>
       <c r="H6" t="n">
-        <v>0.577</v>
+        <v>0.173</v>
       </c>
       <c r="I6" t="n">
-        <v>0.379</v>
+        <v>0.109</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -9544,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -9555,26 +9396,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PAFAH1B1</t>
+          <t>NDE1</t>
         </is>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.013422766700387</v>
+        <v>-0.05231126770377159</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.237</v>
+        <v>0.369</v>
       </c>
       <c r="H7" t="n">
-        <v>0.434</v>
+        <v>0.634</v>
       </c>
       <c r="I7" t="n">
-        <v>0.495</v>
+        <v>0.34</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -9594,26 +9435,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPDL1</t>
+          <t>NDEL1</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1182831004261971</v>
+        <v>-0.03686714544892311</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.229</v>
+        <v>0.621</v>
       </c>
       <c r="H8" t="n">
-        <v>0.417</v>
+        <v>0.577</v>
       </c>
       <c r="I8" t="n">
-        <v>0.219</v>
+        <v>0.379</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -9628,34 +9469,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STK11</t>
+          <t>BICD2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRAF2</t>
+          <t>PAFAH1B1</t>
         </is>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0009266138076782227</v>
+        <v>-0.013422766700387</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.03663062676787376</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.881</v>
+        <v>0.237</v>
       </c>
       <c r="H9" t="n">
-        <v>0.714</v>
+        <v>0.434</v>
       </c>
       <c r="I9" t="n">
-        <v>0.295</v>
+        <v>0.495</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -9670,34 +9508,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STK11</t>
+          <t>BICD2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WWTR1</t>
+          <t>SPDL1</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02776568941771984</v>
+        <v>0.1182831004261971</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.01074487715959549</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.921</v>
+        <v>0.229</v>
       </c>
       <c r="H10" t="n">
-        <v>0.667</v>
+        <v>0.417</v>
       </c>
       <c r="I10" t="n">
-        <v>0.412</v>
+        <v>0.219</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -9712,7 +9547,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STK3</t>
+          <t>STK11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -9724,19 +9559,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08510023355484009</v>
+        <v>-0.0009266138076782227</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.03663062676787376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.794</v>
+        <v>0.881</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.714</v>
       </c>
       <c r="I11" t="n">
-        <v>0.721</v>
+        <v>0.295</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -9751,34 +9589,34 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>STK11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>WWTR1</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1150528788566589</v>
+        <v>0.02776568941771984</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06674164533615112</v>
+        <v>-0.01074487715959549</v>
       </c>
       <c r="G12" t="n">
-        <v>0.75</v>
+        <v>0.921</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.103</v>
+        <v>0.667</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.412</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -9793,20 +9631,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>STK3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>TRAF2</t>
         </is>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.08510023355484009</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.721</v>
+      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
@@ -9814,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -9825,29 +9675,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07423205673694611</v>
+        <v>0.1150528788566589</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002410450018942356</v>
+        <v>-0.06674164533615112</v>
       </c>
       <c r="G14" t="n">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="H14" t="n">
-        <v>0.362</v>
+        <v>-0.103</v>
       </c>
       <c r="I14" t="n">
-        <v>0.398</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -9867,29 +9717,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1085278689861298</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1809009313583374</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -9904,19 +9739,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06985656917095184</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.2017924338579178</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.223</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -9931,19 +9781,34 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.07423205673694611</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.002410450018942356</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.398</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -9952,40 +9817,40 @@
         <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1056016236543655</v>
+        <v>0.1085278689861298</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1211689487099648</v>
+        <v>0.1809009313583374</v>
       </c>
       <c r="G18" t="n">
-        <v>0.406</v>
+        <v>0.237</v>
       </c>
       <c r="H18" t="n">
-        <v>0.034</v>
+        <v>0.263</v>
       </c>
       <c r="I18" t="n">
-        <v>0.506</v>
+        <v>0.369</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -9994,18 +9859,18 @@
         <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CDC42SE2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>DPAT1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GPR176</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -10027,12 +9892,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>CHRM4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>DPAT1</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -10054,19 +9919,34 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1056016236543655</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.1211689487099648</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.506</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -10075,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -10086,7 +9966,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -10108,7 +9988,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -10117,25 +9997,10 @@
         </is>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.01953976601362228</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.06129137799143791</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -10150,7 +10015,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -10159,25 +10024,10 @@
         </is>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.1003172844648361</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.07140035182237625</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.229</v>
+        <v>0</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -10192,32 +10042,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.09519796073436737</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.517</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
@@ -10225,37 +10063,40 @@
         <v>0</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.01953976601362228</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1264067143201828</v>
+        <v>0.06129137799143791</v>
       </c>
       <c r="G26" t="n">
-        <v>0.015</v>
+        <v>0.169</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.185</v>
+        <v>0.159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.257</v>
+        <v>0.121</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -10270,19 +10111,34 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1003172844648361</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.07140035182237625</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.229</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -10297,7 +10153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -10309,19 +10165,19 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1150323301553726</v>
+        <v>0.09519796073436737</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.335</v>
+        <v>0.165</v>
       </c>
       <c r="H28" t="n">
-        <v>0.736</v>
+        <v>0.348</v>
       </c>
       <c r="I28" t="n">
-        <v>0.654</v>
+        <v>0.517</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -10336,7 +10192,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -10351,16 +10207,16 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.05202555656433105</v>
+        <v>0.1264067143201828</v>
       </c>
       <c r="G29" t="n">
-        <v>0.103</v>
+        <v>0.015</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.047</v>
+        <v>-0.185</v>
       </c>
       <c r="I29" t="n">
-        <v>0.159</v>
+        <v>0.257</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -10375,7 +10231,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -10402,7 +10258,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -10414,19 +10270,19 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01608749851584435</v>
+        <v>0.1150323301553726</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.422</v>
+        <v>0.335</v>
       </c>
       <c r="H31" t="n">
-        <v>0.228</v>
+        <v>0.736</v>
       </c>
       <c r="I31" t="n">
-        <v>0.27</v>
+        <v>0.654</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -10441,7 +10297,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -10456,16 +10312,16 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1236758530139923</v>
+        <v>-0.05202555656433105</v>
       </c>
       <c r="G32" t="n">
-        <v>0.149</v>
+        <v>0.103</v>
       </c>
       <c r="H32" t="n">
-        <v>0.187</v>
+        <v>-0.047</v>
       </c>
       <c r="I32" t="n">
-        <v>0.27</v>
+        <v>0.159</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -10480,7 +10336,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -10507,7 +10363,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -10519,19 +10375,19 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.006146743893623352</v>
+        <v>0.01608749851584435</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.274</v>
+        <v>0.422</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.34</v>
+        <v>0.228</v>
       </c>
       <c r="I34" t="n">
-        <v>0.246</v>
+        <v>0.27</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -10540,13 +10396,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -10558,7 +10414,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1236758530139923</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.27</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -10573,7 +10441,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -10600,7 +10468,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -10612,19 +10480,19 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01836800947785378</v>
+        <v>-0.006146743893623352</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01</v>
+        <v>0.274</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="I37" t="n">
-        <v>0.525</v>
+        <v>0.246</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -10633,13 +10501,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -10651,19 +10519,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.1286560446023941</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-0.441</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.213</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -10672,13 +10528,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -10705,7 +10561,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -10717,19 +10573,19 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03140806779265404</v>
+        <v>0.01836800947785378</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.056</v>
+        <v>0.01</v>
       </c>
       <c r="H40" t="n">
-        <v>0.193</v>
+        <v>-0.33</v>
       </c>
       <c r="I40" t="n">
-        <v>0.317</v>
+        <v>0.525</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -10738,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -10756,7 +10612,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1286560446023941</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.441</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.275</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -10765,13 +10633,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -10798,19 +10666,31 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>MGLL</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>PER1</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>PNPLA4</t>
-        </is>
-      </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.03140806779265404</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.056</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.317</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
@@ -10825,12 +10705,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -10852,32 +10732,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.09152784943580627</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H45" t="n">
-        <v>-0.405</v>
-      </c>
-      <c r="I45" t="n">
-        <v>-0.043</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -10885,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -10896,26 +10764,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-0.0664646178483963</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.273</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
@@ -10930,7 +10786,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -10957,7 +10813,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -10966,22 +10822,22 @@
         </is>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.09152784943580627</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-0.05552582815289497</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.05</v>
+        <v>0.14</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.001</v>
+        <v>-0.405</v>
       </c>
       <c r="I48" t="n">
-        <v>0.151</v>
+        <v>-0.043</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -10990,13 +10846,13 @@
         <v>0</v>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -11005,10 +10861,22 @@
         </is>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.0664646178483963</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.273</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -11023,12 +10891,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>PNPLA4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>POLRID</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -11050,28 +10918,160 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>PNPLA4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SLC39A1</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.05552582815289497</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PNPLA4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SPATA25</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>POLRID</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SLC39A1</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>POLRID</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>SPATA25</t>
         </is>
       </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" t="b">
-        <v>0</v>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FOXO3</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TGFB1</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.2064711004495621</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11085,7 +11085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13195,45 +13195,6 @@
         <v>0</v>
       </c>
       <c r="L52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>FOXO3</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>TGFB1</t>
-        </is>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-0.2064711004495621</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J53" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13248,7 +13209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13524,26 +13485,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RAB40A</t>
+          <t>RAB40B</t>
         </is>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1112533360719681</v>
+        <v>-0.4249216318130493</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="H7" t="n">
-        <v>0.218</v>
+        <v>0.161</v>
       </c>
       <c r="I7" t="n">
-        <v>0.182</v>
+        <v>0.132</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -13563,26 +13524,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RAB40B</t>
+          <t>RAB40C</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4249216318130493</v>
+        <v>-0.2326711863279343</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
       <c r="H8" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.161</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.132</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -13597,31 +13558,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INSYN1</t>
+          <t>PIK3R3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RAB40C</t>
+          <t>RAB40B</t>
         </is>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2326711863279343</v>
+        <v>-0.3375780582427979</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1079897433519363</v>
       </c>
       <c r="G9" t="n">
-        <v>0.026</v>
+        <v>0.199</v>
       </c>
       <c r="H9" t="n">
-        <v>0.166</v>
+        <v>0.006</v>
       </c>
       <c r="I9" t="n">
-        <v>0.161</v>
+        <v>0.295</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -13641,29 +13605,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RAB40B</t>
+          <t>RAB40C</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3375780582427979</v>
+        <v>-0.2103072702884674</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.1079897433519363</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.199</v>
+        <v>0.246</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006</v>
+        <v>0.032</v>
       </c>
       <c r="I10" t="n">
-        <v>0.295</v>
+        <v>0.342</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -13678,31 +13639,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PIK3R3</t>
+          <t>HOOK2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RAB40C</t>
+          <t>NDE1</t>
         </is>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2103072702884674</v>
+        <v>-0.6562999486923218</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.246</v>
+        <v>0.15</v>
       </c>
       <c r="H11" t="n">
-        <v>0.032</v>
+        <v>0.345</v>
       </c>
       <c r="I11" t="n">
-        <v>0.342</v>
+        <v>-0.027</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -13717,31 +13678,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BICD2</t>
+          <t>HOOK2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HOOK2</t>
+          <t>PAFAH1B1</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1443221867084503</v>
+        <v>-0.6105356812477112</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.13</v>
+        <v>0.178</v>
       </c>
       <c r="H12" t="n">
-        <v>0.173</v>
+        <v>0.325</v>
       </c>
       <c r="I12" t="n">
-        <v>0.109</v>
+        <v>0.049</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -13761,26 +13722,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NDE1</t>
+          <t>SPDL1</t>
         </is>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6562999486923218</v>
+        <v>0.3116209506988525</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.15</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.345</v>
+        <v>0.364</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.027</v>
+        <v>0.021</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -13795,31 +13756,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HOOK2</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PAFAH1B1</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6105356812477112</v>
+        <v>0.2753007411956787</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04063683748245239</v>
       </c>
       <c r="G14" t="n">
-        <v>0.178</v>
+        <v>0.13</v>
       </c>
       <c r="H14" t="n">
-        <v>0.325</v>
+        <v>0.059</v>
       </c>
       <c r="I14" t="n">
-        <v>0.049</v>
+        <v>0.223</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -13834,37 +13798,40 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HOOK2</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPDL1</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3116209506988525</v>
+        <v>0.3294245600700378</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3228223919868469</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.081</v>
       </c>
       <c r="H15" t="n">
-        <v>0.364</v>
+        <v>0.157</v>
       </c>
       <c r="I15" t="n">
-        <v>0.021</v>
+        <v>0.202</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -13873,34 +13840,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2753007411956787</v>
+        <v>0.2224076837301254</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04063683748245239</v>
+        <v>0.03387527167797089</v>
       </c>
       <c r="G16" t="n">
-        <v>0.13</v>
+        <v>0.067</v>
       </c>
       <c r="H16" t="n">
-        <v>0.059</v>
+        <v>0.148</v>
       </c>
       <c r="I16" t="n">
-        <v>0.223</v>
+        <v>0.239</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -13915,37 +13882,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06985656917095184</v>
+        <v>-0.1175710409879684</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2017924338579178</v>
+        <v>-0.2571718692779541</v>
       </c>
       <c r="G17" t="n">
-        <v>0.249</v>
+        <v>0.041</v>
       </c>
       <c r="H17" t="n">
-        <v>0.158</v>
+        <v>-0.038</v>
       </c>
       <c r="I17" t="n">
-        <v>0.223</v>
+        <v>0.154</v>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -13962,29 +13929,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3294245600700378</v>
+        <v>0.2355031669139862</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3228223919868469</v>
+        <v>0.2686706185340881</v>
       </c>
       <c r="G18" t="n">
         <v>0.081</v>
       </c>
       <c r="H18" t="n">
-        <v>0.157</v>
+        <v>0.185</v>
       </c>
       <c r="I18" t="n">
-        <v>0.202</v>
+        <v>0.193</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -13999,34 +13966,34 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2224076837301254</v>
+        <v>-0.2462649643421173</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03387527167797089</v>
+        <v>-0.1276900470256805</v>
       </c>
       <c r="G19" t="n">
-        <v>0.067</v>
+        <v>0.159</v>
       </c>
       <c r="H19" t="n">
-        <v>0.148</v>
+        <v>0.295</v>
       </c>
       <c r="I19" t="n">
-        <v>0.239</v>
+        <v>0.213</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -14041,34 +14008,34 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1175710409879684</v>
+        <v>0.6812741756439209</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2571718692779541</v>
+        <v>0.2792439758777618</v>
       </c>
       <c r="G20" t="n">
-        <v>0.041</v>
+        <v>0.131</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.038</v>
+        <v>0.182</v>
       </c>
       <c r="I20" t="n">
-        <v>0.154</v>
+        <v>0.195</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -14083,7 +14050,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -14095,28 +14062,28 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2355031669139862</v>
+        <v>-0.1268642246723175</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2686706185340881</v>
+        <v>-0.06189344078302383</v>
       </c>
       <c r="G21" t="n">
-        <v>0.081</v>
+        <v>0.18</v>
       </c>
       <c r="H21" t="n">
-        <v>0.185</v>
+        <v>0.256</v>
       </c>
       <c r="I21" t="n">
-        <v>0.193</v>
+        <v>0.142</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -14125,34 +14092,34 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2462649643421173</v>
+        <v>-0.1939173638820648</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1276900470256805</v>
+        <v>-0.1034949570894241</v>
       </c>
       <c r="G22" t="n">
-        <v>0.159</v>
+        <v>0.095</v>
       </c>
       <c r="H22" t="n">
-        <v>0.295</v>
+        <v>0.233</v>
       </c>
       <c r="I22" t="n">
-        <v>0.213</v>
+        <v>0.279</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -14167,40 +14134,40 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>ECH1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>SARS2</t>
         </is>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6812741756439209</v>
+        <v>0.3769468069076538</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2792439758777618</v>
+        <v>0.1944777369499207</v>
       </c>
       <c r="G23" t="n">
-        <v>0.131</v>
+        <v>0.065</v>
       </c>
       <c r="H23" t="n">
-        <v>0.182</v>
+        <v>0.343</v>
       </c>
       <c r="I23" t="n">
-        <v>0.195</v>
+        <v>0.289</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -14209,34 +14176,34 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1268642246723175</v>
+        <v>0.3600203394889832</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.06189344078302383</v>
+        <v>-0.05776886641979218</v>
       </c>
       <c r="G24" t="n">
-        <v>0.18</v>
+        <v>-0.127</v>
       </c>
       <c r="H24" t="n">
-        <v>0.256</v>
+        <v>-0.018</v>
       </c>
       <c r="I24" t="n">
-        <v>0.142</v>
+        <v>-0.017</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -14251,34 +14218,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1939173638820648</v>
+        <v>0.4857894778251648</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.1034949570894241</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.095</v>
+        <v>0.114</v>
       </c>
       <c r="H25" t="n">
-        <v>0.233</v>
+        <v>-0.354</v>
       </c>
       <c r="I25" t="n">
-        <v>0.279</v>
+        <v>0.148</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -14293,34 +14257,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ECH1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SARS2</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3769468069076538</v>
+        <v>-0.4404551982879639</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1944777369499207</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.065</v>
+        <v>0.308</v>
       </c>
       <c r="H26" t="n">
-        <v>0.343</v>
+        <v>0.132</v>
       </c>
       <c r="I26" t="n">
-        <v>0.289</v>
+        <v>0.152</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -14335,34 +14296,31 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3600203394889832</v>
+        <v>0.3331061601638794</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-0.05776886641979218</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.127</v>
+        <v>0.205</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.018</v>
+        <v>-0.263</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.017</v>
+        <v>0.269</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -14377,31 +14335,31 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4857894778251648</v>
+        <v>0.3171176612377167</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.114</v>
+        <v>0.214</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.354</v>
+        <v>0.179</v>
       </c>
       <c r="I28" t="n">
-        <v>0.148</v>
+        <v>-0.034</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -14416,7 +14374,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -14428,19 +14386,19 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.4404551982879639</v>
+        <v>-0.4373143315315247</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.308</v>
+        <v>-0.003</v>
       </c>
       <c r="H29" t="n">
-        <v>0.132</v>
+        <v>0.386</v>
       </c>
       <c r="I29" t="n">
-        <v>0.152</v>
+        <v>0.34</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -14455,31 +14413,31 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3331061601638794</v>
+        <v>0.3442297875881195</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.205</v>
+        <v>-0.034</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.263</v>
+        <v>-0.371</v>
       </c>
       <c r="I30" t="n">
-        <v>0.269</v>
+        <v>0.144</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -14488,123 +14446,6 @@
         <v>0</v>
       </c>
       <c r="L30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>EML1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
-        </is>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.3171176612377167</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-0.034</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>EML1</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SPATA25</t>
-        </is>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-0.4373143315315247</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MGLL</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
-        </is>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.3442297875881195</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-0.034</v>
-      </c>
-      <c r="H33" t="n">
-        <v>-0.371</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" t="b">
         <v>0</v>
       </c>
     </row>

--- a/07.compute-cosine-similarities/output/connections.xlsx
+++ b/07.compute-cosine-similarities/output/connections.xlsx
@@ -523,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3046866357326508</v>
+        <v>-0.6272752285003662</v>
       </c>
       <c r="G2" t="n">
         <v>0.286</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02513244189321995</v>
+        <v>-0.04427877441048622</v>
       </c>
       <c r="G6" t="n">
         <v>-0.208</v>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1079897433519363</v>
+        <v>0.02267173305153847</v>
       </c>
       <c r="G13" t="n">
         <v>0.199</v>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.03663062676787376</v>
+        <v>0.2406194806098938</v>
       </c>
       <c r="G44" t="n">
         <v>0.881</v>
@@ -2164,10 +2164,7 @@
         <v>0.02776568941771984</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>-0.01074487715959549</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0.921</v>
@@ -2362,10 +2359,7 @@
         <v>-0.1588208675384521</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-0.2905512452125549</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0.675</v>
@@ -2380,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="b">
         <v>1</v>
@@ -2485,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.04063683748245239</v>
+        <v>0.4539501070976257</v>
       </c>
       <c r="G53" t="n">
         <v>0.13</v>
@@ -2527,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.06674164533615112</v>
+        <v>0.2417409867048264</v>
       </c>
       <c r="G54" t="n">
         <v>0.75</v>
@@ -2596,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.2017924338579178</v>
+        <v>0.1660967320203781</v>
       </c>
       <c r="G56" t="n">
         <v>0.249</v>
@@ -2638,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002410450018942356</v>
+        <v>-0.3172917664051056</v>
       </c>
       <c r="G57" t="n">
         <v>0.45</v>
@@ -2680,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1398089081048965</v>
+        <v>-0.5435563921928406</v>
       </c>
       <c r="G58" t="n">
         <v>0.408</v>
@@ -2722,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1809009313583374</v>
+        <v>0.6439564228057861</v>
       </c>
       <c r="G59" t="n">
         <v>0.237</v>
@@ -2737,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -2764,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4198078215122223</v>
+        <v>0.5481634140014648</v>
       </c>
       <c r="G60" t="n">
         <v>0.178</v>
@@ -2779,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="b">
         <v>1</v>
@@ -2833,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3228223919868469</v>
+        <v>0.5430105328559875</v>
       </c>
       <c r="G62" t="n">
         <v>0.081</v>
@@ -2848,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -2875,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.03387527167797089</v>
+        <v>-0.09617388993501663</v>
       </c>
       <c r="G63" t="n">
         <v>0.067</v>
@@ -2917,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2571718692779541</v>
+        <v>-0.727069616317749</v>
       </c>
       <c r="G64" t="n">
         <v>0.041</v>
@@ -2959,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2686706185340881</v>
+        <v>0.4141711890697479</v>
       </c>
       <c r="G65" t="n">
         <v>0.081</v>
@@ -2974,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="b">
         <v>0</v>
@@ -3028,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3144550323486328</v>
+        <v>0.4867472946643829</v>
       </c>
       <c r="G67" t="n">
         <v>0.651</v>
@@ -3043,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="b">
         <v>1</v>
@@ -3070,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.1211689487099648</v>
+        <v>-0.1971738636493683</v>
       </c>
       <c r="G68" t="n">
         <v>0.406</v>
@@ -3112,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.002554069273173809</v>
+        <v>-0.4644999206066132</v>
       </c>
       <c r="G69" t="n">
         <v>0.226</v>
@@ -3154,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3196924030780792</v>
+        <v>0.5489774942398071</v>
       </c>
       <c r="G70" t="n">
         <v>0.268</v>
@@ -3169,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="b">
         <v>1</v>
@@ -3304,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.06129137799143791</v>
+        <v>-0.002157125389203429</v>
       </c>
       <c r="G75" t="n">
         <v>0.169</v>
@@ -3346,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1276900470256805</v>
+        <v>-0.6040228009223938</v>
       </c>
       <c r="G76" t="n">
         <v>0.159</v>
@@ -3361,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
@@ -3388,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2792439758777618</v>
+        <v>0.291055828332901</v>
       </c>
       <c r="G77" t="n">
         <v>0.131</v>
@@ -3403,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
@@ -3430,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.07140035182237625</v>
+        <v>0.2308343946933746</v>
       </c>
       <c r="G78" t="n">
         <v>0.08400000000000001</v>
@@ -3472,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.06189344078302383</v>
+        <v>-0.2708669900894165</v>
       </c>
       <c r="G79" t="n">
         <v>0.18</v>
@@ -3514,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.1034949570894241</v>
+        <v>-0.4082302153110504</v>
       </c>
       <c r="G80" t="n">
         <v>0.095</v>
@@ -3556,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1944777369499207</v>
+        <v>0.4560859799385071</v>
       </c>
       <c r="G81" t="n">
         <v>0.065</v>
@@ -3598,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1041402593255043</v>
+        <v>0.1383438408374786</v>
       </c>
       <c r="G82" t="n">
         <v>0.091</v>
@@ -3640,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1824645698070526</v>
+        <v>0.3618990480899811</v>
       </c>
       <c r="G83" t="n">
         <v>-0.285</v>
@@ -3679,10 +3673,7 @@
         <v>0.4146685898303986</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.1684471964836121</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0.198</v>
@@ -3724,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1210622191429138</v>
+        <v>0.5053442716598511</v>
       </c>
       <c r="G85" t="n">
         <v>-0.118</v>
@@ -3805,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.1260750442743301</v>
+        <v>-0.1004355326294899</v>
       </c>
       <c r="G87" t="n">
         <v>-0.387</v>
@@ -3844,7 +3835,10 @@
         <v>0.4080018103122711</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.574792206287384</v>
       </c>
       <c r="G88" t="n">
         <v>-0.131</v>
@@ -3922,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1264067143201828</v>
+        <v>0.4130077958106995</v>
       </c>
       <c r="G90" t="n">
         <v>0.015</v>
@@ -3991,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01722865924239159</v>
+        <v>0.09170612692832947</v>
       </c>
       <c r="G92" t="n">
         <v>-0.049</v>
@@ -4069,10 +4063,7 @@
         <v>0.2352298200130463</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-0.00465029152110219</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0.571</v>
@@ -4150,10 +4141,7 @@
         <v>0.1569772958755493</v>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-0.1285382062196732</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0.739</v>
@@ -4267,10 +4255,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-0.05202555656433105</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>0.103</v>
@@ -4336,10 +4321,7 @@
         <v>0.3600203394889832</v>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-0.05776886641979218</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>-0.127</v>
@@ -4459,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.1121061071753502</v>
+        <v>-0.1093122512102127</v>
       </c>
       <c r="G104" t="n">
         <v>0.501</v>
@@ -4498,7 +4480,10 @@
         <v>0.3692989349365234</v>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.6117900013923645</v>
       </c>
       <c r="G105" t="n">
         <v>0.741</v>
@@ -4513,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="K105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" t="b">
         <v>1</v>
@@ -4576,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1236758530139923</v>
+        <v>0.4438711404800415</v>
       </c>
       <c r="G107" t="n">
         <v>0.149</v>
@@ -4645,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2773579359054565</v>
+        <v>0.1224238350987434</v>
       </c>
       <c r="G109" t="n">
         <v>-0.127</v>
@@ -4660,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="K109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" t="b">
         <v>1</v>
@@ -4972,7 +4957,10 @@
         <v>0.3715893030166626</v>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.03519836813211441</v>
       </c>
       <c r="G118" t="n">
         <v>-0.514</v>
@@ -5050,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1286560446023941</v>
+        <v>0.2314169555902481</v>
       </c>
       <c r="G120" t="n">
         <v>-0.441</v>
@@ -5119,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.254977285861969</v>
+        <v>-0.3378044962882996</v>
       </c>
       <c r="G122" t="n">
         <v>0.621</v>
@@ -5134,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="K122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" t="b">
         <v>1</v>
@@ -5233,7 +5221,10 @@
         <v>0</v>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.5483492016792297</v>
       </c>
       <c r="J125" t="b">
         <v>0</v>
@@ -5290,7 +5281,10 @@
         <v>0.3442297875881195</v>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.3319037258625031</v>
       </c>
       <c r="G127" t="n">
         <v>-0.034</v>
@@ -5527,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.05552582815289497</v>
+        <v>-0.2410959601402283</v>
       </c>
       <c r="G134" t="n">
         <v>-0.05</v>
@@ -5683,10 +5677,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>-0.2064711004495621</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>0.611</v>
@@ -5718,7 +5709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5809,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3046866357326508</v>
+        <v>-0.6272752285003662</v>
       </c>
       <c r="G2" t="n">
         <v>0.286</v>
@@ -5968,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02513244189321995</v>
+        <v>-0.04427877441048622</v>
       </c>
       <c r="G6" t="n">
         <v>-0.208</v>
@@ -6157,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1079897433519363</v>
+        <v>0.02267173305153847</v>
       </c>
       <c r="G11" t="n">
         <v>0.199</v>
@@ -7183,10 +7174,7 @@
         <v>-0.1588208675384521</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-0.2905512452125549</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0.675</v>
@@ -7201,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -7306,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04063683748245239</v>
+        <v>0.4539501070976257</v>
       </c>
       <c r="G41" t="n">
         <v>0.13</v>
@@ -7348,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1398089081048965</v>
+        <v>-0.5435563921928406</v>
       </c>
       <c r="G42" t="n">
         <v>0.408</v>
@@ -7372,43 +7360,43 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3199597299098969</v>
+        <v>0.1085278689861298</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4198078215122223</v>
+        <v>0.6439564228057861</v>
       </c>
       <c r="G43" t="n">
-        <v>0.178</v>
+        <v>0.237</v>
       </c>
       <c r="H43" t="n">
-        <v>0.329</v>
+        <v>0.263</v>
       </c>
       <c r="I43" t="n">
-        <v>0.433</v>
+        <v>0.369</v>
       </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
       </c>
       <c r="L43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7419,38 +7407,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3294245600700378</v>
+        <v>0.3199597299098969</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3228223919868469</v>
+        <v>0.5481634140014648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.081</v>
+        <v>0.178</v>
       </c>
       <c r="H44" t="n">
-        <v>0.157</v>
+        <v>0.329</v>
       </c>
       <c r="I44" t="n">
-        <v>0.202</v>
+        <v>0.433</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -7461,29 +7449,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2224076837301254</v>
+        <v>0.3294245600700378</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03387527167797089</v>
+        <v>0.5430105328559875</v>
       </c>
       <c r="G45" t="n">
-        <v>0.067</v>
+        <v>0.081</v>
       </c>
       <c r="H45" t="n">
-        <v>0.148</v>
+        <v>0.157</v>
       </c>
       <c r="I45" t="n">
-        <v>0.239</v>
+        <v>0.202</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
@@ -7503,35 +7491,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1175710409879684</v>
+        <v>0.2224076837301254</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.2571718692779541</v>
+        <v>-0.09617388993501663</v>
       </c>
       <c r="G46" t="n">
-        <v>0.041</v>
+        <v>0.067</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.038</v>
+        <v>0.148</v>
       </c>
       <c r="I46" t="n">
-        <v>0.154</v>
+        <v>0.239</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -7545,29 +7533,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2355031669139862</v>
+        <v>-0.1175710409879684</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2686706185340881</v>
+        <v>-0.727069616317749</v>
       </c>
       <c r="G47" t="n">
-        <v>0.081</v>
+        <v>0.041</v>
       </c>
       <c r="H47" t="n">
-        <v>0.185</v>
+        <v>-0.038</v>
       </c>
       <c r="I47" t="n">
-        <v>0.193</v>
+        <v>0.154</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
@@ -7582,43 +7570,43 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6893683075904846</v>
+        <v>0.2355031669139862</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3144550323486328</v>
+        <v>0.4141711890697479</v>
       </c>
       <c r="G48" t="n">
-        <v>0.651</v>
+        <v>0.081</v>
       </c>
       <c r="H48" t="n">
-        <v>0.364</v>
+        <v>0.185</v>
       </c>
       <c r="I48" t="n">
-        <v>0.738</v>
+        <v>0.193</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
       <c r="K48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -7629,29 +7617,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1496582627296448</v>
+        <v>0.6893683075904846</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.002554069273173809</v>
+        <v>0.4867472946643829</v>
       </c>
       <c r="G49" t="n">
-        <v>0.226</v>
+        <v>0.651</v>
       </c>
       <c r="H49" t="n">
-        <v>0.26</v>
+        <v>0.364</v>
       </c>
       <c r="I49" t="n">
-        <v>0.594</v>
+        <v>0.738</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
@@ -7671,35 +7659,35 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4785754680633545</v>
+        <v>-0.1496582627296448</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3196924030780792</v>
+        <v>-0.4644999206066132</v>
       </c>
       <c r="G50" t="n">
-        <v>0.268</v>
+        <v>0.226</v>
       </c>
       <c r="H50" t="n">
-        <v>0.079</v>
+        <v>0.26</v>
       </c>
       <c r="I50" t="n">
-        <v>0.442</v>
+        <v>0.594</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
       </c>
       <c r="K50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="b">
         <v>1</v>
@@ -7708,34 +7696,34 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2462649643421173</v>
+        <v>0.4785754680633545</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.1276900470256805</v>
+        <v>0.5489774942398071</v>
       </c>
       <c r="G51" t="n">
-        <v>0.159</v>
+        <v>0.268</v>
       </c>
       <c r="H51" t="n">
-        <v>0.295</v>
+        <v>0.079</v>
       </c>
       <c r="I51" t="n">
-        <v>0.213</v>
+        <v>0.442</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
@@ -7744,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -7755,29 +7743,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6812741756439209</v>
+        <v>-0.2462649643421173</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2792439758777618</v>
+        <v>-0.6040228009223938</v>
       </c>
       <c r="G52" t="n">
-        <v>0.131</v>
+        <v>0.159</v>
       </c>
       <c r="H52" t="n">
-        <v>0.182</v>
+        <v>0.295</v>
       </c>
       <c r="I52" t="n">
-        <v>0.195</v>
+        <v>0.213</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
@@ -7792,7 +7780,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7804,22 +7792,22 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1268642246723175</v>
+        <v>0.6812741756439209</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.06189344078302383</v>
+        <v>0.291055828332901</v>
       </c>
       <c r="G53" t="n">
-        <v>0.18</v>
+        <v>0.131</v>
       </c>
       <c r="H53" t="n">
-        <v>0.256</v>
+        <v>0.182</v>
       </c>
       <c r="I53" t="n">
-        <v>0.142</v>
+        <v>0.195</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
@@ -7834,7 +7822,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7846,22 +7834,22 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.1939173638820648</v>
+        <v>-0.1268642246723175</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.1034949570894241</v>
+        <v>-0.2708669900894165</v>
       </c>
       <c r="G54" t="n">
-        <v>0.095</v>
+        <v>0.18</v>
       </c>
       <c r="H54" t="n">
-        <v>0.233</v>
+        <v>0.256</v>
       </c>
       <c r="I54" t="n">
-        <v>0.279</v>
+        <v>0.142</v>
       </c>
       <c r="J54" t="b">
         <v>1</v>
@@ -7876,34 +7864,34 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ECH1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SARS2</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3769468069076538</v>
+        <v>-0.1939173638820648</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1944777369499207</v>
+        <v>-0.4082302153110504</v>
       </c>
       <c r="G55" t="n">
-        <v>0.065</v>
+        <v>0.095</v>
       </c>
       <c r="H55" t="n">
-        <v>0.343</v>
+        <v>0.233</v>
       </c>
       <c r="I55" t="n">
-        <v>0.289</v>
+        <v>0.279</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
@@ -7923,29 +7911,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>UQCRFS1</t>
+          <t>SARS2</t>
         </is>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6323718428611755</v>
+        <v>0.3769468069076538</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1041402593255043</v>
+        <v>0.4560859799385071</v>
       </c>
       <c r="G56" t="n">
-        <v>0.091</v>
+        <v>0.065</v>
       </c>
       <c r="H56" t="n">
-        <v>0.413</v>
+        <v>0.343</v>
       </c>
       <c r="I56" t="n">
-        <v>0.446</v>
+        <v>0.289</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
@@ -7954,13 +7942,13 @@
         <v>0</v>
       </c>
       <c r="L56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SARS2</t>
+          <t>ECH1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -7972,22 +7960,22 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4872098863124847</v>
+        <v>0.6323718428611755</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1824645698070526</v>
+        <v>0.1383438408374786</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.285</v>
+        <v>0.091</v>
       </c>
       <c r="H57" t="n">
-        <v>0.458</v>
+        <v>0.413</v>
       </c>
       <c r="I57" t="n">
-        <v>0.638</v>
+        <v>0.446</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
@@ -8002,34 +7990,34 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>SARS2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>UQCRFS1</t>
         </is>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4146685898303986</v>
+        <v>0.4872098863124847</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1684471964836121</v>
+        <v>0.3618990480899811</v>
       </c>
       <c r="G58" t="n">
-        <v>0.198</v>
+        <v>-0.285</v>
       </c>
       <c r="H58" t="n">
-        <v>0.386</v>
+        <v>0.458</v>
       </c>
       <c r="I58" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.638</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
@@ -8049,29 +8037,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4279057383537292</v>
+        <v>0.4146685898303986</v>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.1210622191429138</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.118</v>
+        <v>0.198</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.251</v>
+        <v>0.386</v>
       </c>
       <c r="I59" t="n">
-        <v>0.575</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="J59" t="b">
         <v>1</v>
@@ -8091,26 +8076,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4088920950889587</v>
+        <v>0.4279057383537292</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.5053442716598511</v>
       </c>
       <c r="G60" t="n">
-        <v>0.417</v>
+        <v>-0.118</v>
       </c>
       <c r="H60" t="n">
-        <v>0.096</v>
+        <v>-0.251</v>
       </c>
       <c r="I60" t="n">
-        <v>0.354</v>
+        <v>0.575</v>
       </c>
       <c r="J60" t="b">
         <v>1</v>
@@ -8130,29 +8118,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3320356905460358</v>
+        <v>0.4088920950889587</v>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-0.1260750442743301</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.387</v>
+        <v>0.417</v>
       </c>
       <c r="H61" t="n">
-        <v>0.703</v>
+        <v>0.096</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.092</v>
+        <v>0.354</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
@@ -8172,26 +8157,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4080018103122711</v>
+        <v>0.3320356905460358</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.1004355326294899</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.131</v>
+        <v>-0.387</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.455</v>
+        <v>0.703</v>
       </c>
       <c r="I62" t="n">
-        <v>0.146</v>
+        <v>-0.092</v>
       </c>
       <c r="J62" t="b">
         <v>1</v>
@@ -8211,29 +8199,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5452359914779663</v>
+        <v>0.4080018103122711</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01722865924239159</v>
+        <v>-0.574792206287384</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.049</v>
+        <v>-0.131</v>
       </c>
       <c r="H63" t="n">
-        <v>0.233</v>
+        <v>-0.455</v>
       </c>
       <c r="I63" t="n">
-        <v>0.759</v>
+        <v>0.146</v>
       </c>
       <c r="J63" t="b">
         <v>1</v>
@@ -8253,26 +8241,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.5460453629493713</v>
+        <v>0.5452359914779663</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.09170612692832947</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03</v>
+        <v>-0.049</v>
       </c>
       <c r="H64" t="n">
-        <v>0.475</v>
+        <v>0.233</v>
       </c>
       <c r="I64" t="n">
-        <v>0.429</v>
+        <v>0.759</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
@@ -8287,34 +8278,31 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2352298200130463</v>
+        <v>-0.5460453629493713</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-0.00465029152110219</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.571</v>
+        <v>0.03</v>
       </c>
       <c r="H65" t="n">
-        <v>0.672</v>
+        <v>0.475</v>
       </c>
       <c r="I65" t="n">
-        <v>0.029</v>
+        <v>0.429</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
@@ -8334,26 +8322,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1907656490802765</v>
+        <v>0.2352298200130463</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.511</v>
+        <v>0.571</v>
       </c>
       <c r="H66" t="n">
-        <v>0.081</v>
+        <v>0.672</v>
       </c>
       <c r="I66" t="n">
-        <v>0.272</v>
+        <v>0.029</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
@@ -8373,29 +8361,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1569772958755493</v>
+        <v>0.1907656490802765</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-0.1285382062196732</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.739</v>
+        <v>0.511</v>
       </c>
       <c r="H67" t="n">
-        <v>0.199</v>
+        <v>0.081</v>
       </c>
       <c r="I67" t="n">
-        <v>0.905</v>
+        <v>0.272</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
@@ -8415,26 +8400,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2658340930938721</v>
+        <v>0.1569772958755493</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.554</v>
+        <v>0.739</v>
       </c>
       <c r="H68" t="n">
-        <v>0.385</v>
+        <v>0.199</v>
       </c>
       <c r="I68" t="n">
-        <v>0.577</v>
+        <v>0.905</v>
       </c>
       <c r="J68" t="b">
         <v>1</v>
@@ -8454,29 +8439,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3600203394889832</v>
+        <v>0.2658340930938721</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-0.05776886641979218</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.127</v>
+        <v>0.554</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.018</v>
+        <v>0.385</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.017</v>
+        <v>0.577</v>
       </c>
       <c r="J69" t="b">
         <v>1</v>
@@ -8485,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -8496,26 +8478,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.4248228967189789</v>
+        <v>0.3600203394889832</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.371</v>
+        <v>-0.127</v>
       </c>
       <c r="H70" t="n">
-        <v>0.366</v>
+        <v>-0.018</v>
       </c>
       <c r="I70" t="n">
-        <v>0.521</v>
+        <v>-0.017</v>
       </c>
       <c r="J70" t="b">
         <v>1</v>
@@ -8524,37 +8506,37 @@
         <v>0</v>
       </c>
       <c r="L70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4857894778251648</v>
+        <v>-0.4248228967189789</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.114</v>
+        <v>0.371</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.354</v>
+        <v>0.366</v>
       </c>
       <c r="I71" t="n">
-        <v>0.148</v>
+        <v>0.521</v>
       </c>
       <c r="J71" t="b">
         <v>1</v>
@@ -8563,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -8574,29 +8556,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4437235295772552</v>
+        <v>0.4857894778251648</v>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-0.1121061071753502</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.501</v>
+        <v>0.114</v>
       </c>
       <c r="H72" t="n">
-        <v>0.416</v>
+        <v>-0.354</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.051</v>
+        <v>0.148</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
@@ -8605,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -8616,26 +8595,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3692989349365234</v>
+        <v>0.4437235295772552</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.1093122512102127</v>
       </c>
       <c r="G73" t="n">
-        <v>0.741</v>
+        <v>0.501</v>
       </c>
       <c r="H73" t="n">
-        <v>0.877</v>
+        <v>0.416</v>
       </c>
       <c r="I73" t="n">
-        <v>0.343</v>
+        <v>-0.051</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
@@ -8655,29 +8637,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3811587989330292</v>
+        <v>0.3692989349365234</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2773579359054565</v>
+        <v>-0.6117900013923645</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.127</v>
+        <v>0.741</v>
       </c>
       <c r="H74" t="n">
-        <v>0.221</v>
+        <v>0.877</v>
       </c>
       <c r="I74" t="n">
-        <v>0.484</v>
+        <v>0.343</v>
       </c>
       <c r="J74" t="b">
         <v>1</v>
@@ -8697,26 +8679,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4404551982879639</v>
+        <v>0.3811587989330292</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.1224238350987434</v>
       </c>
       <c r="G75" t="n">
-        <v>0.308</v>
+        <v>-0.127</v>
       </c>
       <c r="H75" t="n">
-        <v>0.132</v>
+        <v>0.221</v>
       </c>
       <c r="I75" t="n">
-        <v>0.152</v>
+        <v>0.484</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
@@ -8725,37 +8710,37 @@
         <v>0</v>
       </c>
       <c r="L75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3761255145072937</v>
+        <v>-0.4404551982879639</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.118</v>
+        <v>0.308</v>
       </c>
       <c r="H76" t="n">
-        <v>0.266</v>
+        <v>0.132</v>
       </c>
       <c r="I76" t="n">
-        <v>0.404</v>
+        <v>0.152</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
@@ -8764,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -8775,26 +8760,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3331061601638794</v>
+        <v>0.3761255145072937</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.205</v>
+        <v>0.118</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.263</v>
+        <v>0.266</v>
       </c>
       <c r="I77" t="n">
-        <v>0.269</v>
+        <v>0.404</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
@@ -8803,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -8814,26 +8799,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3171176612377167</v>
+        <v>0.3331061601638794</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.214</v>
+        <v>0.205</v>
       </c>
       <c r="H78" t="n">
-        <v>0.179</v>
+        <v>-0.263</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.034</v>
+        <v>0.269</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
@@ -8853,26 +8838,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4373143315315247</v>
+        <v>0.3171176612377167</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.003</v>
+        <v>0.214</v>
       </c>
       <c r="H79" t="n">
-        <v>0.386</v>
+        <v>0.179</v>
       </c>
       <c r="I79" t="n">
-        <v>0.34</v>
+        <v>-0.034</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
@@ -8887,31 +8872,31 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3715893030166626</v>
+        <v>-0.4373143315315247</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.514</v>
+        <v>-0.003</v>
       </c>
       <c r="H80" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.386</v>
       </c>
       <c r="I80" t="n">
-        <v>0.497</v>
+        <v>0.34</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
@@ -8920,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -8931,35 +8916,35 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3289414346218109</v>
+        <v>0.3715893030166626</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.254977285861969</v>
+        <v>-0.03519836813211441</v>
       </c>
       <c r="G81" t="n">
-        <v>0.621</v>
+        <v>-0.514</v>
       </c>
       <c r="H81" t="n">
-        <v>0.657</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.401</v>
+        <v>0.497</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="b">
         <v>1</v>
@@ -8973,26 +8958,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.3514839112758636</v>
+        <v>0.3289414346218109</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.3378044962882996</v>
       </c>
       <c r="G82" t="n">
-        <v>0.436</v>
+        <v>0.621</v>
       </c>
       <c r="H82" t="n">
-        <v>0.679</v>
+        <v>0.657</v>
       </c>
       <c r="I82" t="n">
-        <v>0.644</v>
+        <v>-0.401</v>
       </c>
       <c r="J82" t="b">
         <v>1</v>
@@ -9007,31 +8995,31 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3442297875881195</v>
+        <v>-0.3514839112758636</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.034</v>
+        <v>0.436</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.371</v>
+        <v>0.679</v>
       </c>
       <c r="I83" t="n">
-        <v>0.144</v>
+        <v>0.644</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
@@ -9040,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -9051,26 +9039,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.4485647678375244</v>
+        <v>0.3442297875881195</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.3319037258625031</v>
       </c>
       <c r="G84" t="n">
-        <v>0.267</v>
+        <v>-0.034</v>
       </c>
       <c r="H84" t="n">
-        <v>0.201</v>
+        <v>-0.371</v>
       </c>
       <c r="I84" t="n">
-        <v>0.458</v>
+        <v>0.144</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
@@ -9079,45 +9070,84 @@
         <v>0</v>
       </c>
       <c r="L84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>MGLL</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SPATA25</t>
+        </is>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.4485647678375244</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>SLC39A1</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>SPATA25</t>
         </is>
       </c>
-      <c r="C85" t="b">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
         <v>-0.4549693763256073</v>
       </c>
-      <c r="E85" t="b">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.033</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H86" t="n">
         <v>0.191</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I86" t="n">
         <v>0.535</v>
       </c>
-      <c r="J85" t="b">
-        <v>1</v>
-      </c>
-      <c r="K85" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" t="b">
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9132,7 +9162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9565,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03663062676787376</v>
+        <v>0.2406194806098938</v>
       </c>
       <c r="G11" t="n">
         <v>0.881</v>
@@ -9604,10 +9634,7 @@
         <v>0.02776568941771984</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.01074487715959549</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0.921</v>
@@ -9688,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.06674164533615112</v>
+        <v>0.2417409867048264</v>
       </c>
       <c r="G14" t="n">
         <v>0.75</v>
@@ -9757,7 +9784,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2017924338579178</v>
+        <v>0.1660967320203781</v>
       </c>
       <c r="G16" t="n">
         <v>0.249</v>
@@ -9799,7 +9826,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002410450018942356</v>
+        <v>-0.3172917664051056</v>
       </c>
       <c r="G17" t="n">
         <v>0.45</v>
@@ -9823,34 +9850,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.1085278689861298</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.1809009313583374</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -9865,7 +9877,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -9897,14 +9909,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1056016236543655</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.1971738636493683</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.506</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -9913,40 +9940,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.1056016236543655</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.1211689487099648</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.506</v>
+        <v>0</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -9955,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -9966,7 +9978,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -9993,7 +10005,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -10020,7 +10032,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -10042,19 +10054,34 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.01953976601362228</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.002157125389203429</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.121</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -10069,34 +10096,34 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01953976601362228</v>
+        <v>0.1003172844648361</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06129137799143791</v>
+        <v>0.2308343946933746</v>
       </c>
       <c r="G26" t="n">
-        <v>0.169</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.159</v>
+        <v>0.063</v>
       </c>
       <c r="I26" t="n">
-        <v>0.121</v>
+        <v>0.229</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -10111,34 +10138,31 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1003172844648361</v>
+        <v>0.09519796073436737</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-0.07140035182237625</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.165</v>
       </c>
       <c r="H27" t="n">
-        <v>0.063</v>
+        <v>0.348</v>
       </c>
       <c r="I27" t="n">
-        <v>0.229</v>
+        <v>0.517</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -10147,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -10158,26 +10182,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.09519796073436737</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.4130077958106995</v>
       </c>
       <c r="G28" t="n">
-        <v>0.165</v>
+        <v>0.015</v>
       </c>
       <c r="H28" t="n">
-        <v>0.348</v>
+        <v>-0.185</v>
       </c>
       <c r="I28" t="n">
-        <v>0.517</v>
+        <v>0.257</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -10186,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -10197,26 +10221,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.1264067143201828</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-0.185</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.257</v>
+        <v>0</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -10231,20 +10243,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1150323301553726</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.654</v>
+      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -10252,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -10263,26 +10287,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1150323301553726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.335</v>
+        <v>0.103</v>
       </c>
       <c r="H31" t="n">
-        <v>0.736</v>
+        <v>-0.047</v>
       </c>
       <c r="I31" t="n">
-        <v>0.654</v>
+        <v>0.159</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -10291,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -10302,26 +10323,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-0.05202555656433105</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="H32" t="n">
-        <v>-0.047</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.159</v>
+        <v>0</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -10336,20 +10345,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.01608749851584435</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.27</v>
+      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -10357,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -10368,23 +10389,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.01608749851584435</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.4438711404800415</v>
       </c>
       <c r="G34" t="n">
-        <v>0.422</v>
+        <v>0.149</v>
       </c>
       <c r="H34" t="n">
-        <v>0.228</v>
+        <v>0.187</v>
       </c>
       <c r="I34" t="n">
         <v>0.27</v>
@@ -10396,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -10407,26 +10428,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.1236758530139923</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.187</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -10441,19 +10450,31 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.006146743893623352</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.246</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -10473,26 +10494,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-0.006146743893623352</v>
+        <v>0</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.246</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -10512,7 +10521,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -10534,20 +10543,32 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01836800947785378</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.525</v>
+      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
@@ -10555,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -10566,26 +10587,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.01836800947785378</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2314169555902481</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01</v>
+        <v>-0.441</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.33</v>
+        <v>0.213</v>
       </c>
       <c r="I40" t="n">
-        <v>0.525</v>
+        <v>0.275</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -10605,26 +10626,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1286560446023941</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0.441</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.213</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -10633,25 +10642,37 @@
         <v>0</v>
       </c>
       <c r="L41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.03140806779265404</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.056</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.317</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
@@ -10671,26 +10692,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.03140806779265404</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-0.056</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.317</v>
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.5483492016792297</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
@@ -10710,7 +10722,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -10732,12 +10744,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -10764,7 +10776,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -10791,15 +10803,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.09152784943580627</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
+      <c r="G47" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.405</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.043</v>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -10807,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -10818,26 +10842,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09152784943580627</v>
+        <v>-0.0664646178483963</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.14</v>
+        <v>0.273</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.405</v>
+        <v>0.18</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.043</v>
+        <v>0.273</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -10846,37 +10870,25 @@
         <v>0</v>
       </c>
       <c r="L48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-0.0664646178483963</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.273</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -10896,14 +10908,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.2410959601402283</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.151</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -10923,26 +10947,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-0.05552582815289497</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.151</v>
+        <v>0</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
@@ -10957,12 +10969,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -10989,7 +11001,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -11011,12 +11023,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>FOXO3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>TGFB1</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -11025,6 +11037,15 @@
       <c r="E54" t="b">
         <v>0</v>
       </c>
+      <c r="G54" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.64</v>
+      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
@@ -11032,45 +11053,6 @@
         <v>0</v>
       </c>
       <c r="L54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>FOXO3</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>TGFB1</t>
-        </is>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-0.2064711004495621</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J55" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11176,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3046866357326508</v>
+        <v>-0.6272752285003662</v>
       </c>
       <c r="G2" t="n">
         <v>0.286</v>
@@ -11956,10 +11938,7 @@
         <v>-0.1588208675384521</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.2905512452125549</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0.675</v>
@@ -11974,7 +11953,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -12079,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1398089081048965</v>
+        <v>-0.5435563921928406</v>
       </c>
       <c r="G25" t="n">
         <v>0.408</v>
@@ -12121,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4198078215122223</v>
+        <v>0.5481634140014648</v>
       </c>
       <c r="G26" t="n">
         <v>0.178</v>
@@ -12136,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -12163,7 +12142,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3144550323486328</v>
+        <v>0.4867472946643829</v>
       </c>
       <c r="G27" t="n">
         <v>0.651</v>
@@ -12178,7 +12157,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
@@ -12205,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.002554069273173809</v>
+        <v>-0.4644999206066132</v>
       </c>
       <c r="G28" t="n">
         <v>0.226</v>
@@ -12247,7 +12226,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3196924030780792</v>
+        <v>0.5489774942398071</v>
       </c>
       <c r="G29" t="n">
         <v>0.268</v>
@@ -12262,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
@@ -12289,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1041402593255043</v>
+        <v>0.1383438408374786</v>
       </c>
       <c r="G30" t="n">
         <v>0.091</v>
@@ -12331,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1824645698070526</v>
+        <v>0.3618990480899811</v>
       </c>
       <c r="G31" t="n">
         <v>-0.285</v>
@@ -12370,10 +12349,7 @@
         <v>0.4146685898303986</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.1684471964836121</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0.198</v>
@@ -12415,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1210622191429138</v>
+        <v>0.5053442716598511</v>
       </c>
       <c r="G33" t="n">
         <v>-0.118</v>
@@ -12496,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1260750442743301</v>
+        <v>-0.1004355326294899</v>
       </c>
       <c r="G35" t="n">
         <v>-0.387</v>
@@ -12535,7 +12511,10 @@
         <v>0.4080018103122711</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.574792206287384</v>
       </c>
       <c r="G36" t="n">
         <v>-0.131</v>
@@ -12577,7 +12556,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01722865924239159</v>
+        <v>0.09170612692832947</v>
       </c>
       <c r="G37" t="n">
         <v>-0.049</v>
@@ -12655,10 +12634,7 @@
         <v>0.2352298200130463</v>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>-0.00465029152110219</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0.571</v>
@@ -12736,10 +12712,7 @@
         <v>0.1569772958755493</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-0.1285382062196732</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0.739</v>
@@ -12859,7 +12832,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1121061071753502</v>
+        <v>-0.1093122512102127</v>
       </c>
       <c r="G44" t="n">
         <v>0.501</v>
@@ -12898,7 +12871,10 @@
         <v>0.3692989349365234</v>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.6117900013923645</v>
       </c>
       <c r="G45" t="n">
         <v>0.741</v>
@@ -12913,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
@@ -12940,7 +12916,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2773579359054565</v>
+        <v>0.1224238350987434</v>
       </c>
       <c r="G46" t="n">
         <v>-0.127</v>
@@ -12955,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -13018,7 +12994,10 @@
         <v>0.3715893030166626</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.03519836813211441</v>
       </c>
       <c r="G48" t="n">
         <v>-0.514</v>
@@ -13060,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.254977285861969</v>
+        <v>-0.3378044962882996</v>
       </c>
       <c r="G49" t="n">
         <v>0.621</v>
@@ -13075,7 +13054,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="b">
         <v>1</v>
@@ -13209,7 +13188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13417,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02513244189321995</v>
+        <v>-0.04427877441048622</v>
       </c>
       <c r="G5" t="n">
         <v>-0.208</v>
@@ -13576,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1079897433519363</v>
+        <v>0.02267173305153847</v>
       </c>
       <c r="G9" t="n">
         <v>0.199</v>
@@ -13774,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04063683748245239</v>
+        <v>0.4539501070976257</v>
       </c>
       <c r="G14" t="n">
         <v>0.13</v>
@@ -13798,37 +13777,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3294245600700378</v>
+        <v>0.1085278689861298</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3228223919868469</v>
+        <v>0.6439564228057861</v>
       </c>
       <c r="G15" t="n">
-        <v>0.081</v>
+        <v>0.237</v>
       </c>
       <c r="H15" t="n">
-        <v>0.157</v>
+        <v>0.263</v>
       </c>
       <c r="I15" t="n">
-        <v>0.202</v>
+        <v>0.369</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -13845,29 +13824,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2224076837301254</v>
+        <v>0.3294245600700378</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03387527167797089</v>
+        <v>0.5430105328559875</v>
       </c>
       <c r="G16" t="n">
-        <v>0.067</v>
+        <v>0.081</v>
       </c>
       <c r="H16" t="n">
-        <v>0.148</v>
+        <v>0.157</v>
       </c>
       <c r="I16" t="n">
-        <v>0.239</v>
+        <v>0.202</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -13887,35 +13866,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1175710409879684</v>
+        <v>0.2224076837301254</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2571718692779541</v>
+        <v>-0.09617388993501663</v>
       </c>
       <c r="G17" t="n">
-        <v>0.041</v>
+        <v>0.067</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.038</v>
+        <v>0.148</v>
       </c>
       <c r="I17" t="n">
-        <v>0.154</v>
+        <v>0.239</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -13929,29 +13908,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2355031669139862</v>
+        <v>-0.1175710409879684</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2686706185340881</v>
+        <v>-0.727069616317749</v>
       </c>
       <c r="G18" t="n">
-        <v>0.081</v>
+        <v>0.041</v>
       </c>
       <c r="H18" t="n">
-        <v>0.185</v>
+        <v>-0.038</v>
       </c>
       <c r="I18" t="n">
-        <v>0.193</v>
+        <v>0.154</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -13966,34 +13945,34 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2462649643421173</v>
+        <v>0.2355031669139862</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1276900470256805</v>
+        <v>0.4141711890697479</v>
       </c>
       <c r="G19" t="n">
-        <v>0.159</v>
+        <v>0.081</v>
       </c>
       <c r="H19" t="n">
-        <v>0.295</v>
+        <v>0.185</v>
       </c>
       <c r="I19" t="n">
-        <v>0.213</v>
+        <v>0.193</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -14013,29 +13992,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6812741756439209</v>
+        <v>-0.2462649643421173</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2792439758777618</v>
+        <v>-0.6040228009223938</v>
       </c>
       <c r="G20" t="n">
-        <v>0.131</v>
+        <v>0.159</v>
       </c>
       <c r="H20" t="n">
-        <v>0.182</v>
+        <v>0.295</v>
       </c>
       <c r="I20" t="n">
-        <v>0.195</v>
+        <v>0.213</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -14050,7 +14029,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -14062,22 +14041,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1268642246723175</v>
+        <v>0.6812741756439209</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.06189344078302383</v>
+        <v>0.291055828332901</v>
       </c>
       <c r="G21" t="n">
-        <v>0.18</v>
+        <v>0.131</v>
       </c>
       <c r="H21" t="n">
-        <v>0.256</v>
+        <v>0.182</v>
       </c>
       <c r="I21" t="n">
-        <v>0.142</v>
+        <v>0.195</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -14092,7 +14071,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -14104,22 +14083,22 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1939173638820648</v>
+        <v>-0.1268642246723175</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1034949570894241</v>
+        <v>-0.2708669900894165</v>
       </c>
       <c r="G22" t="n">
-        <v>0.095</v>
+        <v>0.18</v>
       </c>
       <c r="H22" t="n">
-        <v>0.233</v>
+        <v>0.256</v>
       </c>
       <c r="I22" t="n">
-        <v>0.279</v>
+        <v>0.142</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -14134,34 +14113,34 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ECH1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SARS2</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3769468069076538</v>
+        <v>-0.1939173638820648</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1944777369499207</v>
+        <v>-0.4082302153110504</v>
       </c>
       <c r="G23" t="n">
-        <v>0.065</v>
+        <v>0.095</v>
       </c>
       <c r="H23" t="n">
-        <v>0.343</v>
+        <v>0.233</v>
       </c>
       <c r="I23" t="n">
-        <v>0.289</v>
+        <v>0.279</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -14176,34 +14155,34 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ECH1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>SARS2</t>
         </is>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3600203394889832</v>
+        <v>0.3769468069076538</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.05776886641979218</v>
+        <v>0.4560859799385071</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.127</v>
+        <v>0.065</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.018</v>
+        <v>0.343</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.017</v>
+        <v>0.289</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -14218,31 +14197,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4857894778251648</v>
+        <v>0.3600203394889832</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.114</v>
+        <v>-0.127</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.354</v>
+        <v>-0.018</v>
       </c>
       <c r="I25" t="n">
-        <v>0.148</v>
+        <v>-0.017</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -14262,26 +14241,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.4404551982879639</v>
+        <v>0.4857894778251648</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.308</v>
+        <v>0.114</v>
       </c>
       <c r="H26" t="n">
-        <v>0.132</v>
+        <v>-0.354</v>
       </c>
       <c r="I26" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -14296,31 +14275,31 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3331061601638794</v>
+        <v>-0.4404551982879639</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.205</v>
+        <v>0.308</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.263</v>
+        <v>0.132</v>
       </c>
       <c r="I27" t="n">
-        <v>0.269</v>
+        <v>0.152</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -14340,26 +14319,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3171176612377167</v>
+        <v>0.3331061601638794</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.214</v>
+        <v>0.205</v>
       </c>
       <c r="H28" t="n">
-        <v>0.179</v>
+        <v>-0.263</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.034</v>
+        <v>0.269</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -14379,26 +14358,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.4373143315315247</v>
+        <v>0.3171176612377167</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.003</v>
+        <v>0.214</v>
       </c>
       <c r="H29" t="n">
-        <v>0.386</v>
+        <v>0.179</v>
       </c>
       <c r="I29" t="n">
-        <v>0.34</v>
+        <v>-0.034</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -14413,39 +14392,81 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>EML1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SPATA25</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.4373143315315247</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>MGLL</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>SLC39A1</t>
         </is>
       </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.3442297875881195</v>
       </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3319037258625031</v>
+      </c>
+      <c r="G31" t="n">
         <v>-0.034</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>-0.371</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>0.144</v>
       </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" t="b">
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14455,924 +14476,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gene_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>gene_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Present_and_replicable_in_ORF</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ORF_cosine_similarity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Present_and_replicable_in_CRISPR</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CRISPR_cosine_similarity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gene_mf</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gene_bp</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gene_pathway</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Evidence_in_ORF</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Evidence_in_CRISPR</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Evidence_in_Knowledge_Graph</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ZBTB16</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.2944905459880829</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.3046866357326508</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.103</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TRAF2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>WWTR1</t>
-        </is>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.1588208675384521</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.2905512452125549</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CDC42SE2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CHRM4</t>
-        </is>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3199597299098969</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4198078215122223</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CDC42SE2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GPR176</t>
-        </is>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3294245600700378</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3228223919868469</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CDC42SE2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MYT1</t>
-        </is>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.1175710409879684</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.2571718692779541</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.038</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CDC42SE2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TSC22D1</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2355031669139862</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2686706185340881</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CHRM4</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>GPR176</t>
-        </is>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6893683075904846</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.3144550323486328</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CHRM4</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TSC22D1</t>
-        </is>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4785754680633545</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3196924030780792</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.268</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GPR176</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TSC22D1</t>
-        </is>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6812741756439209</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.2792439758777618</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CCL14</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
-        </is>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.3811587989330292</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.2773579359054565</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.127</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GJB2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
-        </is>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.3289414346218109</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.254977285861969</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.621</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0.401</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gene_1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>gene_2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Present_and_replicable_in_ORF</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ORF_cosine_similarity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Present_and_replicable_in_CRISPR</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CRISPR_cosine_similarity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gene_mf</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gene_bp</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gene_pathway</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Evidence_in_ORF</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Evidence_in_CRISPR</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Evidence_in_Knowledge_Graph</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ZBTB16</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.2944905459880829</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.3046866357326508</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.103</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TRAF2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>WWTR1</t>
-        </is>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.1588208675384521</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.2905512452125549</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CDC42SE2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CHRM4</t>
-        </is>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3199597299098969</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4198078215122223</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CHRM4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GPR176</t>
-        </is>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6893683075904846</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3144550323486328</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CHRM4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TSC22D1</t>
-        </is>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4785754680633545</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3196924030780792</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.268</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CCL14</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3811587989330292</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2773579359054565</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0.127</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GJB2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
-        </is>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3289414346218109</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.254977285861969</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.621</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.401</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15451,34 +14554,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>ZBTB16</t>
         </is>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3294245600700378</v>
+        <v>-0.2944905459880829</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3228223919868469</v>
+        <v>-0.6272752285003662</v>
       </c>
       <c r="G2" t="n">
-        <v>0.081</v>
+        <v>0.286</v>
       </c>
       <c r="H2" t="n">
-        <v>0.157</v>
+        <v>0.633</v>
       </c>
       <c r="I2" t="n">
-        <v>0.202</v>
+        <v>-0.103</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -15487,7 +14590,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -15511,7 +14614,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2571718692779541</v>
+        <v>-0.727069616317749</v>
       </c>
       <c r="G3" t="n">
         <v>0.041</v>
@@ -15535,34 +14638,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2355031669139862</v>
+        <v>-0.2462649643421173</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2686706185340881</v>
+        <v>-0.6040228009223938</v>
       </c>
       <c r="G4" t="n">
-        <v>0.081</v>
+        <v>0.159</v>
       </c>
       <c r="H4" t="n">
-        <v>0.185</v>
+        <v>0.295</v>
       </c>
       <c r="I4" t="n">
-        <v>0.193</v>
+        <v>0.213</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -15577,42 +14680,372 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>CCL14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MGLL</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3692989349365234</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.6117900013923645</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gene_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>gene_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Present_and_replicable_in_ORF</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ORF_cosine_similarity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Present_and_replicable_in_CRISPR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CRISPR_cosine_similarity</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gene_mf</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>gene_bp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gene_pathway</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Evidence_in_ORF</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Evidence_in_CRISPR</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Evidence_in_Knowledge_Graph</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SLC39A1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ZBTB16</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.2944905459880829</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.6272752285003662</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.103</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CCL14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MGLL</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3692989349365234</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.6117900013923645</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gene_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>gene_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Present_and_replicable_in_ORF</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ORF_cosine_similarity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Present_and_replicable_in_CRISPR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CRISPR_cosine_similarity</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gene_mf</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>gene_bp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gene_pathway</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Evidence_in_ORF</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Evidence_in_CRISPR</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Evidence_in_Knowledge_Graph</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CDC42SE2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MYT1</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.1175710409879684</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.727069616317749</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.038</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>GPR176</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TSC22D1</t>
-        </is>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6812741756439209</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2792439758777618</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MYT1</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.2462649643421173</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.6040228009223938</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/07.compute-cosine-similarities/output/connections.xlsx
+++ b/07.compute-cosine-similarities/output/connections.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I184"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2237,28 +2237,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TFAP2A</t>
+          <t>TEX45</t>
         </is>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.1201492759255749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.358</v>
-      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2268,27 +2260,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VCAM1</t>
+          <t>TFAP2A</t>
         </is>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>2.876915946105775e-05</v>
+        <v>0.1201492759255749</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>0.315</v>
+        <v>0.192</v>
       </c>
       <c r="H60" t="n">
-        <v>0.107</v>
+        <v>0.182</v>
       </c>
       <c r="I60" t="n">
-        <v>0.15</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="61">
@@ -2299,58 +2291,58 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>VCAM1</t>
         </is>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9996286512504166</v>
+        <v>2.876915946105775e-05</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>0.224</v>
+        <v>0.315</v>
       </c>
       <c r="H61" t="n">
-        <v>0.293</v>
+        <v>0.107</v>
       </c>
       <c r="I61" t="n">
-        <v>0.257</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CORO2B</t>
+          <t>CORO2A</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EBF1</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1465091497863657</v>
+        <v>0.9996286512504166</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>0.095</v>
+        <v>0.224</v>
       </c>
       <c r="H62" t="n">
-        <v>0.054</v>
+        <v>0.293</v>
       </c>
       <c r="I62" t="n">
-        <v>0.143</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="63">
@@ -2361,27 +2353,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FOXG1</t>
+          <t>EBF1</t>
         </is>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1026823296059536</v>
+        <v>0.1465091497863657</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>0.079</v>
+        <v>0.095</v>
       </c>
       <c r="H63" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.054</v>
       </c>
       <c r="I63" t="n">
-        <v>0.135</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="64">
@@ -2392,27 +2384,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FOXP3</t>
+          <t>FOXG1</t>
         </is>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1333463286850168</v>
+        <v>0.1026823296059536</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>0.163</v>
+        <v>0.079</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.222</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>0.358</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="65">
@@ -2423,27 +2415,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GMIP</t>
+          <t>FOXP3</t>
         </is>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9750581098581308</v>
+        <v>0.1333463286850168</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>0.211</v>
+        <v>0.163</v>
       </c>
       <c r="H65" t="n">
-        <v>0.303</v>
+        <v>-0.222</v>
       </c>
       <c r="I65" t="n">
-        <v>0.323</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="66">
@@ -2454,27 +2446,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LCOR</t>
+          <t>GMIP</t>
         </is>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1952815543762403</v>
+        <v>0.9750581098581308</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>0.078</v>
+        <v>0.211</v>
       </c>
       <c r="H66" t="n">
-        <v>0.132</v>
+        <v>0.303</v>
       </c>
       <c r="I66" t="n">
-        <v>0.11</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="67">
@@ -2485,27 +2477,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TFAP2A</t>
+          <t>LCOR</t>
         </is>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1640680279348134</v>
+        <v>0.1952815543762403</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
-        <v>0.139</v>
+        <v>0.078</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08</v>
+        <v>0.132</v>
       </c>
       <c r="I67" t="n">
-        <v>0.365</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="68">
@@ -2516,28 +2508,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VCAM1</t>
+          <t>TEX45</t>
         </is>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>6.429563204447364e-05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.188</v>
-      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2547,89 +2531,89 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>TFAP2A</t>
         </is>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9991031184190801</v>
+        <v>0.1640680279348134</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>0.137</v>
+        <v>0.139</v>
       </c>
       <c r="H69" t="n">
-        <v>0.191</v>
+        <v>0.08</v>
       </c>
       <c r="I69" t="n">
-        <v>0.109</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EBF1</t>
+          <t>CORO2B</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FOXG1</t>
+          <t>VCAM1</t>
         </is>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9982692174242377</v>
+        <v>6.429563204447364e-05</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>0.193</v>
+        <v>0.302</v>
       </c>
       <c r="H70" t="n">
-        <v>0.198</v>
+        <v>0.197</v>
       </c>
       <c r="I70" t="n">
-        <v>0.345</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EBF1</t>
+          <t>CORO2B</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FOXP3</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9988684737556276</v>
+        <v>0.9991031184190801</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>0.544</v>
+        <v>0.137</v>
       </c>
       <c r="H71" t="n">
-        <v>0.312</v>
+        <v>0.191</v>
       </c>
       <c r="I71" t="n">
-        <v>0.662</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="72">
@@ -2640,27 +2624,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GMIP</t>
+          <t>FOXG1</t>
         </is>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07858441573418105</v>
+        <v>0.9982692174242377</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>0.151</v>
+        <v>0.193</v>
       </c>
       <c r="H72" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.198</v>
       </c>
       <c r="I72" t="n">
-        <v>0.217</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="73">
@@ -2671,27 +2655,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LCOR</t>
+          <t>FOXP3</t>
         </is>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9990174583479422</v>
+        <v>0.9988684737556276</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>0.159</v>
+        <v>0.544</v>
       </c>
       <c r="H73" t="n">
-        <v>0.157</v>
+        <v>0.312</v>
       </c>
       <c r="I73" t="n">
-        <v>0.228</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="74">
@@ -2702,27 +2686,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TFAP2A</t>
+          <t>GMIP</t>
         </is>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9986653497324286</v>
+        <v>0.07858441573418105</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>0.569</v>
+        <v>0.151</v>
       </c>
       <c r="H74" t="n">
-        <v>0.31</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>0.397</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="75">
@@ -2733,27 +2717,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VCAM1</t>
+          <t>LCOR</t>
         </is>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7084267740931089</v>
+        <v>0.9990174583479422</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
-        <v>0.272</v>
+        <v>0.159</v>
       </c>
       <c r="H75" t="n">
-        <v>0.206</v>
+        <v>0.157</v>
       </c>
       <c r="I75" t="n">
-        <v>0.171</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="76">
@@ -2764,120 +2748,112 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>TEX45</t>
         </is>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.003043157987801634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.454</v>
-      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FOXG1</t>
+          <t>EBF1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FOXP3</t>
+          <t>TFAP2A</t>
         </is>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9987540242935522</v>
+        <v>0.9986653497324286</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>0.627</v>
+        <v>0.569</v>
       </c>
       <c r="H77" t="n">
-        <v>0.128</v>
+        <v>0.31</v>
       </c>
       <c r="I77" t="n">
-        <v>0.704</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FOXG1</t>
+          <t>EBF1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GMIP</t>
+          <t>VCAM1</t>
         </is>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.666739715784173</v>
+        <v>0.7084267740931089</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>0.021</v>
+        <v>0.272</v>
       </c>
       <c r="H78" t="n">
-        <v>0.158</v>
+        <v>0.206</v>
       </c>
       <c r="I78" t="n">
-        <v>0.11</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>FOXG1</t>
+          <t>EBF1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LCOR</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9968274617205293</v>
+        <v>0.003043157987801634</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
-        <v>0.165</v>
+        <v>0.452</v>
       </c>
       <c r="H79" t="n">
-        <v>0.156</v>
+        <v>0.393</v>
       </c>
       <c r="I79" t="n">
-        <v>0.285</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="80">
@@ -2888,27 +2864,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TFAP2A</t>
+          <t>FOXP3</t>
         </is>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9961889158619428</v>
+        <v>0.9987540242935522</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>0.447</v>
+        <v>0.627</v>
       </c>
       <c r="H80" t="n">
-        <v>0.499</v>
+        <v>0.128</v>
       </c>
       <c r="I80" t="n">
-        <v>0.38</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="81">
@@ -2919,27 +2895,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VCAM1</t>
+          <t>GMIP</t>
         </is>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8990190970975317</v>
+        <v>0.666739715784173</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>0.184</v>
+        <v>0.021</v>
       </c>
       <c r="H81" t="n">
-        <v>0.285</v>
+        <v>0.158</v>
       </c>
       <c r="I81" t="n">
-        <v>0.257</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="82">
@@ -2950,151 +2926,143 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>LCOR</t>
         </is>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0001220969601599743</v>
+        <v>0.9968274617205293</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>0.427</v>
+        <v>0.165</v>
       </c>
       <c r="H82" t="n">
-        <v>0.495</v>
+        <v>0.156</v>
       </c>
       <c r="I82" t="n">
-        <v>0.398</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FOXP3</t>
+          <t>FOXG1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GMIP</t>
+          <t>TEX45</t>
         </is>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.1198391273921445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="n">
-        <v>0.279</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.262</v>
-      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FOXP3</t>
+          <t>FOXG1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LCOR</t>
+          <t>TFAP2A</t>
         </is>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9988769507442452</v>
+        <v>0.9961889158619428</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>0.504</v>
+        <v>0.447</v>
       </c>
       <c r="H84" t="n">
-        <v>0.202</v>
+        <v>0.499</v>
       </c>
       <c r="I84" t="n">
-        <v>0.613</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FOXP3</t>
+          <t>FOXG1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TFAP2A</t>
+          <t>VCAM1</t>
         </is>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9981282647280596</v>
+        <v>0.8990190970975317</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.184</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.297</v>
+        <v>0.285</v>
       </c>
       <c r="I85" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FOXP3</t>
+          <t>FOXG1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>VCAM1</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9209511707247299</v>
+        <v>0.0001220969601599743</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
-        <v>0.732</v>
+        <v>0.427</v>
       </c>
       <c r="H86" t="n">
-        <v>0.645</v>
+        <v>0.495</v>
       </c>
       <c r="I86" t="n">
-        <v>0.853</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="87">
@@ -3105,33 +3073,33 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>GMIP</t>
         </is>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>8.685372824635787e-05</v>
+        <v>0.1198391273921445</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>0.959</v>
+        <v>0.279</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.018</v>
+        <v>0.389</v>
       </c>
       <c r="I87" t="n">
-        <v>0.701</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GMIP</t>
+          <t>FOXP3</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3143,274 +3111,258 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001538583549826991</v>
+        <v>0.9988769507442452</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>0.043</v>
+        <v>0.504</v>
       </c>
       <c r="H88" t="n">
-        <v>0.223</v>
+        <v>0.202</v>
       </c>
       <c r="I88" t="n">
-        <v>0.108</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GMIP</t>
+          <t>FOXP3</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TFAP2A</t>
+          <t>TEX45</t>
         </is>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.001992011399223071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.362</v>
-      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GMIP</t>
+          <t>FOXP3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>VCAM1</t>
+          <t>TFAP2A</t>
         </is>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7778725105421166</v>
+        <v>0.9981282647280596</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
-        <v>0.537</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0.373</v>
+        <v>-0.297</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.184</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GMIP</t>
+          <t>FOXP3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>VCAM1</t>
         </is>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9974026628264627</v>
+        <v>0.9209511707247299</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>0.238</v>
+        <v>0.732</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.311</v>
+        <v>0.645</v>
       </c>
       <c r="I91" t="n">
-        <v>0.199</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LCOR</t>
+          <t>FOXP3</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TFAP2A</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9993575494664656</v>
+        <v>8.685372824635787e-05</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>0.384</v>
+        <v>0.959</v>
       </c>
       <c r="H92" t="n">
-        <v>0.257</v>
+        <v>-0.018</v>
       </c>
       <c r="I92" t="n">
-        <v>0.43</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>GMIP</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>LCOR</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>VCAM1</t>
-        </is>
-      </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8287263091940124</v>
+        <v>0.001538583549826991</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>0.183</v>
+        <v>0.043</v>
       </c>
       <c r="H93" t="n">
-        <v>0.143</v>
+        <v>0.223</v>
       </c>
       <c r="I93" t="n">
-        <v>0.116</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LCOR</t>
+          <t>GMIP</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>TEX45</t>
         </is>
       </c>
       <c r="C94" t="b">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.0004413496579767755</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="n">
-        <v>0.338</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.22</v>
-      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>GMIP</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>TFAP2A</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>VCAM1</t>
-        </is>
-      </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>0.346644741141294</v>
+        <v>0.001992011399223071</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
-        <v>0.581</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0.376</v>
+        <v>0.11</v>
       </c>
       <c r="I95" t="n">
-        <v>0.225</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TFAP2A</t>
+          <t>GMIP</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>VCAM1</t>
         </is>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0005826867522066978</v>
+        <v>0.7778725105421166</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>0.832</v>
+        <v>0.537</v>
       </c>
       <c r="H96" t="n">
-        <v>0.835</v>
+        <v>0.373</v>
       </c>
       <c r="I96" t="n">
-        <v>0.579</v>
+        <v>-0.184</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>VCAM1</t>
+          <t>GMIP</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3422,595 +3374,563 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0009124598177589067</v>
+        <v>0.9974026628264627</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>0.501</v>
+        <v>0.238</v>
       </c>
       <c r="H97" t="n">
-        <v>0.299</v>
+        <v>-0.311</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.038</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>LCOR</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>TEX45</t>
         </is>
       </c>
       <c r="C98" t="b">
-        <v>1</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.9929219977449997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.572675259336049</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>LCOR</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>TFAP2A</t>
         </is>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8870262420457422</v>
+        <v>0.9993575494664656</v>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.2870808521043932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>0.75</v>
+        <v>0.384</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.103</v>
+        <v>0.257</v>
       </c>
       <c r="I99" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>LCOR</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>VCAM1</t>
         </is>
       </c>
       <c r="C100" t="b">
-        <v>0</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.8287263091940124</v>
+      </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.116</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>LCOR</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C101" t="b">
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7503184737859748</v>
+        <v>0.0004413496579767755</v>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.06812139603291692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>0.249</v>
+        <v>0.338</v>
       </c>
       <c r="H101" t="n">
-        <v>0.158</v>
+        <v>0.288</v>
       </c>
       <c r="I101" t="n">
-        <v>0.223</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>TEX45</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>TFAP2A</t>
         </is>
       </c>
       <c r="C102" t="b">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.7671666808624192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.4672964243313648</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>TEX45</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>VCAM1</t>
         </is>
       </c>
       <c r="C103" t="b">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.04096704029482926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.1434063234389841</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="H103" t="n">
-        <v>-0.163</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CDC25C</t>
+          <t>TEX45</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.8722391570919519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.8728176864567742</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>TFAP2A</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>VCAM1</t>
         </is>
       </c>
       <c r="C105" t="b">
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9959419097664013</v>
+        <v>0.346644741141294</v>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.9958348521765823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>0.178</v>
+        <v>0.581</v>
       </c>
       <c r="H105" t="n">
-        <v>0.329</v>
+        <v>0.376</v>
       </c>
       <c r="I105" t="n">
-        <v>0.433</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>TFAP2A</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C106" t="b">
-        <v>0</v>
-      </c>
-      <c r="D106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0005826867522066978</v>
+      </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.579</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>VCAM1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C107" t="b">
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9963643429939307</v>
+        <v>0.0009124598177589067</v>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.9802884441853152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>0.081</v>
+        <v>0.501</v>
       </c>
       <c r="H107" t="n">
-        <v>0.157</v>
+        <v>0.299</v>
       </c>
       <c r="I107" t="n">
-        <v>0.202</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>CDC25C</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>CDC42SE2</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>MAP4K4</t>
-        </is>
-      </c>
       <c r="C108" t="b">
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9846819197162414</v>
+        <v>0.9929219977449997</v>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.554220378979708</v>
+        <v>0.572675259336049</v>
       </c>
       <c r="G108" t="n">
-        <v>0.067</v>
+        <v>0.13</v>
       </c>
       <c r="H108" t="n">
-        <v>0.148</v>
+        <v>0.059</v>
       </c>
       <c r="I108" t="n">
-        <v>0.239</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="C109" t="b">
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0.04586754897484074</v>
+        <v>0.8870262420457422</v>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.03092102546226218</v>
+        <v>0.2870808521043932</v>
       </c>
       <c r="G109" t="n">
-        <v>0.041</v>
+        <v>0.75</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.038</v>
+        <v>-0.103</v>
       </c>
       <c r="I109" t="n">
-        <v>0.154</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CDC42SE2</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="C110" t="b">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.9875190403482403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.9570184540674161</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="C111" t="b">
-        <v>0</v>
-      </c>
-      <c r="D111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.7503184737859748</v>
+      </c>
       <c r="E111" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.06812139603291692</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.223</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C112" t="b">
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9999125393274613</v>
+        <v>0.7671666808624192</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9776702565021395</v>
+        <v>0.4672964243313648</v>
       </c>
       <c r="G112" t="n">
-        <v>0.651</v>
+        <v>0.45</v>
       </c>
       <c r="H112" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="I112" t="n">
-        <v>0.738</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C113" t="b">
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8651086946186094</v>
+        <v>0.04096704029482926</v>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1743943351726376</v>
+        <v>0.1434063234389841</v>
       </c>
       <c r="G113" t="n">
-        <v>0.406</v>
+        <v>0.408</v>
       </c>
       <c r="H113" t="n">
-        <v>0.034</v>
+        <v>-0.163</v>
       </c>
       <c r="I113" t="n">
-        <v>0.506</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CHRM4</t>
+          <t>CDC25C</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C114" t="b">
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0201619610612866</v>
+        <v>0.8722391570919519</v>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4676901800402373</v>
+        <v>0.8728176864567742</v>
       </c>
       <c r="G114" t="n">
-        <v>0.226</v>
+        <v>0.237</v>
       </c>
       <c r="H114" t="n">
-        <v>0.26</v>
+        <v>0.263</v>
       </c>
       <c r="I114" t="n">
-        <v>0.594</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>CDC42SE2</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>CHRM4</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>TSC22D1</t>
-        </is>
-      </c>
       <c r="C115" t="b">
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>0.999202353810892</v>
+        <v>0.9959419097664013</v>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9793357433216151</v>
+        <v>0.9958348521765823</v>
       </c>
       <c r="G115" t="n">
-        <v>0.268</v>
+        <v>0.178</v>
       </c>
       <c r="H115" t="n">
-        <v>0.079</v>
+        <v>0.329</v>
       </c>
       <c r="I115" t="n">
-        <v>0.442</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>CDC42SE2</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>DPAT1</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>GPR176</t>
         </is>
       </c>
       <c r="C116" t="b">
@@ -4028,241 +3948,261 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="C117" t="b">
-        <v>0</v>
-      </c>
-      <c r="D117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.9963643429939307</v>
+      </c>
       <c r="E117" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.9802884441853152</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.202</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C118" t="b">
-        <v>0</v>
-      </c>
-      <c r="D118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.9846819197162414</v>
+      </c>
       <c r="E118" t="b">
-        <v>0</v>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.554220378979708</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.239</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DPAT1</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C119" t="b">
-        <v>0</v>
-      </c>
-      <c r="D119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.04586754897484074</v>
+      </c>
       <c r="E119" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.03092102546226218</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-0.038</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.154</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>CDC42SE2</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C120" t="b">
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3200972001052846</v>
+        <v>0.9875190403482403</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6277514692267996</v>
+        <v>0.9570184540674161</v>
       </c>
       <c r="G120" t="n">
-        <v>0.169</v>
+        <v>0.081</v>
       </c>
       <c r="H120" t="n">
-        <v>0.159</v>
+        <v>0.185</v>
       </c>
       <c r="I120" t="n">
-        <v>0.121</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>GPR176</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="C121" t="b">
-        <v>1</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.001344543459537958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="b">
-        <v>1</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.1631085467003246</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>CHRM4</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
           <t>GPR176</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>TSC22D1</t>
-        </is>
-      </c>
       <c r="C122" t="b">
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>0.999903495857504</v>
+        <v>0.9999125393274613</v>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9628829395396873</v>
+        <v>0.9776702565021395</v>
       </c>
       <c r="G122" t="n">
-        <v>0.131</v>
+        <v>0.651</v>
       </c>
       <c r="H122" t="n">
-        <v>0.182</v>
+        <v>0.364</v>
       </c>
       <c r="I122" t="n">
-        <v>0.195</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>CHRM4</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
           <t>MAP4K4</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>MYT1</t>
-        </is>
-      </c>
       <c r="C123" t="b">
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8513820425010717</v>
+        <v>0.8651086946186094</v>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2762185079165742</v>
+        <v>0.1743943351726376</v>
       </c>
       <c r="G123" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.406</v>
       </c>
       <c r="H123" t="n">
-        <v>0.063</v>
+        <v>0.034</v>
       </c>
       <c r="I123" t="n">
-        <v>0.229</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MAP4K4</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TSC22D1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C124" t="b">
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>0.03642693513566116</v>
+        <v>0.0201619610612866</v>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2986075310128552</v>
+        <v>0.4676901800402373</v>
       </c>
       <c r="G124" t="n">
-        <v>0.18</v>
+        <v>0.226</v>
       </c>
       <c r="H124" t="n">
-        <v>0.256</v>
+        <v>0.26</v>
       </c>
       <c r="I124" t="n">
-        <v>0.142</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MYT1</t>
+          <t>CHRM4</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4274,632 +4214,614 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0.005955984804542695</v>
+        <v>0.999202353810892</v>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2074061452424952</v>
+        <v>0.9793357433216151</v>
       </c>
       <c r="G125" t="n">
-        <v>0.095</v>
+        <v>0.268</v>
       </c>
       <c r="H125" t="n">
-        <v>0.233</v>
+        <v>0.079</v>
       </c>
       <c r="I125" t="n">
-        <v>0.279</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ECH1</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SARS2</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="C126" t="b">
-        <v>1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.9978409575315009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="b">
-        <v>1</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.8907429200226192</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ECH1</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>UQCRFS1</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C127" t="b">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.9998274457376629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="b">
-        <v>1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.7324041535390375</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SARS2</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>UQCRFS1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C128" t="b">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.9992638170362385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="b">
-        <v>1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.8749824161037598</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-0.285</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>DPAT1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C129" t="b">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.9985259346284581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="b">
-        <v>1</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.8545057209852704</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.6860000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="C130" t="b">
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9987032230562761</v>
+        <v>0.3200972001052846</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7689719590915491</v>
+        <v>0.6277514692267996</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.118</v>
+        <v>0.169</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.251</v>
+        <v>0.159</v>
       </c>
       <c r="I130" t="n">
-        <v>0.575</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C131" t="b">
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9984413872885229</v>
+        <v>0.001344543459537958</v>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
-      </c>
-      <c r="F131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.1631085467003246</v>
+      </c>
       <c r="G131" t="n">
-        <v>0.417</v>
+        <v>0.159</v>
       </c>
       <c r="H131" t="n">
-        <v>0.096</v>
+        <v>0.295</v>
       </c>
       <c r="I131" t="n">
-        <v>0.354</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>GPR176</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C132" t="b">
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9964742808367658</v>
+        <v>0.999903495857504</v>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1658756975433273</v>
+        <v>0.9628829395396873</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.387</v>
+        <v>0.131</v>
       </c>
       <c r="H132" t="n">
-        <v>0.703</v>
+        <v>0.182</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.092</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="C133" t="b">
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9984275084957027</v>
+        <v>0.8513820425010717</v>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
-      </c>
-      <c r="F133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.2762185079165742</v>
+      </c>
       <c r="G133" t="n">
-        <v>-0.131</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.455</v>
+        <v>0.063</v>
       </c>
       <c r="I133" t="n">
-        <v>0.146</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>MAP4K4</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C134" t="b">
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8370340817428527</v>
+        <v>0.03642693513566116</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
-      </c>
-      <c r="F134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.2986075310128552</v>
+      </c>
       <c r="G134" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="H134" t="n">
-        <v>0.348</v>
+        <v>0.256</v>
       </c>
       <c r="I134" t="n">
-        <v>0.517</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>MYT1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>TSC22D1</t>
         </is>
       </c>
       <c r="C135" t="b">
-        <v>0</v>
-      </c>
-      <c r="D135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.005955984804542695</v>
+      </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.7799057119453756</v>
+        <v>0.2074061452424952</v>
       </c>
       <c r="G135" t="n">
-        <v>0.015</v>
+        <v>0.095</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.185</v>
+        <v>0.233</v>
       </c>
       <c r="I135" t="n">
-        <v>0.257</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>ECH1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>SARS2</t>
         </is>
       </c>
       <c r="C136" t="b">
-        <v>0</v>
-      </c>
-      <c r="D136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.9978409575315009</v>
+      </c>
       <c r="E136" t="b">
-        <v>0</v>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.8907429200226192</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.289</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>ECH1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>UQCRFS1</t>
         </is>
       </c>
       <c r="C137" t="b">
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9995759887173102</v>
+        <v>0.9998274457376629</v>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5084150365319061</v>
+        <v>0.7324041535390375</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.049</v>
+        <v>0.091</v>
       </c>
       <c r="H137" t="n">
-        <v>0.233</v>
+        <v>0.413</v>
       </c>
       <c r="I137" t="n">
-        <v>0.759</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ATG7</t>
+          <t>SARS2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>UQCRFS1</t>
         </is>
       </c>
       <c r="C138" t="b">
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>7.081016744986084e-07</v>
+        <v>0.9992638170362385</v>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
-      </c>
-      <c r="F138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.8749824161037598</v>
+      </c>
       <c r="G138" t="n">
-        <v>0.03</v>
+        <v>-0.285</v>
       </c>
       <c r="H138" t="n">
-        <v>0.475</v>
+        <v>0.458</v>
       </c>
       <c r="I138" t="n">
-        <v>0.429</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>ATG7</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>CAMK2A</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>CCL14</t>
-        </is>
-      </c>
       <c r="C139" t="b">
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9874692102218321</v>
+        <v>0.9985259346284581</v>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4478430258023964</v>
+        <v>0.8545057209852704</v>
       </c>
       <c r="G139" t="n">
-        <v>0.571</v>
+        <v>0.198</v>
       </c>
       <c r="H139" t="n">
-        <v>0.672</v>
+        <v>0.386</v>
       </c>
       <c r="I139" t="n">
-        <v>0.029</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="C140" t="b">
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9736827943229668</v>
+        <v>0.9987032230562761</v>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
-      </c>
-      <c r="F140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.7689719590915491</v>
+      </c>
       <c r="G140" t="n">
-        <v>0.511</v>
+        <v>-0.118</v>
       </c>
       <c r="H140" t="n">
-        <v>0.081</v>
+        <v>-0.251</v>
       </c>
       <c r="I140" t="n">
-        <v>0.272</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="C141" t="b">
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9501209336502662</v>
+        <v>0.9984413872885229</v>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.1616731869889248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
-        <v>0.739</v>
+        <v>0.417</v>
       </c>
       <c r="H141" t="n">
-        <v>0.199</v>
+        <v>0.096</v>
       </c>
       <c r="I141" t="n">
-        <v>0.905</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="C142" t="b">
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>0.991958170208625</v>
+        <v>0.9964742808367658</v>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
-      </c>
-      <c r="F142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.1658756975433273</v>
+      </c>
       <c r="G142" t="n">
-        <v>0.554</v>
+        <v>-0.387</v>
       </c>
       <c r="H142" t="n">
-        <v>0.385</v>
+        <v>0.703</v>
       </c>
       <c r="I142" t="n">
-        <v>0.577</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C143" t="b">
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8869816114087723</v>
+        <v>0.9984275084957027</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="n">
-        <v>0.335</v>
+        <v>-0.131</v>
       </c>
       <c r="H143" t="n">
-        <v>0.736</v>
+        <v>-0.455</v>
       </c>
       <c r="I143" t="n">
-        <v>0.654</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="C144" t="b">
-        <v>0</v>
-      </c>
-      <c r="D144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.8370340817428527</v>
+      </c>
       <c r="E144" t="b">
-        <v>1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.3227693815508753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
-        <v>0.103</v>
+        <v>0.165</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.047</v>
+        <v>0.348</v>
       </c>
       <c r="I144" t="n">
-        <v>0.159</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C145" t="b">
@@ -4907,742 +4829,754 @@
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="b">
-        <v>0</v>
-      </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.7799057119453756</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-0.185</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.257</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.9974231370805939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="b">
-        <v>1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.308609719447838</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-0.127</v>
-      </c>
-      <c r="H146" t="n">
-        <v>-0.018</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-0.017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CAMK2A</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C147" t="b">
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1.308976524001713e-05</v>
+        <v>0.9995759887173102</v>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
-      </c>
-      <c r="F147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.5084150365319061</v>
+      </c>
       <c r="G147" t="n">
-        <v>0.371</v>
+        <v>-0.049</v>
       </c>
       <c r="H147" t="n">
-        <v>0.366</v>
+        <v>0.233</v>
       </c>
       <c r="I147" t="n">
-        <v>0.521</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>ATG7</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C148" t="b">
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9992524469464936</v>
+        <v>7.081016744986084e-07</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
-        <v>0.114</v>
+        <v>0.03</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.354</v>
+        <v>0.475</v>
       </c>
       <c r="I148" t="n">
-        <v>0.148</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
+          <t>CAMK2A</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
           <t>CCL14</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>GJB2</t>
-        </is>
-      </c>
       <c r="C149" t="b">
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9988886850005655</v>
+        <v>0.9874692102218321</v>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1908891191858111</v>
+        <v>0.4478430258023964</v>
       </c>
       <c r="G149" t="n">
-        <v>0.501</v>
+        <v>0.571</v>
       </c>
       <c r="H149" t="n">
-        <v>0.416</v>
+        <v>0.672</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.051</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="C150" t="b">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9976622326688575</v>
+        <v>0.9736827943229668</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="n">
-        <v>0.741</v>
+        <v>0.511</v>
       </c>
       <c r="H150" t="n">
-        <v>0.877</v>
+        <v>0.081</v>
       </c>
       <c r="I150" t="n">
-        <v>0.343</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="C151" t="b">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4971495265935676</v>
+        <v>0.9501209336502662</v>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
-      </c>
-      <c r="F151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.1616731869889248</v>
+      </c>
       <c r="G151" t="n">
-        <v>0.422</v>
+        <v>0.739</v>
       </c>
       <c r="H151" t="n">
-        <v>0.228</v>
+        <v>0.199</v>
       </c>
       <c r="I151" t="n">
-        <v>0.27</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C152" t="b">
-        <v>0</v>
-      </c>
-      <c r="D152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.991958170208625</v>
+      </c>
       <c r="E152" t="b">
-        <v>1</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.7743610696601942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>0.149</v>
+        <v>0.554</v>
       </c>
       <c r="H152" t="n">
-        <v>0.187</v>
+        <v>0.385</v>
       </c>
       <c r="I152" t="n">
-        <v>0.27</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="C153" t="b">
-        <v>0</v>
-      </c>
-      <c r="D153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.8869816114087723</v>
+      </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.654</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C154" t="b">
-        <v>1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.9979334356101904</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9618808769478453</v>
+        <v>0.3227693815508753</v>
       </c>
       <c r="G154" t="n">
-        <v>-0.127</v>
+        <v>0.103</v>
       </c>
       <c r="H154" t="n">
-        <v>0.221</v>
+        <v>-0.047</v>
       </c>
       <c r="I154" t="n">
-        <v>0.484</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CCL14</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C155" t="b">
-        <v>1</v>
-      </c>
-      <c r="D155" t="n">
-        <v>9.609951296766828e-06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.152</v>
-      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C156" t="b">
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>0.997822405267629</v>
+        <v>0.9974231370805939</v>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
-      </c>
-      <c r="F156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.308609719447838</v>
+      </c>
       <c r="G156" t="n">
-        <v>0.118</v>
+        <v>-0.127</v>
       </c>
       <c r="H156" t="n">
-        <v>0.266</v>
+        <v>-0.018</v>
       </c>
       <c r="I156" t="n">
-        <v>0.404</v>
+        <v>-0.017</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CAMK2A</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C157" t="b">
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9965215820286223</v>
+        <v>1.308976524001713e-05</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>0.205</v>
+        <v>0.371</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.263</v>
+        <v>0.366</v>
       </c>
       <c r="I157" t="n">
-        <v>0.269</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>CCL14</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
           <t>EML1</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>PER1</t>
-        </is>
-      </c>
       <c r="C158" t="b">
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3842023325678417</v>
+        <v>0.9992524469464936</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="n">
-        <v>0.274</v>
+        <v>0.114</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.34</v>
+        <v>-0.354</v>
       </c>
       <c r="I158" t="n">
-        <v>0.246</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="C159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.9988886850005655</v>
+      </c>
       <c r="E159" t="b">
-        <v>0</v>
-      </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.1908891191858111</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-0.051</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C160" t="b">
-        <v>0</v>
-      </c>
-      <c r="D160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.9976622326688575</v>
+      </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.343</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="C161" t="b">
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>0.995802899291959</v>
+        <v>0.4971495265935676</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="n">
-        <v>0.214</v>
+        <v>0.422</v>
       </c>
       <c r="H161" t="n">
-        <v>0.179</v>
+        <v>0.228</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.034</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>EML1</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C162" t="b">
-        <v>1</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.021689558919421e-05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="b">
-        <v>0</v>
-      </c>
-      <c r="F162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.7743610696601942</v>
+      </c>
       <c r="G162" t="n">
-        <v>-0.003</v>
+        <v>0.149</v>
       </c>
       <c r="H162" t="n">
-        <v>0.386</v>
+        <v>0.187</v>
       </c>
       <c r="I162" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C163" t="b">
-        <v>1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.9977142680261949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="inlineStr"/>
-      <c r="G163" t="n">
-        <v>-0.514</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.497</v>
-      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C164" t="b">
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5088672740290763</v>
+        <v>0.9979334356101904</v>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
-      </c>
-      <c r="F164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.9618808769478453</v>
+      </c>
       <c r="G164" t="n">
-        <v>0.01</v>
+        <v>-0.127</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.33</v>
+        <v>0.221</v>
       </c>
       <c r="I164" t="n">
-        <v>0.525</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>CCL14</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C165" t="b">
-        <v>0</v>
-      </c>
-      <c r="D165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.609951296766828e-06</v>
+      </c>
       <c r="E165" t="b">
-        <v>1</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.784382280895548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F165" t="inlineStr"/>
       <c r="G165" t="n">
-        <v>-0.441</v>
+        <v>0.308</v>
       </c>
       <c r="H165" t="n">
-        <v>0.213</v>
+        <v>0.132</v>
       </c>
       <c r="I165" t="n">
-        <v>0.275</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
+          <t>EML1</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>GJB2</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>POLRID</t>
-        </is>
-      </c>
       <c r="C166" t="b">
-        <v>0</v>
-      </c>
-      <c r="D166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.997822405267629</v>
+      </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.404</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="C167" t="b">
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9963433629528892</v>
+        <v>0.9965215820286223</v>
       </c>
       <c r="E167" t="b">
-        <v>1</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.03198415612093558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
-        <v>0.621</v>
+        <v>0.205</v>
       </c>
       <c r="H167" t="n">
-        <v>0.657</v>
+        <v>-0.263</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.401</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>GJB2</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="C168" t="b">
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>7.843743405803156e-05</v>
+        <v>0.3842023325678417</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
-        <v>0.436</v>
+        <v>0.274</v>
       </c>
       <c r="H168" t="n">
-        <v>0.679</v>
+        <v>-0.34</v>
       </c>
       <c r="I168" t="n">
-        <v>0.644</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C169" t="b">
-        <v>1</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.5753648595035236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" t="n">
-        <v>-0.056</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0.317</v>
-      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C170" t="b">
@@ -5660,120 +5594,136 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C171" t="b">
-        <v>0</v>
-      </c>
-      <c r="D171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.995802899291959</v>
+      </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-0.034</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MGLL</t>
+          <t>EML1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C172" t="b">
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9969355382675341</v>
+        <v>1.021689558919421e-05</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
-        <v>-0.034</v>
+        <v>-0.003</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.371</v>
+        <v>0.386</v>
       </c>
       <c r="I172" t="n">
-        <v>0.144</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>GJB2</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
           <t>MGLL</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>SPATA25</t>
-        </is>
-      </c>
       <c r="C173" t="b">
         <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>7.870044325141675e-06</v>
+        <v>0.9977142680261949</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
-        <v>0.267</v>
+        <v>-0.514</v>
       </c>
       <c r="H173" t="n">
-        <v>0.201</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="I173" t="n">
-        <v>0.458</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>GJB2</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>PER1</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>PNPLA4</t>
-        </is>
-      </c>
       <c r="C174" t="b">
-        <v>0</v>
-      </c>
-      <c r="D174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.5088672740290763</v>
+      </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.525</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C175" t="b">
@@ -5781,138 +5731,148 @@
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="b">
-        <v>0</v>
-      </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.784382280895548</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-0.441</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.275</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>POLRID</t>
         </is>
       </c>
       <c r="C176" t="b">
-        <v>1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.8261033994342875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="inlineStr"/>
-      <c r="G176" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H176" t="n">
-        <v>-0.405</v>
-      </c>
-      <c r="I176" t="n">
-        <v>-0.043</v>
-      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PER1</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C177" t="b">
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>0.143411629821439</v>
+        <v>0.9963433629528892</v>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
-      </c>
-      <c r="F177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.03198415612093558</v>
+      </c>
       <c r="G177" t="n">
-        <v>0.273</v>
+        <v>0.621</v>
       </c>
       <c r="H177" t="n">
-        <v>0.18</v>
+        <v>0.657</v>
       </c>
       <c r="I177" t="n">
-        <v>0.273</v>
+        <v>-0.401</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>GJB2</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>SPATA25</t>
         </is>
       </c>
       <c r="C178" t="b">
-        <v>0</v>
-      </c>
-      <c r="D178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>7.843743405803156e-05</v>
+      </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.644</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PNPLA4</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="C179" t="b">
-        <v>0</v>
-      </c>
-      <c r="D179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.5753648595035236</v>
+      </c>
       <c r="E179" t="b">
-        <v>1</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.3140883184722448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F179" t="inlineStr"/>
       <c r="G179" t="n">
-        <v>-0.05</v>
+        <v>-0.056</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.001</v>
+        <v>0.193</v>
       </c>
       <c r="I179" t="n">
-        <v>0.151</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
+          <t>MGLL</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
           <t>PNPLA4</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>SPATA25</t>
         </is>
       </c>
       <c r="C180" t="b">
@@ -5930,12 +5890,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
+          <t>MGLL</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>POLRID</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C181" t="b">
@@ -5953,30 +5913,38 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>POLRID</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SPATA25</t>
+          <t>SLC39A1</t>
         </is>
       </c>
       <c r="C182" t="b">
-        <v>0</v>
-      </c>
-      <c r="D182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.9969355382675341</v>
+      </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>-0.034</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-0.371</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.144</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SLC39A1</t>
+          <t>MGLL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5988,31 +5956,31 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>6.69661869311541e-06</v>
+        <v>7.870044325141675e-06</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="n">
-        <v>0.033</v>
+        <v>0.267</v>
       </c>
       <c r="H183" t="n">
-        <v>0.191</v>
+        <v>0.201</v>
       </c>
       <c r="I183" t="n">
-        <v>0.535</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>FOXO3</t>
+          <t>PER1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TGFB1</t>
+          <t>PNPLA4</t>
         </is>
       </c>
       <c r="C184" t="b">
@@ -6020,18 +5988,280 @@
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="b">
-        <v>1</v>
-      </c>
-      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>PER1</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>POLRID</t>
+        </is>
+      </c>
+      <c r="C185" t="b">
+        <v>0</v>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>PER1</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SLC39A1</t>
+        </is>
+      </c>
+      <c r="C186" t="b">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.8261033994342875</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H186" t="n">
+        <v>-0.405</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-0.043</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>PER1</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SPATA25</t>
+        </is>
+      </c>
+      <c r="C187" t="b">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.143411629821439</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>PNPLA4</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>POLRID</t>
+        </is>
+      </c>
+      <c r="C188" t="b">
+        <v>0</v>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PNPLA4</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>SLC39A1</t>
+        </is>
+      </c>
+      <c r="C189" t="b">
+        <v>0</v>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.3140883184722448</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="H189" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>PNPLA4</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SPATA25</t>
+        </is>
+      </c>
+      <c r="C190" t="b">
+        <v>0</v>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>POLRID</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SLC39A1</t>
+        </is>
+      </c>
+      <c r="C191" t="b">
+        <v>0</v>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>POLRID</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>SPATA25</t>
+        </is>
+      </c>
+      <c r="C192" t="b">
+        <v>0</v>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="b">
+        <v>0</v>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>SLC39A1</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>SPATA25</t>
+        </is>
+      </c>
+      <c r="C193" t="b">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>6.69661869311541e-06</v>
+      </c>
+      <c r="E193" t="b">
+        <v>0</v>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>FOXO3</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>TGFB1</t>
+        </is>
+      </c>
+      <c r="C194" t="b">
+        <v>0</v>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
+      <c r="F194" t="n">
         <v>0.06399894382810932</v>
       </c>
-      <c r="G184" t="n">
+      <c r="G194" t="n">
         <v>0.611</v>
       </c>
-      <c r="H184" t="n">
+      <c r="H194" t="n">
         <v>0.325</v>
       </c>
-      <c r="I184" t="n">
+      <c r="I194" t="n">
         <v>0.64</v>
       </c>
     </row>
